--- a/0_data/9_evaluation/distances/b_50/b_50_kl_oa_metrics.xlsx
+++ b/0_data/9_evaluation/distances/b_50/b_50_kl_oa_metrics.xlsx
@@ -532,69 +532,69 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>75.90379825653798</v>
+        <v>71.61516811955168</v>
       </c>
       <c r="C2" t="n">
         <v>11.04109589041096</v>
       </c>
       <c r="D2" t="n">
-        <v>3.426064757160648</v>
+        <v>3.427384806973848</v>
       </c>
       <c r="E2" t="n">
         <v>17.9788293897883</v>
       </c>
       <c r="F2" t="n">
-        <v>6.020622665006226</v>
+        <v>6.023723536737235</v>
       </c>
       <c r="G2" t="n">
-        <v>0.008468244084682441</v>
+        <v>0.008455790784557908</v>
       </c>
       <c r="H2" t="n">
-        <v>2.397770859277708</v>
+        <v>2.388418430884184</v>
       </c>
       <c r="I2" t="n">
-        <v>5.936488169364882</v>
+        <v>5.935242839352428</v>
       </c>
       <c r="J2" t="n">
-        <v>337.4308841843089</v>
+        <v>337.398505603985</v>
       </c>
       <c r="K2" t="n">
-        <v>5.658555417185553</v>
+        <v>5.661469489414695</v>
       </c>
       <c r="L2" t="n">
-        <v>3.006226650062267</v>
+        <v>3.005217932752179</v>
       </c>
       <c r="M2" t="n">
-        <v>4.87225404732254</v>
+        <v>4.837895392278954</v>
       </c>
       <c r="N2" t="inlineStr">
         <is>
-          <t>[79.54794520547945, 26.615193026151932, 119.90037359900374, 47.342465753424655, 13.165628891656288, 22.998754669987548, 0.2129514321295143, 14.250311332503113, 3.25653798256538, 4.266500622665006, 1.7148194271481942, 0.1320049813200498, 2.667496886674969, 0.0112079701120797, 0.20672478206724781, 0.07098381070983811, 0.0161892901618929, 0.049813200498132, 0.0, 0.0049813200498132005, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0]</t>
+          <t>[79.03113325031133, 26.998754669987548, 121.60398505603985, 47.21793275217933, 12.58530510585305, 22.265255292652554, 0.1917808219178082, 14.12826899128269, 3.2391033623910337, 4.247820672478206, 1.6874221668742218, 0.12702366127023662, 2.7148194271481945, 0.0112079701120797, 0.20672478206724781, 0.07098381070983811, 0.0161892901618929, 0.049813200498132, 0.0, 0.0049813200498132005, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0]</t>
         </is>
       </c>
       <c r="O2" t="inlineStr">
         <is>
-          <t>[61.74595267745953, 1.1718555417185554, 58.93648816936488, 1.0087173100871731, 65.3175591531756, 13.176836861768368, 1.5031133250311333, 53.34620174346202, 1.4333748443337484, 57.05230386052304, 0.8194271481942715, 21.919053549190537]</t>
+          <t>[61.72976338729763, 1.1706102117061021, 58.935242839352426, 1.0087173100871731, 65.3175591531756, 13.176836861768368, 1.5031133250311333, 53.344956413449566, 1.4333748443337484, 57.04358655043587, 0.8194271481942715, 21.915317559153177]</t>
         </is>
       </c>
       <c r="P2" t="inlineStr">
         <is>
-          <t>[11.666251556662516, 71.21793275217932, 148.82814445828146, 24.763387297633873, 40.52926525529265, 3.1805728518057284, 9.570361145703611, 2.2577833125778333, 8.5093399750934, 1.1095890410958904, 2.4420921544209215, 0.6313823163138231, 3.4221668742216687, 0.5255292652552926, 1.7036114570361145, 0.42092154420921546, 3.24906600249066, 0.24283935242839352, 0.6973848069738481, 0.1581569115815691, 0.45828144458281445, 0.0759651307596513, 0.17683686176836863, 0.031133250311332503, 0.3026151930261519, 0.0224159402241594, 0.0647571606475716, 0.014943960149439602, 0.10211706102117062, 0.0136986301369863, 0.0323785803237858, 0.009962640099626401]</t>
+          <t>[7.661270236612703, 78.26276463262765, 146.58779576587796, 24.058530510585307, 40.43586550435865, 3.1892901618929015, 9.550435865504358, 2.2552926525529267, 8.511830635118306, 1.108343711083437, 2.4458281444582815, 0.6301369863013698, 3.4221668742216687, 0.5255292652552926, 1.706102117061021, 0.41967621419676215, 3.2428393524283936, 0.23661270236612703, 0.6961394769613948, 0.1569115815691158, 0.45828144458281445, 0.06973848069738481, 0.17683686176836863, 0.031133250311332503, 0.3001245330012453, 0.0224159402241594, 0.0647571606475716, 0.012453300124533, 0.10336239103362391, 0.0136986301369863, 0.0323785803237858, 0.009962640099626401]</t>
         </is>
       </c>
       <c r="Q2" t="inlineStr">
         <is>
-          <t>[4.204234122042341, 113.33001245330013, 59.40722291407223, 77.02366127023662, 13.826899128268991, 17.907845579078455, 0.0, 21.01120797011208, 0.0, 4.919053549190536, 2.4782067247820674, 4.731008717310087, 1.775840597758406, 1.86799501867995, 0.0, 4.171855541718555, 0.0, 1.273972602739726, 0.6376089663760897, 1.4408468244084682, 0.635118306351183, 0.7447073474470735, 0.0, 1.5865504358655043, 0.0, 0.5491905354919053, 0.28268991282689915, 0.6052303860523038, 0.24533001245330013, 0.3125778331257783, 0.0, 0.797011207970112, 0.0062266500622665, 0.2054794520547945, 0.0859277708592777, 0.273972602739726, 0.038605230386052306, 0.08841843088418432, 0.0012453300124533001, 0.21419676214196762, 0.0049813200498132005, 0.048567870485678705, 0.0448318804483188, 0.09713574097135741, 0.029887920298879204, 0.0273972602739726, 0.0012453300124533001, 0.12577833125778332, 0.0, 0.026151930261519303, 0.0186799501867995, 0.0448318804483188, 0.009962640099626401, 0.012453300124533, 0.0012453300124533001, 0.047322540473225407, 0.0, 0.012453300124533, 0.008717310087173101, 0.0224159402241594, 0.0037359900373599006, 0.009962640099626401, 0.0, 0.15317559153175592]</t>
+          <t>[7.043586550435865, 119.93399750933997, 49.99003735990038, 76.98505603985056, 13.828144458281445, 17.90535491905355, 0.0062266500622665, 21.001245330012452, 0.0012453300124533001, 4.914072229140722, 2.476961394769614, 4.7272727272727275, 1.7795765877957659, 1.8655043586550435, 0.0037359900373599006, 4.168119551681196, 0.0012453300124533001, 1.273972602739726, 0.6363636363636364, 1.4371108343711083, 0.6376089663760897, 0.7447073474470735, 0.0, 1.5840597758405977, 0.0, 0.5491905354919053, 0.28144458281444584, 0.6052303860523038, 0.24408468244084683, 0.3125778331257783, 0.0, 0.7982565379825654, 0.0, 0.2054794520547945, 0.0859277708592777, 0.2777085927770859, 0.039850560398505604, 0.08841843088418432, 0.0, 0.21544209215442092, 0.0, 0.049813200498132, 0.04234122042341221, 0.099626400996264, 0.029887920298879204, 0.0273972602739726, 0.0, 0.1232876712328767, 0.0, 0.026151930261519303, 0.0224159402241594, 0.047322540473225407, 0.009962640099626401, 0.012453300124533, 0.0, 0.05105853051058531, 0.0, 0.012453300124533, 0.009962640099626401, 0.024906600249066, 0.0037359900373599006, 0.009962640099626401, 0.0, 0.14694894146948942]</t>
         </is>
       </c>
       <c r="R2" t="inlineStr">
         <is>
-          <t>[[15.838107098381071, 0.10336239103362391, 15.991282689912827, 0.07098381070983811, 5.257783312577833, 0.8268991282689913, 0.012453300124533, 4.24159402241594, 0.05977584059775841, 10.712328767123287, 0.16313823163138233, 8.001245330012454], [0.10460772104607721, 0.26774595267745954, 0.15442092154420922, 0.20174346201743462, 0.05105853051058531, 0.06973848069738481, 0.023661270236612703, 0.0024906600249066002, 0.0547945205479452, 0.037359900373599, 0.09339975093399751, 0.06973848069738481], [17.341220423412203, 0.14694894146948942, 13.892901618929017, 0.038605230386052306, 18.13947696139477, 0.7932752179327521, 0.09838107098381071, 3.7696139476961394, 0.009962640099626401, 2.7073474470734746, 0.024906600249066, 1.9327521793275217], [0.05105853051058531, 0.24283935242839352, 0.11207970112079702, 0.19427148194271482, 0.047322540473225407, 0.24283935242839352, 0.007471980074719801, 0.0037359900373599006, 0.053549190535491904, 0.0, 0.05105853051058531, 0.0], [5.815691158156912, 0.0410958904109589, 20.398505603985058, 0.05603985056039851, 15.647571606475717, 4.443337484433375, 0.3586550435865504, 11.643835616438356, 0.0921544209215442, 5.462017434620174, 0.0024906600249066002, 1.3138231631382316], [0.47696139476961397, 0.0684931506849315, 0.7347447073474471, 0.30510585305105853, 5.266500622665006, 3.019925280199253, 0.08343711083437111, 2.277708592777086, 0.17559153175591533, 0.6438356164383562, 0.0547945205479452, 0.0647571606475716], [0.0024906600249066002, 0.0136986301369863, 0.10709838107098381, 0.0136986301369863, 0.46326276463262767, 0.09713574097135741, 0.29514321295143214, 0.24533001245330013, 0.058530510585305104, 0.14072229140722292, 0.014943960149439602, 0.0460772104607721], [4.1569115815691156, 0.0024906600249066002, 3.671232876712329, 0.0224159402241594, 12.721046077210461, 2.74346201743462, 0.30510585305105853, 13.564134495641344, 0.08841843088418432, 14.910336239103362, 0.021170610211706103, 1.108343711083437], [0.023661270236612703, 0.0547945205479452, 0.024906600249066, 0.0547945205479452, 0.10834371108343711, 0.1706102117061021, 0.0448318804483188, 0.0722291407222914, 0.386052303860523, 0.26650062266500624, 0.1855541718555417, 0.0361145703611457], [10.846824408468244, 0.033623910336239106, 2.7783312577833126, 0.009962640099626401, 6.337484433374844, 0.6089663760896638, 0.199252801992528, 15.02988792029888, 0.21544209215442092, 15.14321295143213, 0.0448318804483188, 5.469489414694894], [0.1382316313823163, 0.10460772104607721, 0.0037359900373599006, 0.039850560398505604, 0.0049813200498132005, 0.07347447073474471, 0.007471980074719801, 0.0273972602739726, 0.18057285180572852, 0.058530510585305104, 0.136986301369863, 0.0323785803237858], [6.748443337484433, 0.0921544209215442, 1.0323785803237857, 0.0, 0.9738480697384807, 0.0759651307596513, 0.06724782067247821, 2.227895392278954, 0.058530510585305104, 6.773349937733499, 0.026151930261519303, 3.829389788293898]]</t>
+          <t>[[15.774595267745953, 0.10336239103362391, 15.745952677459528, 0.06973848069738481, 5.280199252801992, 0.821917808219178, 0.012453300124533, 4.094645080946451, 0.058530510585305104, 10.839352428393525, 0.1706102117061021, 8.291407222914073], [0.10460772104607721, 0.27023661270236615, 0.15442092154420922, 0.18306351183063513, 0.05105853051058531, 0.07347447073474471, 0.024906600249066, 0.0024906600249066002, 0.048567870485678705, 0.037359900373599, 0.1095890410958904, 0.06973848069738481], [18.039850560398506, 0.14694894146948942, 13.778331257783313, 0.037359900373599, 17.931506849315067, 0.7833125778331258, 0.09838107098381071, 3.721046077210461, 0.009962640099626401, 2.4993773349937736, 0.021170610211706103, 1.8268991282689913], [0.047322540473225407, 0.2590286425902864, 0.1133250311332503, 0.19053549190535493, 0.047322540473225407, 0.23910336239103364, 0.008717310087173101, 0.0037359900373599006, 0.0547945205479452, 0.0, 0.04234122042341221, 0.0], [5.405977584059776, 0.0410958904109589, 21.134495641344955, 0.06102117061021171, 15.5280199252802, 4.414694894146949, 0.35367372353673726, 11.503113325031133, 0.0896637608966376, 5.457036114570361, 0.0024906600249066002, 1.2839352428393525], [0.46824408468244083, 0.05105853051058531, 0.6550435865504358, 0.33997509339975096, 5.457036114570361, 3.012453300124533, 0.08094645080946451, 2.204234122042341, 0.16936488169364883, 0.6239103362391034, 0.0547945205479452, 0.0547945205479452], [0.0024906600249066002, 0.0136986301369863, 0.10211706102117062, 0.007471980074719801, 0.47198007471980075, 0.10211706102117062, 0.298879202988792, 0.24283935242839352, 0.05977584059775841, 0.1357409713574097, 0.014943960149439602, 0.0460772104607721], [4.127023661270236, 0.0024906600249066002, 3.464508094645081, 0.017434620174346202, 12.921544209215442, 2.8368617683686175, 0.3163138231631382, 13.61145703611457, 0.08343711083437111, 14.833125778331258, 0.0186799501867995, 1.0809464508094646], [0.023661270236612703, 0.052303860523038606, 0.024906600249066, 0.05105853051058531, 0.10585305105853052, 0.18181818181818182, 0.0460772104607721, 0.07347447073474471, 0.38107098381070986, 0.2727272727272727, 0.1793275217932752, 0.0361145703611457], [10.757160647571606, 0.033623910336239106, 2.7322540473225403, 0.009962640099626401, 6.287671232876712, 0.5740971357409713, 0.18804483188044832, 15.481942714819427, 0.22914072229140722, 14.978829389788293, 0.0448318804483188, 5.391033623910336], [0.1357409713574097, 0.10460772104607721, 0.0037359900373599006, 0.039850560398505604, 0.0049813200498132005, 0.06351183063511831, 0.007471980074719801, 0.031133250311332503, 0.19053549190535493, 0.05977584059775841, 0.13449564134495642, 0.0323785803237858], [6.64134495641345, 0.0921544209215442, 0.9912826899128269, 0.0, 0.9315068493150684, 0.0647571606475716, 0.06724782067247821, 2.133250311332503, 0.058530510585305104, 7.108343711083437, 0.026151930261519303, 3.7870485678704857]]</t>
         </is>
       </c>
       <c r="S2" t="inlineStr">
         <is>
-          <t>[[0.0460772104607721, 0.9302615193026152, 0.6824408468244084, 1.7770859277708593, 0.11830635118306351, 0.14819427148194272, 0.0, 0.3163138231631382, 0.0, 0.014943960149439602, 0.026151930261519303, 0.029887920298879204, 0.008717310087173101, 0.012453300124533, 0.0, 0.021170610211706103, 0.0, 0.0062266500622665, 0.0012453300124533001, 0.008717310087173101, 0.0049813200498132005, 0.0024906600249066002, 0.0, 0.007471980074719801, 0.0, 0.0, 0.0, 0.0062266500622665, 0.0012453300124533001, 0.0, 0.0, 0.012453300124533, 0.0, 0.0024906600249066002, 0.0, 0.0024906600249066002, 0.0, 0.0012453300124533001, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0012453300124533001, 0.0024906600249066002, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0012453300124533001, 0.0, 0.0037359900373599006], [0.6562889165628891, 60.18804483188045, 16.866749688667497, 16.59526774595268, 3.4632627646326277, 5.72851805728518, 0.0, 3.1818181818181817, 0.0, 1.5790784557907847, 0.6662515566625156, 0.8418430884184309, 0.46077210460772106, 0.6201743462017435, 0.0, 0.7434620174346201, 0.0, 0.30635118306351183, 0.16189290161892902, 0.1780821917808219, 0.0647571606475716, 0.16687422166874222, 0.0, 0.2590286425902864, 0.0, 0.09464508094645081, 0.0410958904109589, 0.07970112079701121, 0.06351183063511831, 0.06351183063511831, 0.0, 0.10211706102117062, 0.0, 0.039850560398505604, 0.0161892901618929, 0.026151930261519303, 0.0037359900373599006, 0.029887920298879204, 0.0, 0.008717310087173101, 0.0, 0.008717310087173101, 0.0012453300124533001, 0.0024906600249066002, 0.0024906600249066002, 0.0012453300124533001, 0.0, 0.0037359900373599006, 0.0, 0.0012453300124533001, 0.0, 0.0, 0.0012453300124533001, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0024906600249066002, 0.0, 0.0], [0.21544209215442092, 16.1706102117061, 20.91780821917808, 9.947696139476962, 2.6039850560398508, 2.5006226650062264, 0.0, 2.663760896637609, 0.0, 0.7285180572851806, 0.5417185554171855, 0.5691158156911582, 0.22042341220423411, 0.286425902864259, 0.0, 0.5541718555417185, 0.0, 0.20298879202988793, 0.11706102117061021, 0.2403486924034869, 0.13449564134495642, 0.09713574097135741, 0.0, 0.20921544209215442, 0.0, 0.062266500622665005, 0.0547945205479452, 0.05977584059775841, 0.0361145703611457, 0.04234122042341221, 0.0, 0.06102117061021171, 0.0049813200498132005, 0.0323785803237858, 0.0062266500622665, 0.034869240348692404, 0.0024906600249066002, 0.0112079701120797, 0.0, 0.0062266500622665, 0.0012453300124533001, 0.014943960149439602, 0.0024906600249066002, 0.0136986301369863, 0.0037359900373599006, 0.0, 0.0, 0.007471980074719801, 0.0, 0.0, 0.0, 0.0024906600249066002, 0.0037359900373599006, 0.0, 0.0, 0.0037359900373599006, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0049813200498132005], [2.4819427148194273, 15.643835616438356, 8.905354919053549, 27.576587795765878, 3.232876712328767, 3.5305105853051058, 0.0, 6.2640099626401, 0.0, 1.2627646326276463, 0.6413449564134496, 1.7334993773349938, 0.5442092154420921, 0.5242839352428393, 0.0, 1.3872976338729763, 0.0, 0.41344956413449563, 0.1581569115815691, 0.4931506849315068, 0.15940224159402241, 0.21419676214196762, 0.0, 0.47447073474470736, 0.0, 0.16811955168119552, 0.074719800747198, 0.24533001245330013, 0.0684931506849315, 0.08343711083437111, 0.0, 0.26899128268991285, 0.0, 0.05603985056039851, 0.028642590286425903, 0.11083437110834371, 0.0062266500622665, 0.008717310087173101, 0.0, 0.0859277708592777, 0.0, 0.007471980074719801, 0.0161892901618929, 0.028642590286425903, 0.0049813200498132005, 0.0062266500622665, 0.0, 0.012453300124533, 0.0, 0.008717310087173101, 0.0049813200498132005, 0.014943960149439602, 0.0, 0.0, 0.0, 0.0062266500622665, 0.0, 0.0012453300124533001, 0.0024906600249066002, 0.008717310087173101, 0.0012453300124533001, 0.0, 0.0, 0.037359900373599], [0.1917808219178082, 2.983810709838107, 2.247820672478207, 3.3262764632627646, 1.6413449564134495, 0.9190535491905355, 0.0, 0.9215442092154421, 0.0, 0.25155666251556663, 0.11581569115815692, 0.2590286425902864, 0.11083437110834371, 0.08841843088418432, 0.0, 0.22914072229140722, 0.0, 0.05977584059775841, 0.037359900373599, 0.06724782067247821, 0.033623910336239106, 0.043586550435865505, 0.0, 0.0722291407222914, 0.0, 0.026151930261519303, 0.017434620174346202, 0.023661270236612703, 0.0136986301369863, 0.014943960149439602, 0.0, 0.04234122042341221, 0.0, 0.024906600249066, 0.0012453300124533001, 0.009962640099626401, 0.0037359900373599006, 0.0062266500622665, 0.0, 0.0024906600249066002, 0.0, 0.0012453300124533001, 0.0012453300124533001, 0.0024906600249066002, 0.0049813200498132005, 0.0012453300124533001, 0.0, 0.0024906600249066002, 0.0, 0.0037359900373599006, 0.0, 0.0, 0.0, 0.0, 0.0012453300124533001, 0.0, 0.0, 0.0, 0.0012453300124533001, 0.0, 0.0, 0.0, 0.0, 0.0049813200498132005], [0.21793275217932753, 4.850560398505604, 2.4919053549190537, 3.5541718555417185, 0.9315068493150684, 2.4259028642590286, 0.0, 1.1668742216687422, 0.0, 0.3287671232876712, 0.1295143212951432, 0.30884184308841844, 0.1506849315068493, 0.11830635118306351, 0.0, 0.30884184308841844, 0.0, 0.12453300124533001, 0.04234122042341221, 0.1133250311332503, 0.06724782067247821, 0.0759651307596513, 0.0, 0.1295143212951432, 0.0, 0.06351183063511831, 0.0273972602739726, 0.052303860523038606, 0.009962640099626401, 0.034869240348692404, 0.0, 0.05105853051058531, 0.0, 0.017434620174346202, 0.0112079701120797, 0.021170610211706103, 0.0049813200498132005, 0.0049813200498132005, 0.0, 0.008717310087173101, 0.0, 0.0012453300124533001, 0.0037359900373599006, 0.0049813200498132005, 0.0037359900373599006, 0.0024906600249066002, 0.0, 0.007471980074719801, 0.0, 0.0, 0.0024906600249066002, 0.0012453300124533001, 0.0012453300124533001, 0.0012453300124533001, 0.0, 0.0024906600249066002, 0.0, 0.0024906600249066002, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0024906600249066002], [0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0024906600249066002, 3.6463262764632627, 2.220423412204234, 5.180572851805729, 0.7708592777085927, 1.0049813200498132, 0.0, 4.199252801992528, 0.0, 0.29638854296388545, 0.16064757160647572, 0.6127023661270237, 0.14570361145703611, 0.11457036114570361, 0.0, 0.6674968866749689, 0.0, 0.11207970112079702, 0.08841843088418432, 0.261519302615193, 0.12702366127023662, 0.09838107098381071, 0.0, 0.33374844333748444, 0.0, 0.10834371108343711, 0.05105853051058531, 0.11207970112079702, 0.034869240348692404, 0.034869240348692404, 0.0, 0.1917808219178082, 0.0, 0.008717310087173101, 0.014943960149439602, 0.048567870485678705, 0.012453300124533, 0.0062266500622665, 0.0, 0.07970112079701121, 0.0, 0.009962640099626401, 0.014943960149439602, 0.026151930261519303, 0.0049813200498132005, 0.008717310087173101, 0.0, 0.07347447073474471, 0.0, 0.0062266500622665, 0.0049813200498132005, 0.0112079701120797, 0.0012453300124533001, 0.0049813200498132005, 0.0, 0.0136986301369863, 0.0, 0.0, 0.0024906600249066002, 0.009962640099626401, 0.0024906600249066002, 0.0024906600249066002, 0.0, 0.04234122042341221], [0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.04234122042341221, 1.933997509339975, 0.763387297633873, 1.211706102117061, 0.1307596513075965, 0.22540473225404734, 0.0, 0.25653798256537985, 0.0, 0.0821917808219178, 0.0224159402241594, 0.0410958904109589, 0.0186799501867995, 0.009962640099626401, 0.0, 0.021170610211706103, 0.0, 0.007471980074719801, 0.0049813200498132005, 0.0012453300124533001, 0.014943960149439602, 0.0049813200498132005, 0.0, 0.008717310087173101, 0.0, 0.008717310087173101, 0.007471980074719801, 0.0037359900373599006, 0.0, 0.0024906600249066002, 0.0, 0.014943960149439602, 0.0, 0.0037359900373599006, 0.0037359900373599006, 0.0037359900373599006, 0.0024906600249066002, 0.0136986301369863, 0.0, 0.0, 0.0, 0.0, 0.0012453300124533001, 0.0024906600249066002, 0.0024906600249066002, 0.0024906600249066002, 0.0, 0.0, 0.0, 0.0024906600249066002, 0.0012453300124533001, 0.0062266500622665, 0.0, 0.0037359900373599006, 0.0, 0.0, 0.0, 0.0012453300124533001, 0.0, 0.0, 0.0, 0.0012453300124533001, 0.0, 0.009962640099626401], [0.0037359900373599006, 0.7658779576587795, 0.6811955168119551, 0.572851805728518, 0.09713574097135741, 0.0896637608966376, 0.0, 0.12204234122042341, 0.0, 0.008717310087173101, 0.008717310087173101, 0.031133250311332503, 0.009962640099626401, 0.0136986301369863, 0.0, 0.0224159402241594, 0.0, 0.0049813200498132005, 0.0024906600249066002, 0.0024906600249066002, 0.0, 0.0, 0.0, 0.0062266500622665, 0.0, 0.0024906600249066002, 0.0, 0.0, 0.0, 0.0049813200498132005, 0.0, 0.0049813200498132005, 0.0, 0.0012453300124533001, 0.0012453300124533001, 0.0024906600249066002, 0.0, 0.0, 0.0, 0.0, 0.0012453300124533001, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0012453300124533001, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0012453300124533001, 0.0, 0.0, 0.0012453300124533001, 0.0, 0.0, 0.0, 0.0, 0.0037359900373599006], [0.14196762141967623, 1.2104607721046077, 0.6948941469489415, 1.6376089663760898, 0.12702366127023662, 0.17559153175591533, 0.0, 0.29389788293897884, 0.0, 0.05977584059775841, 0.0136986301369863, 0.11955168119551682, 0.021170610211706103, 0.014943960149439602, 0.0, 0.0361145703611457, 0.0, 0.0012453300124533001, 0.0037359900373599006, 0.0273972602739726, 0.007471980074719801, 0.009962640099626401, 0.0, 0.0161892901618929, 0.0, 0.0062266500622665, 0.0, 0.0112079701120797, 0.0062266500622665, 0.0049813200498132005, 0.0, 0.012453300124533, 0.0, 0.0062266500622665, 0.0, 0.007471980074719801, 0.0, 0.0, 0.0, 0.0012453300124533001, 0.0, 0.0, 0.0, 0.0112079701120797, 0.0, 0.0012453300124533001, 0.0, 0.0037359900373599006, 0.0, 0.0, 0.0012453300124533001, 0.0024906600249066002, 0.0, 0.0, 0.0, 0.0049813200498132005, 0.0, 0.0037359900373599006, 0.0, 0.0, 0.0, 0.0, 0.0, 0.007471980074719801], [0.007471980074719801, 0.5828144458281445, 0.3125778331257783, 0.4259028642590286, 0.05977584059775841, 0.1432129514321295, 0.0, 0.09339975093399751, 0.0, 0.0448318804483188, 0.014943960149439602, 0.009962640099626401, 0.0136986301369863, 0.0037359900373599006, 0.0, 0.0049813200498132005, 0.0, 0.0049813200498132005, 0.0037359900373599006, 0.0062266500622665, 0.0012453300124533001, 0.0, 0.0, 0.0012453300124533001, 0.0, 0.0, 0.0, 0.0, 0.0037359900373599006, 0.0, 0.0, 0.0037359900373599006, 0.0, 0.0012453300124533001, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0049813200498132005, 0.0, 0.0012453300124533001, 0.0012453300124533001, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0012453300124533001, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0012453300124533001, 0.0, 0.0012453300124533001], [0.034869240348692404, 0.6425902864259029, 0.3424657534246575, 0.45080946450809467, 0.049813200498132, 0.1519302615193026, 0.0, 0.074719800747198, 0.0, 0.012453300124533, 0.017434620174346202, 0.0136986301369863, 0.0049813200498132005, 0.009962640099626401, 0.0, 0.0012453300124533001, 0.0, 0.0012453300124533001, 0.0, 0.0, 0.0012453300124533001, 0.0024906600249066002, 0.0, 0.0012453300124533001, 0.0, 0.0, 0.0, 0.0037359900373599006, 0.0012453300124533001, 0.0062266500622665, 0.0, 0.0012453300124533001, 0.0, 0.0062266500622665, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0012453300124533001, 0.0, 0.0012453300124533001, 0.0012453300124533001, 0.0, 0.0, 0.0012453300124533001, 0.0, 0.0, 0.0, 0.0012453300124533001, 0.0012453300124533001, 0.0, 0.0012453300124533001, 0.0, 0.0, 0.0024906600249066002, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0024906600249066002], [0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0012453300124533001, 0.9115815691158157, 0.6264009962640099, 1.4333748443337484, 0.1432129514321295, 0.1980074719800747, 0.0, 0.50186799501868, 0.0, 0.028642590286425903, 0.023661270236612703, 0.05105853051058531, 0.0136986301369863, 0.008717310087173101, 0.0, 0.057285180572851806, 0.0, 0.0062266500622665, 0.0012453300124533001, 0.0112079701120797, 0.0, 0.008717310087173101, 0.0, 0.0112079701120797, 0.0, 0.0062266500622665, 0.0012453300124533001, 0.0012453300124533001, 0.0012453300124533001, 0.008717310087173101, 0.0, 0.0161892901618929, 0.0, 0.0024906600249066002, 0.0012453300124533001, 0.0, 0.0012453300124533001, 0.0037359900373599006, 0.0, 0.0037359900373599006, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0024906600249066002, 0.0, 0.0112079701120797, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.008717310087173101, 0.0, 0.0012453300124533001, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0024906600249066002], [0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0024906600249066002, 0.4396014943960149, 0.18306351183063513, 0.33499377334993774, 0.058530510585305104, 0.07347447073474471, 0.0, 0.062266500622665005, 0.0, 0.026151930261519303, 0.0062266500622665, 0.007471980074719801, 0.0012453300124533001, 0.0037359900373599006, 0.0, 0.007471980074719801, 0.0, 0.007471980074719801, 0.0024906600249066002, 0.0, 0.0, 0.0, 0.0, 0.0024906600249066002, 0.0, 0.0012453300124533001, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0024906600249066002, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0012453300124533001, 0.0, 0.0, 0.0, 0.0, 0.0012453300124533001, 0.0, 0.0, 0.0, 0.0, 0.0012453300124533001], [0.0012453300124533001, 0.1930261519302615, 0.1357409713574097, 0.1930261519302615, 0.008717310087173101, 0.0273972602739726, 0.0, 0.026151930261519303, 0.0, 0.007471980074719801, 0.0049813200498132005, 0.0, 0.0, 0.0, 0.0, 0.0012453300124533001, 0.0, 0.0, 0.0, 0.0037359900373599006, 0.0037359900373599006, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0012453300124533001, 0.0, 0.0, 0.0, 0.0012453300124533001, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0012453300124533001, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0012453300124533001, 0.0, 0.0, 0.0, 0.0012453300124533001], [0.05105853051058531, 0.31880448318804483, 0.273972602739726, 0.4520547945205479, 0.052303860523038606, 0.07098381070983811, 0.0, 0.10211706102117062, 0.0, 0.0136986301369863, 0.012453300124533, 0.021170610211706103, 0.0, 0.0024906600249066002, 0.0, 0.0024906600249066002, 0.0, 0.0, 0.0012453300124533001, 0.007471980074719801, 0.0, 0.0037359900373599006, 0.0, 0.0024906600249066002, 0.0, 0.0, 0.0, 0.0012453300124533001, 0.0, 0.0012453300124533001, 0.0, 0.0, 0.0, 0.0012453300124533001, 0.0, 0.0024906600249066002, 0.0, 0.0012453300124533001, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0024906600249066002, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0012453300124533001], [0.0, 0.22042341220423411, 0.0921544209215442, 0.1643835616438356, 0.028642590286425903, 0.034869240348692404, 0.0, 0.021170610211706103, 0.0, 0.009962640099626401, 0.0037359900373599006, 0.0037359900373599006, 0.0062266500622665, 0.0012453300124533001, 0.0, 0.0012453300124533001, 0.0, 0.0, 0.0049813200498132005, 0.0012453300124533001, 0.0049813200498132005, 0.0024906600249066002, 0.0, 0.0012453300124533001, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0012453300124533001, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0012453300124533001, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0012453300124533001], [0.0136986301369863, 0.2266500622665006, 0.1295143212951432, 0.15940224159402241, 0.031133250311332503, 0.047322540473225407, 0.0, 0.05105853051058531, 0.0, 0.007471980074719801, 0.0012453300124533001, 0.0049813200498132005, 0.0037359900373599006, 0.0062266500622665, 0.0, 0.0037359900373599006, 0.0, 0.0012453300124533001, 0.0012453300124533001, 0.0024906600249066002, 0.0024906600249066002, 0.0012453300124533001, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0012453300124533001, 0.0, 0.0012453300124533001, 0.0, 0.0012453300124533001, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0012453300124533001, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0012453300124533001, 0.33499377334993774, 0.2054794520547945, 0.5330012453300125, 0.062266500622665005, 0.08094645080946451, 0.0, 0.16936488169364883, 0.0, 0.024906600249066, 0.019925280199252802, 0.008717310087173101, 0.009962640099626401, 0.007471980074719801, 0.0, 0.0186799501867995, 0.0, 0.0, 0.0012453300124533001, 0.0, 0.0, 0.0012453300124533001, 0.0, 0.0112079701120797, 0.0, 0.0, 0.0, 0.0, 0.0037359900373599006, 0.0012453300124533001, 0.0, 0.0012453300124533001, 0.0, 0.0, 0.0, 0.0, 0.0012453300124533001, 0.0, 0.0, 0.0012453300124533001, 0.0, 0.0012453300124533001, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0024906600249066002], [0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0012453300124533001, 0.16189290161892902, 0.0660024906600249, 0.12826899128268993, 0.021170610211706103, 0.0547945205479452, 0.0, 0.0323785803237858, 0.0, 0.009962640099626401, 0.0049813200498132005, 0.007471980074719801, 0.0037359900373599006, 0.0012453300124533001, 0.0, 0.0037359900373599006, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0012453300124533001, 0.0, 0.0012453300124533001, 0.0, 0.0, 0.0, 0.0012453300124533001, 0.0, 0.0012453300124533001, 0.0, 0.0012453300124533001, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0012453300124533001, 0.0, 0.0012453300124533001, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0024906600249066002, 0.06351183063511831, 0.039850560398505604, 0.062266500622665005, 0.017434620174346202, 0.012453300124533, 0.0, 0.017434620174346202, 0.0, 0.019925280199252802, 0.0037359900373599006, 0.0012453300124533001, 0.0, 0.0, 0.0, 0.0062266500622665, 0.0, 0.0, 0.0, 0.0012453300124533001, 0.0, 0.0012453300124533001, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0012453300124533001, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.039850560398505604, 0.11830635118306351, 0.0647571606475716, 0.20423412204234123, 0.0323785803237858, 0.039850560398505604, 0.0, 0.0273972602739726, 0.0, 0.026151930261519303, 0.0012453300124533001, 0.0037359900373599006, 0.0, 0.0012453300124533001, 0.0, 0.0037359900373599006, 0.0, 0.0, 0.0, 0.0, 0.0024906600249066002, 0.0, 0.0, 0.0049813200498132005, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0024906600249066002, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0012453300124533001, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0012453300124533001, 0.0, 0.0, 0.0012453300124533001, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.052303860523038606, 0.0136986301369863, 0.0722291407222914, 0.017434620174346202, 0.012453300124533, 0.0, 0.024906600249066, 0.0, 0.007471980074719801, 0.009962640099626401, 0.0037359900373599006, 0.0049813200498132005, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0012453300124533001, 0.0012453300124533001, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0024906600249066002], [0.0037359900373599006, 0.053549190535491904, 0.0410958904109589, 0.049813200498132, 0.007471980074719801, 0.029887920298879204, 0.0, 0.034869240348692404, 0.0, 0.017434620174346202, 0.0012453300124533001, 0.009962640099626401, 0.0024906600249066002, 0.0012453300124533001, 0.0, 0.0037359900373599006, 0.0, 0.0024906600249066002, 0.0, 0.0049813200498132005, 0.0, 0.0024906600249066002, 0.0, 0.0024906600249066002, 0.0, 0.0, 0.0012453300124533001, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0012453300124533001, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0012453300124533001, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0012453300124533001], [0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.13325031133250312, 0.07970112079701121, 0.23661270236612703, 0.034869240348692404, 0.052303860523038606, 0.0, 0.10336239103362391, 0.0, 0.0037359900373599006, 0.007471980074719801, 0.0224159402241594, 0.0062266500622665, 0.0062266500622665, 0.0, 0.014943960149439602, 0.0, 0.0012453300124533001, 0.0012453300124533001, 0.0024906600249066002, 0.0024906600249066002, 0.0024906600249066002, 0.0, 0.0062266500622665, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0024906600249066002, 0.0, 0.0012453300124533001, 0.0, 0.0, 0.0, 0.0012453300124533001, 0.0, 0.0012453300124533001, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0012453300124533001], [0.0, 0.0, 0.0, 0.0062266500622665, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0024906600249066002, 0.06724782067247821, 0.024906600249066, 0.031133250311332503, 0.0049813200498132005, 0.0062266500622665, 0.0, 0.0112079701120797, 0.0, 0.0037359900373599006, 0.0024906600249066002, 0.0024906600249066002, 0.0012453300124533001, 0.0037359900373599006, 0.0, 0.007471980074719801, 0.0, 0.0024906600249066002, 0.0, 0.0, 0.0, 0.0, 0.0, 0.007471980074719801, 0.0, 0.0012453300124533001, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0012453300124533001, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0012453300124533001, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0012453300124533001, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.017434620174346202, 0.0161892901618929, 0.0273972602739726, 0.0037359900373599006, 0.0062266500622665, 0.0, 0.0049813200498132005, 0.0, 0.0012453300124533001, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0024906600249066002, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.024906600249066, 0.0448318804483188, 0.033623910336239106, 0.09339975093399751, 0.0062266500622665, 0.0062266500622665, 0.0, 0.026151930261519303, 0.0, 0.0, 0.0037359900373599006, 0.0012453300124533001, 0.0, 0.0, 0.0, 0.0024906600249066002, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0012453300124533001, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0012453300124533001, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.0037359900373599006, 0.0012453300124533001, 0.0062266500622665, 0.0012453300124533001, 0.0049813200498132005, 0.0, 0.0037359900373599006, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0024906600249066002, 0.0, 0.0062266500622665, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0024906600249066002, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.0273972602739726, 0.0112079701120797, 0.014943960149439602, 0.0012453300124533001, 0.0012453300124533001, 0.0, 0.007471980074719801, 0.0, 0.0049813200498132005, 0.0, 0.0012453300124533001, 0.0012453300124533001, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0012453300124533001, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0012453300124533001, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.0012453300124533001, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0012453300124533001, 0.012453300124533, 0.0224159402241594, 0.08841843088418432, 0.0049813200498132005, 0.024906600249066, 0.0, 0.028642590286425903, 0.0, 0.0037359900373599006, 0.0, 0.0012453300124533001, 0.0, 0.0, 0.0, 0.0049813200498132005, 0.0, 0.0, 0.0, 0.0012453300124533001, 0.0, 0.0, 0.0, 0.0012453300124533001, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0012453300124533001, 0.0, 0.0, 0.0, 0.0], [0.0, 0.0, 0.0, 0.0024906600249066002, 0.0, 0.0024906600249066002, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.0037359900373599006, 0.0062266500622665, 0.009962640099626401, 0.009962640099626401, 0.0012453300124533001, 0.0, 0.0049813200498132005, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.007471980074719801, 0.0024906600249066002, 0.014943960149439602, 0.0, 0.0012453300124533001, 0.0, 0.0, 0.0, 0.0037359900373599006, 0.0, 0.0, 0.0024906600249066002, 0.0012453300124533001, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0012453300124533001, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0012453300124533001, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.009962640099626401, 0.007471980074719801, 0.0049813200498132005, 0.039850560398505604, 0.0, 0.007471980074719801, 0.0, 0.0049813200498132005, 0.0, 0.0012453300124533001, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0024906600249066002, 0.0, 0.0, 0.0, 0.0, 0.0049813200498132005, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.0049813200498132005, 0.0024906600249066002, 0.0024906600249066002, 0.0012453300124533001, 0.0, 0.0, 0.0037359900373599006, 0.0, 0.0, 0.0, 0.0, 0.0049813200498132005, 0.0012453300124533001, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.0012453300124533001, 0.0012453300124533001, 0.0062266500622665, 0.0, 0.0, 0.0, 0.007471980074719801, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0012453300124533001, 0.0, 0.0024906600249066002, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0012453300124533001, 0.0, 0.0, 0.0, 0.0], [0.0, 0.0, 0.0, 0.0012453300124533001, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.0049813200498132005, 0.0112079701120797, 0.026151930261519303, 0.0037359900373599006, 0.0024906600249066002, 0.0, 0.05603985056039851, 0.0, 0.0012453300124533001, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0049813200498132005, 0.0, 0.0, 0.0, 0.0012453300124533001, 0.0024906600249066002, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0012453300124533001], [0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.0, 0.0037359900373599006, 0.0037359900373599006, 0.0, 0.0049813200498132005, 0.0, 0.0062266500622665, 0.0, 0.0012453300124533001, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.0, 0.0012453300124533001, 0.007471980074719801, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0024906600249066002, 0.0, 0.0, 0.0012453300124533001, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.0024906600249066002, 0.008717310087173101, 0.008717310087173101, 0.0037359900373599006, 0.0, 0.0, 0.007471980074719801, 0.0, 0.0, 0.0, 0.0024906600249066002, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0012453300124533001, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0012453300124533001, 0.0, 0.0, 0.0, 0.0012453300124533001, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0024906600249066002, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0012453300124533001, 0.0, 0.0012453300124533001, 0.0037359900373599006, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.0012453300124533001, 0.0, 0.0012453300124533001, 0.0, 0.0, 0.0, 0.0037359900373599006, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0024906600249066002, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.0012453300124533001, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.0012453300124533001, 0.0012453300124533001, 0.019925280199252802, 0.0, 0.0, 0.0, 0.012453300124533, 0.0, 0.0012453300124533001, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0024906600249066002, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0012453300124533001, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0,</t>
+          <t>[[0.047322540473225407, 2.800747198007472, 1.2627646326276463, 2.019925280199253, 0.1780821917808219, 0.18057285180572852, 0.0, 0.33374844333748444, 0.0, 0.023661270236612703, 0.028642590286425903, 0.037359900373599, 0.0161892901618929, 0.012453300124533, 0.0, 0.026151930261519303, 0.0, 0.0062266500622665, 0.0012453300124533001, 0.008717310087173101, 0.008717310087173101, 0.0037359900373599006, 0.0, 0.007471980074719801, 0.0, 0.0, 0.0, 0.0062266500622665, 0.0024906600249066002, 0.0, 0.0, 0.012453300124533, 0.0, 0.0012453300124533001, 0.0, 0.0037359900373599006, 0.0, 0.0012453300124533001, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0012453300124533001, 0.0024906600249066002, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0012453300124533001, 0.0, 0.0], [3.5043586550435863, 64.20298879202988, 15.627646326276464, 16.869240348692404, 3.795765877957659, 5.833125778331258, 0.0, 3.2640099626401, 0.0, 1.63013698630137, 0.684931506849315, 0.8592777085927771, 0.46450809464508097, 0.6264009962640099, 0.0, 0.7584059775840598, 0.0, 0.3125778331257783, 0.16936488169364883, 0.20298879202988793, 0.0647571606475716, 0.16811955168119552, 0.0, 0.2714819427148194, 0.0, 0.09464508094645081, 0.048567870485678705, 0.07970112079701121, 0.0647571606475716, 0.06351183063511831, 0.0, 0.10460772104607721, 0.0, 0.048567870485678705, 0.0161892901618929, 0.026151930261519303, 0.0037359900373599006, 0.029887920298879204, 0.0, 0.009962640099626401, 0.0, 0.008717310087173101, 0.0012453300124533001, 0.0037359900373599006, 0.0024906600249066002, 0.0012453300124533001, 0.0, 0.0037359900373599006, 0.0, 0.0012453300124533001, 0.0012453300124533001, 0.0, 0.0012453300124533001, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0024906600249066002, 0.0, 0.0], [0.21170610211706103, 14.932752179327522, 14.090909090909092, 9.455790784557907, 2.2141967621419676, 2.3636363636363638, 0.0, 2.564134495641345, 0.0, 0.6687422166874222, 0.5205479452054794, 0.5454545454545454, 0.20921544209215442, 0.28019925280199254, 0.0, 0.5342465753424658, 0.0, 0.19676214196762143, 0.1095890410958904, 0.21544209215442092, 0.1307596513075965, 0.09464508094645081, 0.0, 0.19676214196762143, 0.0, 0.062266500622665005, 0.047322540473225407, 0.05977584059775841, 0.033623910336239106, 0.04234122042341221, 0.0, 0.058530510585305104, 0.0, 0.023661270236612703, 0.0062266500622665, 0.034869240348692404, 0.0024906600249066002, 0.0112079701120797, 0.0, 0.0049813200498132005, 0.0, 0.014943960149439602, 0.0024906600249066002, 0.0136986301369863, 0.0037359900373599006, 0.0, 0.0, 0.0062266500622665, 0.0, 0.0, 0.0, 0.0024906600249066002, 0.0024906600249066002, 0.0, 0.0, 0.0037359900373599006, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0049813200498132005], [2.4744707347447075, 16.201743462017436, 8.35865504358655, 27.530510585305105, 3.2353673723536738, 3.5305105853051058, 0.0024906600249066002, 6.261519302615193, 0.0, 1.2590286425902864, 0.6413449564134496, 1.7322540473225405, 0.5442092154420921, 0.523038605230386, 0.0012453300124533001, 1.3872976338729763, 0.0, 0.4122042341220423, 0.1569115815691158, 0.4919053549190536, 0.16064757160647572, 0.21419676214196762, 0.0, 0.47322540473225405, 0.0, 0.16811955168119552, 0.07347447073474471, 0.24533001245330013, 0.06724782067247821, 0.08343711083437111, 0.0, 0.26899128268991285, 0.0, 0.05603985056039851, 0.028642590286425903, 0.11457036114570361, 0.0062266500622665, 0.008717310087173101, 0.0, 0.0859277708592777, 0.0, 0.007471980074719801, 0.0161892901618929, 0.028642590286425903, 0.0049813200498132005, 0.0062266500622665, 0.0, 0.012453300124533, 0.0, 0.008717310087173101, 0.0049813200498132005, 0.017434620174346202, 0.0, 0.0, 0.0, 0.007471980074719801, 0.0, 0.0012453300124533001, 0.0037359900373599006, 0.008717310087173101, 0.0012453300124533001, 0.0, 0.0, 0.0410958904109589], [0.1917808219178082, 3.348692403486924, 1.8866749688667497, 3.328767123287671, 1.6363636363636365, 0.9202988792029888, 0.0, 0.9215442092154421, 0.0, 0.25155666251556663, 0.11581569115815692, 0.2577833125778331, 0.11207970112079702, 0.08841843088418432, 0.0024906600249066002, 0.2266500622665006, 0.0, 0.05977584059775841, 0.037359900373599, 0.0660024906600249, 0.034869240348692404, 0.043586550435865505, 0.0, 0.0722291407222914, 0.0, 0.026151930261519303, 0.017434620174346202, 0.023661270236612703, 0.0136986301369863, 0.014943960149439602, 0.0, 0.04234122042341221, 0.0, 0.024906600249066, 0.0012453300124533001, 0.009962640099626401, 0.0037359900373599006, 0.0062266500622665, 0.0, 0.0024906600249066002, 0.0, 0.0012453300124533001, 0.0012453300124533001, 0.0024906600249066002, 0.0049813200498132005, 0.0012453300124533001, 0.0, 0.0024906600249066002, 0.0, 0.0037359900373599006, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0012453300124533001, 0.0, 0.0, 0.0, 0.0, 0.0049813200498132005], [0.2191780821917808, 5.021170610211706, 2.3225404732254047, 3.551681195516812, 0.9302615193026152, 2.4246575342465753, 0.0012453300124533001, 1.1643835616438356, 0.0, 0.3287671232876712, 0.1295143212951432, 0.30884184308841844, 0.1506849315068493, 0.11830635118306351, 0.0, 0.30884184308841844, 0.0, 0.12453300124533001, 0.04234122042341221, 0.1133250311332503, 0.0660024906600249, 0.0759651307596513, 0.0, 0.1295143212951432, 0.0, 0.06351183063511831, 0.0273972602739726, 0.052303860523038606, 0.009962640099626401, 0.034869240348692404, 0.0, 0.05105853051058531, 0.0, 0.017434620174346202, 0.0112079701120797, 0.021170610211706103, 0.0049813200498132005, 0.0049813200498132005, 0.0, 0.008717310087173101, 0.0, 0.0012453300124533001, 0.0037359900373599006, 0.0049813200498132005, 0.0037359900373599006, 0.0024906600249066002, 0.0, 0.007471980074719801, 0.0, 0.0, 0.0024906600249066002, 0.0012453300124533001, 0.0012453300124533001, 0.0012453300124533001, 0.0, 0.0024906600249066002, 0.0, 0.0024906600249066002, 0.0, 0.0024906600249066002, 0.0, 0.0, 0.0, 0.0024906600249066002], [0.0, 0.0012453300124533001, 0.0, 0.0, 0.0024906600249066002, 0.0, 0.0012453300124533001, 0.0, 0.0, 0.0, 0.0, 0.0012453300124533001, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0024906600249066002, 3.911581569115816, 1.9601494396014945, 5.174346201743462, 0.7708592777085927, 1.0024906600249066, 0.0, 4.196762141967621, 0.0, 0.29638854296388545, 0.16064757160647572, 0.6102117061021171, 0.14694894146948942, 0.11457036114570361, 0.0, 0.6674968866749689, 0.0, 0.11083437110834371, 0.08841843088418432, 0.261519302615193, 0.12702366127023662, 0.09838107098381071, 0.0, 0.33374844333748444, 0.0, 0.10834371108343711, 0.05105853051058531, 0.11207970112079702, 0.034869240348692404, 0.034869240348692404, 0.0, 0.1917808219178082, 0.0, 0.008717310087173101, 0.014943960149439602, 0.048567870485678705, 0.012453300124533, 0.0062266500622665, 0.0, 0.07970112079701121, 0.0, 0.0112079701120797, 0.012453300124533, 0.026151930261519303, 0.0049813200498132005, 0.008717310087173101, 0.0, 0.07347447073474471, 0.0, 0.0062266500622665, 0.0062266500622665, 0.0112079701120797, 0.0012453300124533001, 0.0049813200498132005, 0.0, 0.0136986301369863, 0.0, 0.0, 0.0024906600249066002, 0.009962640099626401, 0.0024906600249066002, 0.0024906600249066002, 0.0, 0.0410958904109589], [0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0012453300124533001, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.04234122042341221, 2.067247820672478, 0.6276463262764632, 1.2104607721046077, 0.1307596513075965, 0.22540473225404734, 0.0, 0.25653798256537985, 0.0, 0.0821917808219178, 0.0224159402241594, 0.0410958904109589, 0.0186799501867995, 0.009962640099626401, 0.0, 0.021170610211706103, 0.0, 0.007471980074719801, 0.0049813200498132005, 0.0012453300124533001, 0.014943960149439602, 0.0049813200498132005, 0.0, 0.007471980074719801, 0.0, 0.008717310087173101, 0.007471980074719801, 0.0037359900373599006, 0.0, 0.0024906600249066002, 0.0, 0.014943960149439602, 0.0, 0.0037359900373599006, 0.0037359900373599006, 0.0037359900373599006, 0.0024906600249066002, 0.0136986301369863, 0.0, 0.0012453300124533001, 0.0, 0.0, 0.0012453300124533001, 0.0024906600249066002, 0.0024906600249066002, 0.0024906600249066002, 0.0, 0.0, 0.0, 0.0024906600249066002, 0.0012453300124533001, 0.0062266500622665, 0.0, 0.0037359900373599006, 0.0, 0.0, 0.0, 0.0012453300124533001, 0.0, 0.0, 0.0, 0.0012453300124533001, 0.0, 0.008717310087173101], [0.0062266500622665, 0.8841843088418431, 0.5616438356164384, 0.572851805728518, 0.09713574097135741, 0.0896637608966376, 0.0, 0.12204234122042341, 0.0, 0.008717310087173101, 0.008717310087173101, 0.031133250311332503, 0.009962640099626401, 0.0136986301369863, 0.0, 0.0224159402241594, 0.0, 0.0049813200498132005, 0.0024906600249066002, 0.0024906600249066002, 0.0, 0.0, 0.0, 0.0062266500622665, 0.0, 0.0024906600249066002, 0.0, 0.0, 0.0, 0.0049813200498132005, 0.0, 0.0049813200498132005, 0.0, 0.0012453300124533001, 0.0012453300124533001, 0.0024906600249066002, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0012453300124533001, 0.0, 0.0, 0.0, 0.0012453300124533001, 0.0, 0.0, 0.0012453300124533001, 0.0, 0.0, 0.0, 0.0, 0.0024906600249066002], [0.14072229140722292, 1.2889165628891657, 0.6189290161892902, 1.6363636363636365, 0.12702366127023662, 0.17559153175591533, 0.0, 0.29265255292652553, 0.0, 0.05977584059775841, 0.0136986301369863, 0.11706102117061021, 0.0224159402241594, 0.014943960149439602, 0.0, 0.0361145703611457, 0.0, 0.0012453300124533001, 0.0037359900373599006, 0.0273972602739726, 0.007471980074719801, 0.009962640099626401, 0.0, 0.0161892901618929, 0.0, 0.0062266500622665, 0.0, 0.0112079701120797, 0.0062266500622665, 0.0049813200498132005, 0.0, 0.012453300124533, 0.0, 0.0062266500622665, 0.0, 0.0062266500622665, 0.0, 0.0, 0.0, 0.0012453300124533001, 0.0, 0.0, 0.0, 0.0112079701120797, 0.0, 0.0012453300124533001, 0.0, 0.0037359900373599006, 0.0, 0.0, 0.0012453300124533001, 0.0012453300124533001, 0.0012453300124533001, 0.0, 0.0, 0.0049813200498132005, 0.0, 0.0037359900373599006, 0.0, 0.0, 0.0, 0.0, 0.0, 0.007471980074719801], [0.007471980074719801, 0.6301369863013698, 0.26650062266500624, 0.4259028642590286, 0.05977584059775841, 0.1432129514321295, 0.0, 0.09339975093399751, 0.0012453300124533001, 0.0448318804483188, 0.014943960149439602, 0.0112079701120797, 0.0136986301369863, 0.0037359900373599006, 0.0, 0.0049813200498132005, 0.0, 0.0049813200498132005, 0.0037359900373599006, 0.0062266500622665, 0.0012453300124533001, 0.0, 0.0, 0.0012453300124533001, 0.0, 0.0, 0.0, 0.0, 0.0037359900373599006, 0.0, 0.0, 0.0037359900373599006, 0.0, 0.0012453300124533001, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0049813200498132005, 0.0, 0.0012453300124533001, 0.0012453300124533001, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0012453300124533001, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0012453300124533001, 0.0, 0.0012453300124533001], [0.034869240348692404, 0.6948941469489415, 0.2889165628891656, 0.45080946450809467, 0.049813200498132, 0.1519302615193026, 0.0, 0.074719800747198, 0.0, 0.012453300124533, 0.017434620174346202, 0.0136986301369863, 0.0037359900373599006, 0.009962640099626401, 0.0, 0.0012453300124533001, 0.0, 0.0012453300124533001, 0.0, 0.0, 0.0012453300124533001, 0.0024906600249066002, 0.0, 0.0012453300124533001, 0.0, 0.0, 0.0, 0.0037359900373599006, 0.0012453300124533001, 0.0062266500622665, 0.0, 0.0012453300124533001, 0.0, 0.0062266500622665, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0012453300124533001, 0.0, 0.0012453300124533001, 0.0012453300124533001, 0.0, 0.0, 0.0012453300124533001, 0.0, 0.0, 0.0, 0.0012453300124533001, 0.0012453300124533001, 0.0, 0.0012453300124533001, 0.0, 0.0, 0.0024906600249066002, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0024906600249066002], [0.0, 0.0024906600249066002, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0012453300124533001, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0012453300124533001, 0.9663760896637609, 0.5678704856787049, 1.4333748443337484, 0.1432129514321295, 0.1980074719800747, 0.0, 0.50186799501868, 0.0, 0.028642590286425903, 0.023661270236612703, 0.05105853051058531, 0.0136986301369863, 0.008717310087173101, 0.0, 0.057285180572851806, 0.0, 0.0062266500622665, 0.0012453300124533001, 0.0112079701120797, 0.0, 0.008717310087173101, 0.0, 0.0112079701120797, 0.0, 0.0062266500622665, 0.0012453300124533001, 0.0012453300124533001, 0.0012453300124533001, 0.008717310087173101, 0.0, 0.0161892901618929, 0.0, 0.0024906600249066002, 0.0012453300124533001, 0.0, 0.0012453300124533001, 0.0037359900373599006, 0.0, 0.0037359900373599006, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0024906600249066002, 0.0, 0.0112079701120797, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.008717310087173101, 0.0, 0.0012453300124533001, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0024906600249066002], [0.0, 0.0, 0.0012453300124533001, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0024906600249066002, 0.46450809464508097, 0.1569115815691158, 0.33499377334993774, 0.058530510585305104, 0.07347447073474471, 0.0012453300124533001, 0.06102117061021171, 0.0, 0.026151930261519303, 0.0062266500622665, 0.007471980074719801, 0.0012453300124533001, 0.0037359900373599006, 0.0, 0.007471980074719801, 0.0, 0.007471980074719801, 0.0024906600249066002, 0.0, 0.0, 0.0, 0.0, 0.0024906600249066002, 0.0, 0.0012453300124533001, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0024906600249066002, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0012453300124533001, 0.0, 0.0, 0.0012453300124533001, 0.0, 0.0, 0.0, 0.0, 0.0012453300124533001, 0.0, 0.0, 0.0, 0.0, 0.0012453300124533001], [0.0012453300124533001, 0.20921544209215442, 0.11955168119551682, 0.1930261519302615, 0.008717310087173101, 0.0273972602739726, 0.0, 0.026151930261519303, 0.0, 0.007471980074719801, 0.0049813200498132005, 0.0, 0.0, 0.0, 0.0, 0.0012453300124533001, 0.0, 0.0, 0.0, 0.0037359900373599006, 0.0037359900373599006, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0012453300124533001, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0012453300124533001, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0012453300124533001, 0.0, 0.0, 0.0, 0.0012453300124533001], [0.049813200498132, 0.3287671232876712, 0.2627646326276463, 0.4520547945205479, 0.052303860523038606, 0.07098381070983811, 0.0, 0.10087173100871731, 0.0, 0.0136986301369863, 0.012453300124533, 0.021170610211706103, 0.0, 0.0024906600249066002, 0.0, 0.0024906600249066002, 0.0, 0.0, 0.0012453300124533001, 0.007471980074719801, 0.0, 0.0037359900373599006, 0.0, 0.0024906600249066002, 0.0, 0.0, 0.0, 0.0012453300124533001, 0.0, 0.0012453300124533001, 0.0, 0.0, 0.0, 0.0012453300124533001, 0.0, 0.0024906600249066002, 0.0, 0.0012453300124533001, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0024906600249066002, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0012453300124533001], [0.0, 0.22914072229140722, 0.08841843088418432, 0.16189290161892902, 0.028642590286425903, 0.034869240348692404, 0.0, 0.0224159402241594, 0.0, 0.009962640099626401, 0.0037359900373599006, 0.0037359900373599006, 0.0062266500622665, 0.0012453300124533001, 0.0, 0.0012453300124533001, 0.0, 0.0, 0.0049813200498132005, 0.0012453300124533001, 0.0049813200498132005, 0.0024906600249066002, 0.0, 0.0012453300124533001, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0012453300124533001, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0012453300124533001], [0.0136986301369863, 0.2403486924034869, 0.11581569115815692, 0.15940224159402241, 0.031133250311332503, 0.047322540473225407, 0.0, 0.05105853051058531, 0.0, 0.007471980074719801, 0.0012453300124533001, 0.0049813200498132005, 0.0037359900373599006, 0.0062266500622665, 0.0, 0.0037359900373599006, 0.0, 0.0012453300124533001, 0.0012453300124533001, 0.0024906600249066002, 0.0024906600249066002, 0.0012453300124533001, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0012453300124533001, 0.0, 0.0012453300124533001, 0.0, 0.0012453300124533001, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0012453300124533001, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0012453300124533001, 0.34620174346201743, 0.1930261519302615, 0.5330012453300125, 0.062266500622665005, 0.08094645080946451, 0.0, 0.16936488169364883, 0.0, 0.024906600249066, 0.019925280199252802, 0.008717310087173101, 0.009962640099626401, 0.007471980074719801, 0.0, 0.0186799501867995, 0.0, 0.0, 0.0012453300124533001, 0.0, 0.0, 0.0012453300124533001, 0.0, 0.0112079701120797, 0.0, 0.0, 0.0, 0.0, 0.0037359900373599006, 0.0012453300124533001, 0.0, 0.0012453300124533001, 0.0, 0.0, 0.0, 0.0, 0.0012453300124533001, 0.0, 0.0, 0.0012453300124533001, 0.0, 0.0012453300124533001, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0024906600249066002], [0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0012453300124533001, 0.1656288916562889, 0.062266500622665005, 0.12826899128268993, 0.021170610211706103, 0.0547945205479452, 0.0, 0.0323785803237858, 0.0, 0.009962640099626401, 0.0049813200498132005, 0.007471980074719801, 0.0037359900373599006, 0.0012453300124533001, 0.0, 0.0037359900373599006, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0012453300124533001, 0.0, 0.0012453300124533001, 0.0, 0.0, 0.0, 0.0012453300124533001, 0.0, 0.0012453300124533001, 0.0, 0.0012453300124533001, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0012453300124533001, 0.0, 0.0012453300124533001, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0024906600249066002, 0.0647571606475716, 0.038605230386052306, 0.062266500622665005, 0.017434620174346202, 0.012453300124533, 0.0, 0.017434620174346202, 0.0, 0.019925280199252802, 0.0037359900373599006, 0.0012453300124533001, 0.0, 0.0, 0.0, 0.0062266500622665, 0.0, 0.0, 0.0, 0.0012453300124533001, 0.0, 0.0012453300124533001, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.039850560398505604, 0.12079701120797011, 0.062266500622665005, 0.20423412204234123, 0.0323785803237858, 0.039850560398505604, 0.0, 0.0273972602739726, 0.0, 0.026151930261519303, 0.0012453300124533001, 0.0037359900373599006, 0.0, 0.0012453300124533001, 0.0, 0.0037359900373599006, 0.0, 0.0, 0.0, 0.0, 0.0024906600249066002, 0.0, 0.0, 0.0049813200498132005, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0024906600249066002, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0012453300124533001, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0012453300124533001, 0.0, 0.0, 0.0012453300124533001, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.052303860523038606, 0.0136986301369863, 0.0722291407222914, 0.017434620174346202, 0.012453300124533, 0.0, 0.024906600249066, 0.0, 0.007471980074719801, 0.009962640099626401, 0.0037359900373599006, 0.0049813200498132005, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0024906600249066002, 0.0012453300124533001, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0037359900373599006, 0.05105853051058531, 0.043586550435865505, 0.049813200498132, 0.007471980074719801, 0.029887920298879204, 0.0, 0.034869240348692404, 0.0, 0.017434620174346202, 0.0012453300124533001, 0.009962640099626401, 0.0024906600249066002, 0.0012453300124533001, 0.0, 0.0037359900373599006, 0.0, 0.0024906600249066002, 0.0, 0.0049813200498132005, 0.0, 0.0024906600249066002, 0.0, 0.0024906600249066002, 0.0, 0.0, 0.0012453300124533001, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0012453300124533001, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0012453300124533001, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0012453300124533001], [0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.1320049813200498, 0.08094645080946451, 0.23661270236612703, 0.034869240348692404, 0.052303860523038606, 0.0, 0.10336239103362391, 0.0, 0.0037359900373599006, 0.007471980074719801, 0.0224159402241594, 0.0062266500622665, 0.0062266500622665, 0.0, 0.014943960149439602, 0.0, 0.0024906600249066002, 0.0012453300124533001, 0.0024906600249066002, 0.0024906600249066002, 0.0024906600249066002, 0.0, 0.0062266500622665, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0024906600249066002, 0.0, 0.0012453300124533001, 0.0, 0.0, 0.0, 0.0012453300124533001, 0.0, 0.0012453300124533001, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0012453300124533001], [0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0024906600249066002, 0.06724782067247821, 0.024906600249066, 0.031133250311332503, 0.0049813200498132005, 0.0062266500622665, 0.0, 0.0112079701120797, 0.0, 0.0037359900373599006, 0.0024906600249066002, 0.0024906600249066002, 0.0012453300124533001, 0.0037359900373599006, 0.0, 0.007471980074719801, 0.0, 0.0024906600249066002, 0.0, 0.0, 0.0, 0.0, 0.0, 0.007471980074719801, 0.0, 0.0012453300124533001, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0012453300124533001, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0012453300124533001, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0012453300124533001, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.017434620174346202, 0.0161892901618929, 0.0273972602739726, 0.0037359900373599006, 0.0062266500622665, 0.0, 0.0049813200498132005, 0.0, 0.0012453300124533001, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0024906600249066002, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.024906600249066, 0.0448318804483188, 0.033623910336239106, 0.09713574097135741, 0.0062266500622665, 0.0062266500622665, 0.0, 0.026151930261519303, 0.0, 0.0, 0.0037359900373599006, 0.0012453300124533001, 0.0, 0.0, 0.0, 0.0024906600249066002, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0012453300124533001, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0012453300124533001, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0012453300124533001, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.0037359900373599006, 0.0012453300124533001, 0.0062266500622665, 0.0012453300124533001, 0.0049813200498132005, 0.0, 0.0037359900373599006, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0024906600249066002, 0.0, 0.0062266500622665, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0024906600249066002, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0012453300124533001], [0.0, 0.0273972602739726, 0.0112079701120797, 0.014943960149439602, 0.0012453300124533001, 0.0012453300124533001, 0.0, 0.007471980074719801, 0.0, 0.0049813200498132005, 0.0, 0.0012453300124533001, 0.0012453300124533001, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0012453300124533001, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0012453300124533001, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0012453300124533001, 0.012453300124533, 0.0224159402241594, 0.08841843088418432, 0.0049813200498132005, 0.024906600249066, 0.0, 0.028642590286425903, 0.0, 0.0037359900373599006, 0.0, 0.0012453300124533001, 0.0, 0.0, 0.0, 0.0049813200498132005, 0.0, 0.0, 0.0, 0.0012453300124533001, 0.0, 0.0, 0.0, 0.0012453300124533001, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0012453300124533001, 0.0, 0.0, 0.0, 0.0], [0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.0037359900373599006, 0.0062266500622665, 0.009962640099626401, 0.009962640099626401, 0.0012453300124533001, 0.0, 0.0049813200498132005, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0012453300124533001, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.0062266500622665, 0.0012453300124533001, 0.014943960149439602, 0.0, 0.0012453300124533001, 0.0, 0.0, 0.0, 0.0037359900373599006, 0.0, 0.0, 0.0024906600249066002, 0.0012453300124533001, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0012453300124533001, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0012453300124533001, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.009962640099626401, 0.007471980074719801, 0.0049813200498132005, 0.039850560398505604, 0.0, 0.008717310087173101, 0.0, 0.0049813200498132005, 0.0, 0.0012453300124533001, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0024906600249066002, 0.0, 0.0, 0.0, 0.0, 0.0049813200498132005, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0012453300124533001, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.0049813200498132005, 0.0024906600249066002, 0.0024906600249066002, 0.0012453300124533001, 0.0, 0.0, 0.0037359900373599006, 0.0, 0.0, 0.0, 0.0, 0.0049813200498132005, 0.0012453300124533001, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.0012453300124533001, 0.0012453300124533001, 0.0062266500622665, 0.0, 0.0, 0.0, 0.007471980074719801, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0012453300124533001, 0.0, 0.0024906600249066002, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0012453300124533001, 0.0, 0.0, 0.0, 0.0], [0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.0049813200498132005, 0.0112079701120797, 0.024906600249066, 0.0037359900373599006, 0.0024906600249066002, 0.0, 0.05603985056039851, 0.0, 0.0012453300124533001, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0049813200498132005, 0.0, 0.0, 0.0, 0.0012453300124533001, 0.0024906600249066002, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0012453300124533001], [0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.0, 0.0037359900373599006, 0.0037359900373599006, 0.0, 0.0049813200498132005, 0.0, 0.0062266500622665, 0.0, 0.0012453300124533001, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.0012453300124533001, 0.0024906600249066002, 0.007471980074719801, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0024906600249066002, 0.0, 0.0, 0.0012453300124533001, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.0024906600249066002, 0.008717310087173101, 0.008717310087173101, 0.0037359900373599006, 0.0012453300124533001, 0.0, 0.007471980074719801, 0.0, 0.0, 0.0, 0.0024906600249066002, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0012453300124533001, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0012453300124533001, 0.0, 0.0, 0.0, 0.0012453300124533001, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0012453300124533001, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0024906600249066002, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0012453300124533001, 0.0, 0.0024906600249066002, 0.0024906600249066002, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.0012453300124533001, 0.0, 0.0012453300124533001, 0.0, 0.0, 0.0, 0.0037359900373599006, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0024906600249066002, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.0012453300124533001, 0.0024906600249066002, 0.021170610211706103, 0.0, 0.0, 0.0, 0.012453300124533, 0.0, 0.0012453300124533001, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0024906600249066002, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0</t>
         </is>
       </c>
     </row>
@@ -605,69 +605,69 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>3.590809757418174</v>
+        <v>7.235226184997575</v>
       </c>
       <c r="C3" t="n">
         <v>2.57530272087187</v>
       </c>
       <c r="D3" t="n">
-        <v>0.5906991495010002</v>
+        <v>0.5913263771405545</v>
       </c>
       <c r="E3" t="n">
         <v>2.846561820213446</v>
       </c>
       <c r="F3" t="n">
-        <v>1.382981190106598</v>
+        <v>1.384184357131292</v>
       </c>
       <c r="G3" t="n">
-        <v>0.02093743096043811</v>
+        <v>0.02093949002023239</v>
       </c>
       <c r="H3" t="n">
-        <v>0.4295189899033051</v>
+        <v>0.4294925781998982</v>
       </c>
       <c r="I3" t="n">
-        <v>15.22384905978332</v>
+        <v>15.22110322371564</v>
       </c>
       <c r="J3" t="n">
-        <v>81.5531434743672</v>
+        <v>81.54435932815957</v>
       </c>
       <c r="K3" t="n">
-        <v>1.539005082169607</v>
+        <v>1.542095687964101</v>
       </c>
       <c r="L3" t="n">
-        <v>0.8673466694570817</v>
+        <v>0.8673732097594604</v>
       </c>
       <c r="M3" t="n">
-        <v>1.743405014990587</v>
+        <v>1.770096261819055</v>
       </c>
       <c r="N3" t="inlineStr">
         <is>
-          <t>[43.96518638746081, 25.800607565347597, 38.07611878564085, 24.63620289428403, 9.277308741289549, 12.653983014070555, 0.8917675963837053, 10.195149838372064, 4.666612977517225, 5.338710445776931, 2.886325739584823, 0.6695730800773179, 3.6247079443894394, 0.1362142855678743, 1.005392488043713, 0.5612585071227026, 0.18934750393179203, 0.34577591916811784, 0.0, 0.08629696706884282, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0]</t>
+          <t>[44.31909401412168, 26.16964957441461, 38.629479629527744, 24.973930661050826, 9.152159616948792, 12.128129803532726, 0.8339509360070744, 10.109721120688956, 4.695204643369049, 5.305332697048505, 2.8578926485945755, 0.6611846292908672, 3.7038053281541234, 0.1362142855678743, 1.005392488043713, 0.5612585071227026, 0.18934750393179203, 0.34577591916811784, 0.0, 0.08629696706884282, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0]</t>
         </is>
       </c>
       <c r="O3" t="inlineStr">
         <is>
-          <t>[26.811276561682035, 4.202277140987607, 24.36955414520669, 3.7431446643987547, 22.738045383573084, 16.48883123885517, 5.317180291040652, 25.73264582035267, 4.525173197895207, 27.38603245536218, 3.265125152597835, 20.031100926674434]</t>
+          <t>[26.793671272203323, 4.19862196467329, 24.368656568397462, 3.7431446643987547, 22.738045383573084, 16.48883123885517, 5.317180291040652, 25.733025503929685, 4.525173197895207, 27.387616495844522, 3.265125152597835, 20.024649865457057]</t>
         </is>
       </c>
       <c r="P3" t="inlineStr">
         <is>
-          <t>[21.682888198281276, 72.77347495650994, 85.86715596282875, 32.414751565248764, 39.18357444052118, 5.031014264403113, 10.13745963811475, 4.112617473526721, 10.600563905098909, 2.530106678819317, 4.387809627990111, 1.7008126274108673, 5.283717019416239, 1.3777391600385327, 2.9671215210227353, 1.0737027088168662, 5.612673215326598, 0.9334294661166349, 1.957030468379365, 0.7754917069724199, 1.5660439598479532, 0.4384481393377636, 0.7976375185476675, 0.33519509521814744, 1.330485781046696, 0.15621819955732857, 0.3359576332150764, 0.131191837510562, 0.416990344842046, 0.1448549541578633, 0.21511431381812385, 0.13166383701150328]</t>
+          <t>[19.200192814527096, 79.9311001297264, 86.71882793720533, 32.26698726378019, 39.236255489009736, 5.076896598584383, 10.126639427099418, 4.112470026799988, 10.600443939631395, 2.530406397086378, 4.3926795103390734, 1.7009083665490732, 5.2858378220952815, 1.3786427576165583, 2.9682084905495536, 1.07361026379461, 5.608395939485978, 0.923637016457183, 1.9571556713165779, 0.7749415602618336, 1.5660439598479532, 0.42653961853269734, 0.7976375185476675, 0.33519509521814744, 1.330113894853949, 0.15621819955732857, 0.3359576332150764, 0.12160952045562655, 0.418175068572185, 0.1448549541578633, 0.21511431381812385, 0.13166383701150328]</t>
         </is>
       </c>
       <c r="Q3" t="inlineStr">
         <is>
-          <t>[10.239139713482235, 91.78844013187569, 68.24105539540207, 60.484269750223184, 16.852629823817313, 17.00425485442499, 0.0, 25.59437640424412, 0.0, 5.5202264198940165, 3.913505786863658, 6.218709756636351, 2.8897662234853323, 2.965137297495919, 0.0, 6.031495164290983, 0.0, 2.251255641720904, 1.384644578668003, 2.500296426799668, 1.627935480132149, 1.7065783665944962, 0.0, 2.9648700186569394, 0.0, 1.3113200852338929, 0.9461394257385434, 1.5852126572138443, 1.0614201274036805, 1.0133252683535194, 0.0, 2.0853258364601444, 0.14536794364889696, 0.8594184734990764, 0.5433521981379187, 1.1660013667634472, 0.31917397641484585, 0.5383456641009708, 0.03526725344584421, 1.1042531592621454, 0.08629696706884245, 0.3293562403611494, 0.3124363991146585, 0.47401127641350865, 0.2807273285898941, 0.24802397213202168, 0.03526725344584419, 0.6661130429448666, 0.0, 0.21305700411948367, 0.17545458036868317, 0.3043602855858842, 0.11114875584899048, 0.13145164696706488, 0.03526725344584421, 0.30805246003646064, 0.0, 0.1216095204556271, 0.11671605991392227, 0.1853827553268103, 0.06100846183768915, 0.1408049217942977, 0.0, 0.7860548292405346]</t>
+          <t>[12.82798711365942, 94.103421431507, 57.92075920232701, 60.494370750456966, 16.839890816418453, 17.003801749609853, 0.10568443093039571, 25.597638598346183, 0.035267253445844, 5.519699915116759, 3.914771302825827, 6.208024446702059, 2.8881138850900765, 2.9646053313264136, 0.07882063461243541, 6.030671280240247, 0.03526725344584406, 2.251255641720904, 1.3847677767551712, 2.498710526015691, 1.627726837204949, 1.7065783665944962, 0.0, 2.96494167894833, 0.0, 1.3113200852338929, 0.9432156150600347, 1.5852126572138443, 1.0599463097857305, 1.0133252683535194, 0.0, 2.0911119385789925, 0.0, 0.8565154946302311, 0.5433521981379187, 1.1784020375726163, 0.32863501628982855, 0.5383456641009708, 0.0, 1.1045747270298638, 0.0, 0.33105640935787717, 0.30877655679214755, 0.4864667744977927, 0.2807273285898941, 0.24802397213202168, 0.0, 0.6647076535532884, 0.0, 0.21305700411948367, 0.1919828794384192, 0.3080524600364604, 0.12183885238988879, 0.13145164696706488, 0.0, 0.3174199387179689, 0.0, 0.1216095204556271, 0.12183885238988881, 0.19806620525101934, 0.06100846183768915, 0.1408049217942977, 0.0, 0.7752876981015855]</t>
         </is>
       </c>
       <c r="R3" t="inlineStr">
         <is>
-          <t>[[15.38889614094686, 0.631688048182767, 9.891625637727504, 0.7945595855445606, 5.233482449413023, 1.9447342379681531, 0.20539263798739288, 5.374531838009012, 0.41022236725876743, 8.889003375111665, 0.9700553268017363, 8.386447493574272], [0.6422378289478653, 1.5102120706540463, 1.0720331388163606, 1.1122086891902483, 0.5786859768794762, 0.435210324156881, 0.2191073133796967, 0.07053450689168798, 0.4513561150412919, 0.2842464048426837, 0.5777042841715191, 0.6113238651450054], [10.848355012658786, 0.9655717467595065, 13.351684682449697, 0.3629875308042183, 10.585615994262561, 2.367716579527088, 0.6022249069870991, 4.501332109504329, 0.16522108242054842, 3.7253509784856966, 0.375961810139954, 3.5346300705443294], [0.5001949809725345, 1.2354489689036974, 1.0679951929332134, 1.0932224401431487, 0.6899038352881035, 1.2212554664837807, 0.09953295742310293, 0.061008461837688, 0.33235149364226535, 0.0, 0.3579841864799223, 0.0], [5.709959651100379, 0.3149331021027293, 10.444687865900816, 0.6337127024105634, 13.293003373418633, 6.766720617459143, 1.5957241072502508, 9.437619601564657, 0.685357051095766, 5.699794793421793, 0.04984432402537817, 2.622091358442047], [1.4283745239176138, 0.6518800062938273, 2.1999945156347964, 1.3577181547725181, 7.647346202680266, 6.232090773697233, 0.6981649257013408, 4.194088080163874, 0.9549253548852652, 1.812553769134634, 0.3591692384349887, 0.48723765511381373], [0.04984432402537831, 0.1611343470334298, 0.6437645540343204, 0.18285583903340266, 1.9723071089338597, 0.8112099201198917, 1.5491334734999171, 1.5831735030172573, 0.46849573270176675, 0.7962383394682092, 0.23360479148124938, 0.43406495203080153], [5.191744229578108, 0.0705345068916885, 4.391660482390778, 0.29859887226931253, 9.147709586915433, 4.780766933528221, 1.883350749285682, 14.651512150992408, 0.5763308723985958, 10.687194197366386, 0.32847452922060666, 2.357144909832109], [0.25090232148369807, 0.4078755229375376, 0.298401444635697, 0.3954741484748913, 0.6387001287501293, 0.9661947294867658, 0.3998537283987726, 0.5302912917395295, 1.8057345299852554, 1.640463161957812, 1.1901172689340662, 0.3492612332345292], [9.099981484403692, 0.2825170498627745, 3.9760401591664585, 0.1930301690820467, 6.155270066150008, 1.7719326335665508, 1.06578133435243, 10.590256259116895, 1.1000557656289465, 15.575731134902835, 0.4151340798331694, 6.932336423044284], [1.0442610100838234, 0.6461042864596092, 0.07882063461243609, 0.34345831483812034, 0.07040246089714859, 0.7220637765585423, 0.12201692367537688, 0.2939770246145319, 0.9998860062599834, 0.6012120033560843, 0.7992302545651963, 0.433868401049346], [8.406039573591837, 0.8809457818448249, 2.8641204146436636, 0.0, 2.4909426987785817, 0.5309430588918022, 0.4120969938719054, 3.3938804981733774, 0.773348935051679, 7.256443839536551, 0.4091889883963065, 7.086691998962943]]</t>
+          <t>[[15.544424817067915, 0.631688048182767, 9.728581503230998, 0.7938859179134038, 5.2627068744587495, 1.9487628181142156, 0.20539263798739288, 5.305933962109913, 0.3996403520191709, 9.073127323652596, 0.9916377644009764, 8.672095693852512], [0.6402958448301542, 1.5097683817988037, 1.0720331388163606, 0.9323904813246789, 0.5786859768794762, 0.44730409589567094, 0.2327534786248679, 0.07053450689168798, 0.3686092691981627, 0.2842464048426837, 0.7166027541999586, 0.6113238651450054], [11.168399914051411, 0.9655717467595065, 13.411512636086306, 0.3613989750457564, 10.652277913811034, 2.3809895670152303, 0.6145069558150342, 4.442172277958992, 0.16522108242054842, 3.5809009226752972, 0.36098678171210036, 3.4346666820049765], [0.4943034691653711, 1.3251668953567586, 1.0626029638290773, 1.0944488424159498, 0.6899038352881035, 1.2029913703501374, 0.11671605991392185, 0.061008461837688, 0.341393089727131, 0.0, 0.3206476915543523, 0.0], [5.6305574519687545, 0.3149331021027293, 10.67063068619951, 0.7351772794227536, 13.327006987969446, 6.759054312056993, 1.578796561769905, 9.330432152653872, 0.6820453171997707, 5.667770382020013, 0.04984432402537817, 2.608841840116135], [1.4035802930551646, 0.38155903598792873, 2.075609131578371, 1.4872587969627278, 7.7489619074125695, 6.301265510385754, 0.6730337634150431, 4.142015921670698, 0.9262777692008123, 1.7849589233613747, 0.362619913770433, 0.43161061433984804], [0.04984432402537831, 0.1611343470334298, 0.624954694244595, 0.11134392501747092, 1.9831543209302023, 0.8318282472193671, 1.570378428142396, 1.5819838445852001, 0.4696661059970374, 0.7845045347438666, 0.23360479148124938, 0.43406495203080153], [5.12666989306571, 0.0705345068916885, 4.252863438089124, 0.2635042973402156, 9.37645346376401, 4.810950161776644, 1.9372652435343902, 14.69722547308876, 0.5595427255680407, 10.7340567199275, 0.2704173259903404, 2.304291972659823], [0.25090232148369807, 0.38301946121415603, 0.298401444635697, 0.39122791058251355, 0.6371661366970607, 1.0187865131960492, 0.4043584824539249, 0.5312934547187215, 1.8102352829174537, 1.74075488100906, 1.1293529798090076, 0.3492612332345292], [9.015943144916903, 0.2825170498627745, 3.9193987994536226, 0.1930301690820467, 6.154764877021227, 1.7475623372485563, 1.0328389042944774, 10.846287516398174, 1.2425810256691137, 15.453003516573126, 0.4151340798331694, 6.9000347827098265], [1.025335491140491, 0.6461042864596092, 0.07882063461243609, 0.34345831483812034, 0.07040246089714859, 0.5687600905870498, 0.12201692367537688, 0.3567908519115193, 1.0287571663278192, 0.6041891529703305, 0.7918281814320607, 0.433868401049346], [8.306601925636771, 0.8809457818448249, 2.769910145696, 0.0, 2.39375299386898, 0.47690448987316153, 0.4120969938719054, 3.315825335365898, 0.773348935051679, 7.5540043315460075, 0.4091889883963065, 7.048717264499371]]</t>
         </is>
       </c>
       <c r="S3" t="inlineStr">
         <is>
-          <t>[[0.5981448522516661, 3.45295632807422, 2.5270694923376387, 6.300793440821469, 0.6876973477766123, 0.7447323369277237, 0.0, 1.8497942697753542, 0.0, 0.1793188734596477, 0.30855548528992865, 0.2717103475530585, 0.10550819217920393, 0.15732614393378672, 0.0, 0.24611577737616433, 0.0, 0.10568443093039494, 0.035267253445844256, 0.1269381686756842, 0.08629696706884259, 0.07053450689168851, 0.0, 0.13182863758724553, 0.0, 0.0, 0.0, 0.10568443093039458, 0.03526725344584417, 0.0, 0.0, 0.15732614393378422, 0.0, 0.04984432402537798, 0.0, 0.07053450689168823, 0.0, 0.03526725344584412, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.035267253445844166, 0.07053450689168834, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.03526725344584417, 0.0, 0.0788206346124355], [2.738302585049167, 70.71128224090144, 22.655213696129486, 17.54046955616787, 5.3896337763833975, 7.711873795015497, 0.0, 4.532084945639117, 0.0, 3.0507799705099856, 1.820238860923577, 1.7725294392443114, 1.3220584356286411, 1.754252323622065, 0.0, 1.761336939708725, 0.0, 1.068417673472907, 0.703092194246869, 0.783972582067646, 0.42439999056073824, 0.8407720865311248, 0.0, 0.974214274417964, 0.0, 0.5000709462095569, 0.314933102102731, 0.5124831841471554, 0.475764962637261, 0.3925852250797812, 0.0, 0.5837423826999588, 0.0, 0.3324028188158522, 0.18934750393179203, 0.2555749737427829, 0.07882063461243584, 0.33344626754696427, 0.0, 0.10550819217920393, 0.0, 0.1167160599139228, 0.035267253445844166, 0.07053450689168847, 0.04984432402537779, 0.03526725344584405, 0.0, 0.061008461837688224, 0.0, 0.03526725344584423, 0.0, 0.0, 0.035267253445844075, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0705345068916883, 0.0, 0.0], [2.509193188726742, 22.259469178774047, 38.1841669335804, 15.81004154788268, 5.343967776035741, 4.87818608580641, 0.0, 5.57516457849677, 0.0, 1.9137104253621324, 1.6428843619202245, 1.629779711534943, 0.9599612487248417, 1.050482924194363, 0.0, 1.787737922503338, 0.0, 0.7401598788104239, 0.6342215239818803, 0.9719687063300225, 0.8611400757459441, 0.5606696452134722, 0.0, 0.9126561387276729, 0.0, 0.4693423964887469, 0.5507710446105903, 0.42804947231461904, 0.2951510946817137, 0.4123866665783569, 0.0, 0.41756270010404206, 0.1410690137833764, 0.38843517999213123, 0.10568443093039488, 0.32920081587595895, 0.07053450689168786, 0.17608983990366775, 0.0, 0.09315867601128378, 0.03526725344584425, 0.24403384735075295, 0.04984432402537791, 0.17591360903495498, 0.07882063461243584, 0.0, 0.0, 0.12201692367537861, 0.0, 0.0, 0.0, 0.0705345068916883, 0.07882063461243524, 0.0, 0.0, 0.0788206346124356, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.08629696706884227], [7.79025224872956, 16.69416259475453, 14.748738552296453, 42.25260630469924, 5.733545089744422, 4.985908223211347, 0.0, 10.172364455479032, 0.0, 2.673041621445877, 1.8501480360303018, 3.8478162309141517, 1.5873019523659646, 1.4814235619636973, 0.0, 3.502454296199748, 0.0, 1.3074814632420106, 0.6262363335760979, 1.4621468413816456, 0.719412823630801, 0.7852613028241368, 0.0, 1.5853574421106427, 0.0, 0.7371175564715419, 0.434382818857992, 1.0823329281260705, 0.5959941794248123, 0.517934533785683, 0.0, 1.2644669100253705, 0.0, 0.4525810946436798, 0.30426855400399416, 0.8433578596399137, 0.09315867601128319, 0.10550819217920296, 0.0, 0.7428119504872601, 0.0, 0.12201692367537655, 0.18265217551481117, 0.27863128468684545, 0.09968864805075679, 0.10568443093039558, 0.0, 0.14920072231784873, 0.0, 0.13639632946543284, 0.08629696706884206, 0.15710912864667462, 0.0, 0.0, 0.0, 0.09315867601128383, 0.0, 0.03526725344584421, 0.0705345068916884, 0.13639632946543281, 0.03526725344584419, 0.0, 0.0, 0.27078411805582514], [1.1545921920934599, 4.523467181433315, 4.87089657888184, 5.818178619559349, 6.038142290935837, 2.3782269106892384, 0.0, 2.375690837502433, 0.0, 0.9913609110736527, 0.615520657333571, 0.8830224067293442, 0.5810795777519577, 0.4770215439931948, 0.0, 0.9572676110035493, 0.0, 0.3915845125256466, 0.3364143263741578, 0.40906389761668716, 0.268968220034349, 0.3224178402006213, 0.0, 0.4261249266336279, 0.0, 0.25065495642160496, 0.18591738586821036, 0.2746002094872512, 0.16868591470183913, 0.2388762412378102, 0.0, 0.2606639632754011, 0.0, 0.21026540778822927, 0.03526725344584391, 0.14080492179429777, 0.06100846183768839, 0.10568443093039702, 0.0, 0.04984432402537786, 0.0, 0.035267253445843985, 0.03526725344584404, 0.04984432402537791, 0.14106901378337577, 0.035267253445843944, 0.0, 0.0498443240253783, 0.0, 0.06100846183768826, 0.0, 0.0, 0.0, 0.0, 0.03526725344584421, 0.0, 0.0, 0.0, 0.035267253445844256, 0.0, 0.0, 0.0, 0.0, 0.07040246089714881], [1.3189214849254736, 7.081632816464265, 4.957942341338154, 5.435274475407721, 2.437572460004789, 5.480219294185036, 0.0, 2.7969114023594153, 0.0, 1.0710764824222736, 0.7219477861724435, 1.1754055090594748, 0.7391954187546981, 0.5986295022743896, 0.0, 1.1722227308206572, 0.0, 0.7141574034175634, 0.3047167570047761, 0.5313197250903469, 0.4210652116157133, 0.4240088097719355, 0.0, 0.621862496549141, 0.0, 0.34891915772447624, 0.20995540140181732, 0.3797541937146656, 0.13166383701150305, 0.2520739905763335, 0.0, 0.3364650317941747, 0.0, 0.1859173858682102, 0.16886968849498354, 0.2511247417089393, 0.08629696706884306, 0.08629696706884314, 0.0, 0.1269381686756845, 0.0, 0.03526725344584406, 0.07882063461243603, 0.08629696706884223, 0.07882063461243621, 0.04984432402537839, 0.0, 0.13182863758724717, 0.0, 0.0, 0.04984432402537789, 0.03526725344584397, 0.035267253445844096, 0.03526725344584425, 0.0, 0.049844324025378244, 0.0, 0.0498443240253781, 0.0, 0.0, 0.0, 0.0, 0.0, 0.049844324025377945], [0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.04984432402537853, 4.485143132576206, 4.33210164671944, 9.218316336798773, 2.0339087224555223, 2.35725215070793, 0.0, 12.58961003710107, 0.0, 1.0896658957459893, 0.827813864855967, 2.512868607277693, 0.7401934026317223, 0.6207892044261079, 0.0, 2.933938836583808, 0.0, 0.5861761886654182, 0.5171074490201772, 1.1419112610370283, 0.6723905666797703, 0.6022249069870969, 0.0, 1.466332595008721, 0.0, 0.5439284450593038, 0.38155903598793384, 0.6370785075490908, 0.3253959390473239, 0.23147063879777768, 0.0, 0.9299672281111608, 0.0, 0.15357499386767587, 0.17931887345964814, 0.43949741058584024, 0.22836106463021436, 0.11687539931905394, 0.0, 0.6242296655109074, 0.0, 0.12183885238988838, 0.19270853231927834, 0.21882400926150114, 0.07040246089714887, 0.15357499386767554, 0.0, 0.5121986478190869, 0.0, 0.10568443093039617, 0.08629696706884352, 0.13621428556787427, 0.03526725344584419, 0.08629696706884217, 0.0, 0.13598638799221782, 0.0, 0.0, 0.0705345068916878, 0.11114875584899055, 0.049844324025377855, 0.0498443240253778, 0.0, 0.3320947487899453], [0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.4896950515055158, 3.2884381535021165, 2.0820778210694506, 2.5613299108819803, 0.6104835849454087, 0.923069317931281, 0.0, 1.247240129131313, 0.0, 0.5096519732428465, 0.2485236935314869, 0.41701637803238145, 0.24120856130395588, 0.11114875584899035, 0.0, 0.20161273688490633, 0.0, 0.15764126922487304, 0.0862969670688437, 0.03526725344584391, 0.2112073826914461, 0.07040246089714881, 0.0, 0.09295869293410511, 0.0, 0.10550819217920371, 0.09953295742310311, 0.10580176033753397, 0.0, 0.04984432402537837, 0.0, 0.3230857457411664, 0.0, 0.06100846183768802, 0.0788206346124368, 0.07882063461243631, 0.04984432402537836, 0.28852982231780017, 0.0, 0.0, 0.0, 0.0, 0.03526725344584399, 0.04984432402537867, 0.07053450689168773, 0.07053450689168833, 0.0, 0.0, 0.0, 0.049844324025377876, 0.03526725344584426, 0.09315867601128386, 0.0, 0.07882063461243541, 0.0, 0.0, 0.0, 0.03526725344584408, 0.0, 0.0, 0.0, 0.03526725344584417, 0.0, 0.11114875584899048], [0.10580176033753269, 1.8042378009538727, 1.8926304125042663, 1.9291588864507037, 0.5562096106810701, 0.5663281144968402, 0.0, 0.7128423894381034, 0.0, 0.11671605991392124, 0.18983829662633858, 0.48156768273402656, 0.11114875584898949, 0.16868591470183852, 0.0, 0.2382912214008719, 0.0, 0.11148312237775929, 0.049844324025377834, 0.04984432402537813, 0.0, 0.0, 0.0, 0.11687539931905296, 0.0, 0.04984432402537806, 0.0, 0.0, 0.0, 0.11148312237775886, 0.0, 0.11148312237775918, 0.0, 0.035267253445844166, 0.035267253445844006, 0.04984432402537845, 0.0, 0.0, 0.0, 0.0, 0.03526725344584425, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.03526725344584412, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.03526725344584423, 0.0, 0.0, 0.03526725344584419, 0.0, 0.0, 0.0, 0.0, 0.06100846183768812], [0.8968019082899605, 2.2472986771569854, 1.8740706508790705, 4.05926583446298, 0.6102523685844544, 0.7421163856103026, 0.0, 1.2032749518486976, 0.0, 0.4192306890890823, 0.18285583903340205, 1.0009478935914595, 0.3089372367037806, 0.18613414088700717, 0.0, 0.3456772324229625, 0.0, 0.03526725344584399, 0.07882063461243553, 0.2480239721320208, 0.21160352067506452, 0.1316638370115032, 0.0, 0.160903191843958, 0.0, 0.0931586760112831, 0.0, 0.1961622078587494, 0.14536794364889488, 0.08629696706884285, 0.0, 0.1492007223178497, 0.0, 0.09315867601128343, 0.0, 0.11134392501747215, 0.0, 0.0, 0.0, 0.03526725344584417, 0.0, 0.0, 0.0, 0.16132672335197967, 0.0, 0.03526725344584425, 0.0, 0.10580176033753164, 0.0, 0.0, 0.03526725344584417, 0.04984432402537779, 0.0, 0.0, 0.0, 0.08629696706884395, 0.0, 0.07882063461243585, 0.0, 0.0, 0.0, 0.0, 0.0, 0.08611706908901762], [0.09953295742310325, 1.4383308262770131, 1.1039062104189568, 1.2881011251535857, 0.42219075155551855, 1.1016406369062917, 0.0, 0.6506965505108849, 0.0, 0.3998537283987718, 0.17931887345964864, 0.1493877037322834, 0.22554573381679363, 0.07882063461243645, 0.0, 0.086296967068843, 0.0, 0.1410690137833756, 0.06100846183768784, 0.12708469219734697, 0.03526725344584389, 0.0, 0.0, 0.03526725344584407, 0.0, 0.0, 0.0, 0.0, 0.07882063461243635, 0.0, 0.0, 0.06100846183768841, 0.0, 0.035267253445844055, 0.0, 0.0, 0.0, 0.0, 0.0, 0.11148312237775973, 0.0, 0.03526725344584391, 0.03526725344584419, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.03526725344584416, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.035267253445844166, 0.0, 0.03526725344584406], [0.3784738003113154, 1.7624926493418738, 1.1515444811923943, 1.3825126356947457, 0.3310564093578771, 0.8450754776983171, 0.0, 0.4883662906232824, 0.0, 0.14920072231784717, 0.19249918023974963, 0.21995503635527222, 0.07040246089714865, 0.2821380275667512, 0.0, 0.035267253445844186, 0.0, 0.03526725344584407, 0.0, 0.0, 0.03526725344584419, 0.04984432402537871, 0.0, 0.035267253445844075, 0.0, 0.0, 0.0, 0.07882063461243533, 0.03526725344584411, 0.14536794364889521, 0.0, 0.035267253445844, 0.0, 0.14536794364889521, 0.0, 0.0, 0.0, 0.0, 0.0, 0.03526725344584411, 0.0, 0.03526725344584416, 0.03526725344584402, 0.0, 0.0, 0.035267253445844006, 0.0, 0.0, 0.0, 0.035267253445844, 0.03526725344584404, 0.0, 0.035267253445844006, 0.0, 0.0, 0.0705345068916885, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.049844324025378146], [0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.03526725344584419, 1.8682382573058716, 1.7424165162679763, 3.5596999807416085, 0.8502658807553721, 0.8769334177246595, 0.0, 2.7806364784728186, 0.0, 0.2503825725900313, 0.23019412422188767, 0.34378777998943816, 0.15321102365359715, 0.16148045939482353, 0.0, 0.5202797428561505, 0.0, 0.10568443093039556, 0.03526725344584411, 0.14506892023336015, 0.0, 0.1535749938676759, 0.0, 0.13621428556787418, 0.0, 0.093158676011283, 0.03526725344584406, 0.03526725344584423, 0.03526725344584394, 0.16148045939482347, 0.0, 0.30518462906583993, 0.0, 0.04984432402537824, 0.03526725344584396, 0.0, 0.035267253445843985, 0.10580176033753151, 0.0, 0.07882063461243655, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0705345068916878, 0.0, 0.22568321141935258, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.12693816867568397, 0.0, 0.03526725344584419, 0.0, 0.0, 0.0, 0.0, 0.0, 0.049844324025378146], [0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.07053450689168832, 1.373934851779479, 0.7284382240640416, 1.067396755818729, 0.3837435482682072, 0.4637077898358893, 0.0, 0.368238841371977, 0.0, 0.3242978994722724, 0.09315867601128303, 0.1797852881565914, 0.035267253445844124, 0.07882063461243556, 0.0, 0.14953297207613503, 0.0, 0.14953297207613514, 0.07053450689168782, 0.0, 0.0, 0.0, 0.0, 0.07053450689168832, 0.0, 0.03526725344584384, 0.0, 0.0, 0.0, 0.0, 0.0, 0.04984432402537776, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.035267253445843846, 0.0, 0.0, 0.0, 0.0, 0.03526725344584405, 0.0, 0.0, 0.0, 0.0, 0.0352672534458439], [0.035267253445844256, 0.6888915297703234, 0.6899060832018447, 0.7544644595577332, 0.09295869293410515, 0.22150076890975368, 0.0, 0.26040204920186233, 0.0, 0.11134392501747062, 0.0862969670688434, 0.0, 0.0, 0.0, 0.0, 0.03526725344584411, 0.0, 0.0, 0.0, 0.1058017603375333, 0.07882063461243631, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.03526725344584384, 0.0, 0.0, 0.0, 0.03526725344584411, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.03526725344584423, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.03526725344584389, 0.0, 0.0, 0.0, 0.03526725344584415], [0.5408661936315918, 1.0144571714995214, 1.022612352827793, 1.457963962535131, 0.34540794344486314, 0.4477060985422264, 0.0, 0.7072180787806787, 0.0, 0.17591360903495365, 0.17950904055170688, 0.25112474170893934, 0.0, 0.049844324025378264, 0.0, 0.0705345068916878, 0.0, 0.0, 0.03526725344584394, 0.11134392501747001, 0.0, 0.07882063461243619, 0.0, 0.04984432402537859, 0.0, 0.0, 0.0, 0.035267253445844235, 0.0, 0.035267253445843846, 0.0, 0.0, 0.0, 0.03526725344584391, 0.0, 0.04984432402537847, 0.0, 0.035267253445844055, 0.0, 0.0, 0.0, 0.0, 0.0, 0.049844324025378174, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.03526725344584405], [0.0, 0.994370866289755, 0.5271939544122967, 0.7078121007311813, 0.2601398714280752, 0.2711160947356388, 0.0, 0.21936197425475198, 0.0, 0.17259393413768642, 0.06100846183768819, 0.07882063461243569, 0.14536794364889477, 0.035267253445844235, 0.0, 0.03526725344584423, 0.0, 0.0, 0.0996886480507569, 0.035267253445843846, 0.09968864805075693, 0.07053450689168782, 0.0, 0.035267253445843944, 0.0, 0.0, 0.0, 0.0, 0.0, 0.03526725344584422, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.03526725344584421, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.03526725344584419], [0.2565440277854765, 0.8692546216985796, 0.6937997157399078, 0.7124550306544375, 0.2738537045298144, 0.31206886765491826, 0.0, 0.3648753181834923, 0.0, 0.11134392501746977, 0.03526725344584421, 0.08629696706884356, 0.07882063461243598, 0.14536794364889521, 0.0, 0.07882063461243603, 0.0, 0.03526725344584404, 0.03526725344584384, 0.07053450689168782, 0.07053450689168782, 0.035267253445844256, 0.0, 0.0, 0.0, 0.0, 0.0, 0.03526725344584418, 0.0, 0.035267253445843826, 0.0, 0.03526725344584395, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.03526725344584415, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.03526725344584401, 1.0778458955511716, 0.8752127586281268, 1.7615922645009436, 0.4068018738819371, 0.5464005171597189, 0.0, 1.0462328651317343, 0.0, 0.21026540778823294, 0.30699847581939455, 0.11671605991392046, 0.1993772961015137, 0.09953295742310303, 0.0, 0.29676504232339324, 0.0, 0.0, 0.03526725344584394, 0.0, 0.0, 0.03526725344584395, 0.0, 0.16886968849498363, 0.0, 0.0, 0.0, 0.0, 0.10580176033753151, 0.03526725344584402, 0.0, 0.03526725344584385, 0.0, 0.0, 0.0, 0.0, 0.03526725344584385, 0.0, 0.0, 0.035267253445843846, 0.0, 0.035267253445844055, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0498443240253786], [0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.03526725344584384, 0.6685926212108927, 0.42858896755180403, 0.602804047492698, 0.21936197425475323, 0.3954741484748924, 0.0, 0.2714248114734818, 0.0, 0.14080492179429757, 0.09968864805075615, 0.21160352067506322, 0.06100846183768854, 0.035267253445844006, 0.0, 0.10580176033753158, 0.0, 0.0, 0.0, 0.0, 0.0, 0.03526725344584419, 0.0, 0.03526725344584419, 0.0, 0.0, 0.0, 0.035267253445843985, 0.0, 0.03526725344584393, 0.0, 0.03526725344584424, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.03526725344584427, 0.0, 0.03526725344584391, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.07053450689168825, 0.352470195409574, 0.3398131162956131, 0.4850012838037022, 0.19886325557498574, 0.140606527285403, 0.0, 0.19886325557498588, 0.0, 0.27715238404366227, 0.07882063461243652, 0.03526725344584402, 0.0, 0.0, 0.0, 0.14536794364889521, 0.0, 0.0, 0.0, 0.03526725344584394, 0.0, 0.035267253445843964, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.03526725344584413, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.3972583220398915, 0.6190830972029179, 0.4273242469283259, 1.0108413594767087, 0.2848568208032502, 0.36113282065740643, 0.0, 0.22150076890975764, 0.0, 0.33562048161107094, 0.03526725344584413, 0.07882063461243559, 0.0, 0.035267253445844006, 0.0, 0.0788206346124354, 0.0, 0.0, 0.0, 0.0, 0.07053450689168832, 0.0, 0.0, 0.09968864805075714, 0.0, 0.0, 0.0, 0.0, 0.0, 0.04984432402537858, 0.0, 0.0, 0.0, 0.0, 0.0, 0.035267253445843985, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.03526725344584423, 0.0, 0.0, 0.0352672534458441, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.392652375191469, 0.12649757979606965, 0.5688146222788149, 0.18591738586820974, 0.16505203903612162, 0.0, 0.3448642377219643, 0.0, 0.1576412692248712, 0.22296624475551793, 0.06100846183768829, 0.09968864805075713, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.03526725344584384, 0.03526725344584383, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.04984432402537851], [0.07882063461243573, 0.36451811415950947, 0.29869753715158565, 0.2994546142200476, 0.11134392501747144, 0.226738996961806, 0.0, 0.3581877403997085, 0.0, 0.21683766852786868, 0.035267253445844075, 0.12183885238988858, 0.07053450689168768, 0.035267253445843944, 0.0, 0.07882063461243599, 0.0, 0.04984432402537775, 0.0, 0.1410690137833756, 0.0, 0.07053450689168853, 0.0, 0.0705345068916878, 0.0, 0.0, 0.03526725344584394, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0352672534458441, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.03526725344584392, 0.0, 0.0, 0.0, 0.0, 0.0, 0.03526725344584419], [0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.5849313875394228, 0.5362327985890728, 1.1857621446559805, 0.3215460419964512, 0.5062538382715561, 0.0, 0.6177338990557453, 0.0, 0.06100846183768857, 0.12201692367537662, 0.22759917870437524, 0.07866307196689262, 0.09315867601128285, 0.0, 0.1793188734596478, 0.0, 0.035267253445844256, 0.035267253445844, 0.049844324025377924, 0.07053450689168832, 0.0705345068916878, 0.0, 0.1453679436488957, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0705345068916883, 0.0, 0.03526725344584415, 0.0, 0.0, 0.0, 0.03526725344584385, 0.0, 0.03526725344584383, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.03526725344584416], [0.0, 0.0, 0.0, 0.14536794364889696, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.07053450689168826, 0.4633096295206717, 0.3484566005752484, 0.2598535576242571, 0.08629696706884268, 0.10568443093039691, 0.0, 0.12674254048211195, 0.0, 0.07882063461243574, 0.04984432402537813, 0.07053450689168844, 0.03526725344584396, 0.10580176033753227, 0.0, 0.1318286375872456, 0.0, 0.0705345068916881, 0.0, 0.0, 0.0, 0.0, 0.0, 0.21160352067506397, 0.0, 0.035267253445844214, 0.0, 0.0, 0.0, 0.0, 0.0, 0.035267253445843985, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.03526725344584415, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.03526725344584414, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.22803485378865374, 0.2081452793601598, 0.2981830830649509, 0.10580176033753366, 0.10568443093039637, 0.0, 0.08629696706884259, 0.0, 0.03526725344584389, 0.0, 0.0, 0.0, 0.0, 0.0, 0.07053450689168832, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.4648301662229989, 0.3741092406171576, 0.2825170498627747, 0.6676989898681324, 0.11687539931905319, 0.09315867601128223, 0.0, 0.2604020492018654, 0.0, 0.0, 0.07882063461243612, 0.03526725344584425, 0.0, 0.0, 0.0, 0.07053450689168854, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.03526725344584412, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.035267253445844235, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.06100846183768855, 0.03526725344584395, 0.09315867601128307, 0.03526725344584416, 0.09968864805075678, 0.0, 0.07882063461243591, 0.0, 0.0, 0.0, 0.0, 0.0, 0.04984432402537786, 0.0, 0.17633626722922152, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0705345068916878, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.33366014333491806, 0.15341333593459064, 0.23887624123781437, 0.035267253445843944, 0.03526725344584383, 0.0, 0.08611706908901763, 0.0, 0.11148312237775884, 0.0, 0.03526725344584421, 0.035267253445843944, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.03526725344584417, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.035267253445843944, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.03526725344584421, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.03526725344584419, 0.1650520390361216, 0.22759917870437557, 0.7081822902144591, 0.08629696706884368, 0.3921741740709671, 0.0, 0.28306545679603595, 0.0, 0.07882063461243524, 0.0, 0.03526725344584418, 0.0, 0.0, 0.0, 0.1410690137833769, 0.0, 0.0, 0.0, 0.03526725344584419, 0.0, 0.0, 0.0, 0.03526725344584417, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.03526725344584394, 0.0, 0.0, 0.0, 0.0], [0.0, 0.0, 0.0, 0.04984432402537795, 0.0, 0.0705345068916885, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.07882063461243617, 0.12708469219734675, 0.11114875584899023, 0.2173091951010616, 0.035267253445844166, 0.0, 0.08629696706884256, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.11134392501747085, 0.04984432402537791, 0.1793188734596477, 0.0, 0.035267253445844166, 0.0, 0.0, 0.0, 0.10580176033753151, 0.0, 0.0, 0.07053450689168789, 0.035267253445843944, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.03526725344584399, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.035267253445844235, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.14080492179429754, 0.12201692367537707, 0.11148312237776047, 0.3248235119367309, 0.0, 0.09953295742310306, 0.0, 0.07040246089714884, 0.0, 0.035267253445844, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.07053450689168836, 0.0, 0.0, 0.0, 0.0, 0.1410690137833756, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.08629696706884205, 0.049844324025378604, 0.04984432402537786, 0.03526725344584419, 0.0, 0.0, 0.07882063461243627, 0.0, 0.0, 0.0, 0.0, 0.14106901378337577, 0.035267253445843944, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.035267253445844166, 0.03526725344584395, 0.11687539931905308, 0.0, 0.0, 0.0, 0.15764126922487198, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.03526725344584424, 0.0, 0.0705345068916878, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.03526725344584405, 0.0, 0.0, 0.0, 0.0], [0.0, 0.0, 0.0, 0.03526725344584419, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.08629696706884253, 0.15341333593459072, 0.20102727913036317, 0.07882063461243535, 0.07053450689168839, 0.0, 0.5216104560889827, 0.0, 0.03526725344584385, 0.0, 0.0, 0.0, 0.0, 0.0, 0.09968864805075558, 0.0, 0.0, 0.0, 0.03526725344584417, 0.07053450689168789, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.03526725344584419], [0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.0, 0.07882063461243621, 0.07882063461243533, 0.0, 0.08629696706884211, 0.0, 0.07866307196689305, 0.0, 0.03526725344584416, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.0, 0.03526725344584415, 0.1318286375872472, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0705345068916878, 0.0, 0.0, 0.03526725344584419, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.07053450689168804, 0.12693816867568397, 0.10550819217920085, 0.06100846183768903, 0.0, 0.0, 0.15764126922487065, 0.0, 0.0, 0.0, 0.0705345068916885, 0.0, 0.0, 0.0, 0.0, 0.0, 0.035267253445844166, 0.0, 0.0, 0.0, 0.0, 0.0, 0.03526725344584415, 0.0, 0.0, 0.0, 0.035267253445844235, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.07053450689168839, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.03526725344584419, 0.0, 0.035267253445844075, 0.06100846183768882, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.03526725344584425, 0.0, 0.03526725344584418, 0.0, 0.0, 0.0, 0.0788206346124354, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.07053450689168834, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.03526725344584421, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.03526725344584388, 0.03526725344584415, 0.18566696948481257, 0.0, 0.0, 0.0, 0.1863173520225676, 0.0, 0.03526725344584419, 0.0, 0.0, 0.0, 0.0, 0.0, 0.07053450689168766, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.03526725344584387, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.0, 0.0, 0.049844324025378084, 0.0, 0.035267253445844, 0.0, 0.03526725344584423, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.035267253445844, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.0, 0.0, 0.0705345068916884, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0352672534458439, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0352672534458439, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0,</t>
+          <t>[[0.6032309680582033, 6.975327409365649, 3.720221183872154, 6.527619373807764, 0.9158451897975939, 0.8431224481801997, 0.0, 1.8615047065037715, 0.0, 0.23019412422188812, 0.33910955925753683, 0.31341767474144994, 0.16846512152513995, 0.15732614393378672, 0.0, 0.26514125905531577, 0.0, 0.10568443093039494, 0.035267253445844256, 0.1269381686756842, 0.13639632946543412, 0.07882063461243609, 0.0, 0.13182863758724553, 0.0, 0.0, 0.0, 0.10568443093039458, 0.049844324025378015, 0.0, 0.0, 0.15732614393378422, 0.0, 0.035267253445844214, 0.0, 0.0788206346124355, 0.0, 0.03526725344584412, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.035267253445844166, 0.07053450689168834, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.03526725344584417, 0.0, 0.0], [8.405709879967649, 72.05959475702427, 20.568194935471578, 17.376902773029723, 5.627775983506235, 7.722590533674874, 0.0, 4.551357670791479, 0.0, 3.0669472177602466, 1.8510162370652141, 1.7907672375179229, 1.313659666513322, 1.7609010411749433, 0.0, 1.774010084635276, 0.0, 1.0706912630068763, 0.7171327786948001, 0.8439313999635857, 0.42439999056073824, 0.8412644374406971, 0.0, 0.9848269417596358, 0.0, 0.5000709462095569, 0.347748232474827, 0.5124831841471554, 0.47690448987316164, 0.3925852250797812, 0.0, 0.5875556214174019, 0.0, 0.37530536019169786, 0.18934750393179203, 0.2555749737427829, 0.07882063461243584, 0.33344626754696427, 0.0, 0.11114875584899017, 0.0, 0.1167160599139228, 0.035267253445844166, 0.07882063461243506, 0.04984432402537779, 0.03526725344584405, 0.0, 0.061008461837688224, 0.0, 0.03526725344584423, 0.0352672534458441, 0.0, 0.035267253445844075, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0705345068916883, 0.0, 0.0], [2.5072770707759893, 20.358320931630743, 29.010247762871934, 15.594055632661258, 4.656996792399891, 4.6978199259931985, 0.0, 5.479208643976557, 0.0, 1.8172706224216741, 1.6219274847410945, 1.589618761554814, 0.9435181016441375, 1.0408560324790945, 0.0, 1.7756510809048176, 0.0, 0.7359405174955117, 0.6216879008447389, 0.9159772616077364, 0.855187260823239, 0.5588715879927961, 0.0, 0.8947832630765055, 0.0, 0.4693423964887469, 0.5307502425835738, 0.42804947231461904, 0.29119959394370315, 0.4123866665783569, 0.0, 0.41191631560504277, 0.0, 0.3358052641398605, 0.10568443093039488, 0.32920081587595895, 0.07053450689168786, 0.17608983990366775, 0.0, 0.08629696706884234, 0.0, 0.24403384735075295, 0.04984432402537791, 0.17591360903495498, 0.07882063461243584, 0.0, 0.0, 0.11687539931905186, 0.0, 0.0, 0.0, 0.0705345068916883, 0.07053450689168836, 0.0, 0.0, 0.0788206346124356, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.08629696706884227], [7.785913986188617, 16.74559913410358, 14.604572346834846, 42.254639373165254, 5.742124995183023, 4.985908223211347, 0.07053450689168837, 10.17291846865618, 0.0, 2.6722414326549044, 1.8514937416250146, 3.848215225741559, 1.5873019523659646, 1.481443452218515, 0.035267253445844166, 3.502454296199748, 0.0, 1.3064455588117678, 0.6255549374186772, 1.4612885120931256, 0.7200010924846098, 0.7852613028241368, 0.0, 1.5853368991127177, 0.0, 0.7371175564715419, 0.43316007904758697, 1.0823329281260705, 0.592994194049528, 0.517934533785683, 0.0, 1.2644669100253705, 0.0, 0.4525810946436798, 0.30426855400399416, 0.853867858493989, 0.09315867601128319, 0.10550819217920296, 0.0, 0.7428119504872601, 0.0, 0.12201692367537655, 0.18265217551481117, 0.27863128468684545, 0.09968864805075679, 0.10568443093039558, 0.0, 0.14920072231784873, 0.0, 0.13639632946543284, 0.08629696706884206, 0.16460040793797942, 0.0, 0.0, 0.0, 0.09953295742310303, 0.0, 0.03526725344584421, 0.07882063461243571, 0.13639632946543281, 0.03526725344584419, 0.0, 0.0, 0.27706843662872715], [1.1545921920934599, 4.910198060166919, 4.338809114918467, 5.819322548060996, 6.02297574618445, 2.3795776827057114, 0.0, 2.375690837502433, 0.0, 0.9913609110736527, 0.615520657333571, 0.8826816199582865, 0.5819116806771465, 0.4770215439931948, 0.07053450689168829, 0.9500276516048531, 0.0, 0.3915845125256466, 0.3364143263741578, 0.40774242228737384, 0.27111609473563836, 0.3224178402006213, 0.0, 0.4261249266336279, 0.0, 0.25065495642160496, 0.18591738586821036, 0.2746002094872512, 0.16868591470183913, 0.2388762412378102, 0.0, 0.2606639632754011, 0.0, 0.21026540778822927, 0.03526725344584391, 0.14080492179429777, 0.06100846183768839, 0.10568443093039702, 0.0, 0.04984432402537786, 0.0, 0.035267253445843985, 0.03526725344584404, 0.04984432402537791, 0.14106901378337577, 0.035267253445843944, 0.0, 0.0498443240253783, 0.0, 0.06100846183768826, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.035267253445844256, 0.0, 0.0, 0.0, 0.0, 0.07040246089714881], [1.3201308746463474, 7.132672627004393, 4.846518825823255, 5.433236266421455, 2.4377925842423576, 5.4799750684389394, 0.03526725344584389, 2.7970588916157735, 0.0, 1.0710764824222736, 0.7219477861724435, 1.1754055090594748, 0.7391954187546981, 0.5986295022743896, 0.0, 1.1722227308206572, 0.0, 0.7141574034175634, 0.3047167570047761, 0.5313197250903469, 0.4197815182120356, 0.4240088097719355, 0.0, 0.621862496549141, 0.0, 0.34891915772447624, 0.20995540140181732, 0.3797541937146656, 0.13166383701150305, 0.2520739905763335, 0.0, 0.3364650317941747, 0.0, 0.1859173858682102, 0.16886968849498354, 0.2511247417089393, 0.08629696706884306, 0.08629696706884314, 0.0, 0.1269381686756845, 0.0, 0.03526725344584406, 0.07882063461243603, 0.08629696706884223, 0.07882063461243621, 0.04984432402537839, 0.0, 0.13182863758724717, 0.0, 0.0, 0.04984432402537789, 0.03526725344584397, 0.035267253445844096, 0.03526725344584425, 0.0, 0.049844324025378244, 0.0, 0.0498443240253781, 0.0, 0.07053450689168841, 0.0, 0.0, 0.0, 0.049844324025377945], [0.0, 0.03526725344584389, 0.0, 0.0, 0.07053450689168837, 0.0, 0.03526725344584389, 0.0, 0.0, 0.0, 0.0, 0.03526725344584393, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.04984432402537853, 4.599085172365692, 4.066496587754081, 9.22093505304629, 2.0339087224555223, 2.3572560981317405, 0.0, 12.590044871443677, 0.0, 1.0896658957459893, 0.827813864855967, 2.510996057446287, 0.7407881980057558, 0.6207892044261079, 0.0, 2.933938836583808, 0.0, 0.5853501479714571, 0.5171074490201772, 1.1419112610370283, 0.6723905666797703, 0.6022249069870969, 0.0, 1.466332595008721, 0.0, 0.5439284450593038, 0.38155903598793384, 0.6370785075490908, 0.3253959390473239, 0.23147063879777768, 0.0, 0.9299672281111608, 0.0, 0.15357499386767587, 0.17931887345964814, 0.43949741058584024, 0.22836106463021436, 0.11687539931905394, 0.0, 0.6242296655109074, 0.0, 0.12674254048211195, 0.1863173520225677, 0.21882400926150114, 0.07040246089714887, 0.15357499386767554, 0.0, 0.5121986478190869, 0.0, 0.10568443093039617, 0.09315867601128312, 0.13621428556787427, 0.03526725344584419, 0.08629696706884217, 0.0, 0.13598638799221782, 0.0, 0.0, 0.0705345068916878, 0.11114875584899055, 0.049844324025377855, 0.0498443240253778, 0.0, 0.3303717586290905], [0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.035267253445844, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.4896950515055158, 3.3255059105720943, 1.8871216729886218, 2.561189434509863, 0.6104835849454087, 0.923069317931281, 0.0, 1.247240129131313, 0.0, 0.5096519732428465, 0.2485236935314869, 0.41701637803238145, 0.24120856130395588, 0.11114875584899035, 0.0, 0.20161273688490633, 0.0, 0.15764126922487304, 0.0862969670688437, 0.03526725344584391, 0.2112073826914461, 0.07040246089714881, 0.0, 0.08611706908901777, 0.0, 0.10550819217920371, 0.09953295742310311, 0.10580176033753397, 0.0, 0.04984432402537837, 0.0, 0.3230857457411664, 0.0, 0.06100846183768802, 0.0788206346124368, 0.07882063461243631, 0.04984432402537836, 0.28852982231780017, 0.0, 0.03526725344584386, 0.0, 0.0, 0.03526725344584399, 0.04984432402537867, 0.07053450689168773, 0.07053450689168833, 0.0, 0.0, 0.0, 0.049844324025377876, 0.03526725344584426, 0.09315867601128386, 0.0, 0.07882063461243541, 0.0, 0.0, 0.0, 0.03526725344584408, 0.0, 0.0, 0.0, 0.03526725344584417, 0.0, 0.10550819217920301], [0.1270846921973476, 1.9206646903364448, 1.6945075106891834, 1.9291588864507037, 0.5562096106810701, 0.5663281144968402, 0.0, 0.7128423894381034, 0.0, 0.11671605991392124, 0.18983829662633858, 0.48156768273402656, 0.11114875584898949, 0.16868591470183852, 0.0, 0.2382912214008719, 0.0, 0.11148312237775929, 0.049844324025377834, 0.04984432402537813, 0.0, 0.0, 0.0, 0.11687539931905296, 0.0, 0.04984432402537806, 0.0, 0.0, 0.0, 0.11148312237775886, 0.0, 0.11148312237775918, 0.0, 0.035267253445844166, 0.035267253445844006, 0.04984432402537845, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.035267253445844006, 0.0, 0.0, 0.0, 0.03526725344584423, 0.0, 0.0, 0.03526725344584419, 0.0, 0.0, 0.0, 0.0, 0.04984432402537849], [0.8879281585710084, 2.2856342079966128, 1.801269885163065, 4.059307859862757, 0.6102523685844544, 0.7421163856103026, 0.0, 1.2030609829080134, 0.0, 0.4192306890890823, 0.18285583903340205, 0.9950038730376165, 0.3108589175095745, 0.18613414088700717, 0.0, 0.3456772324229625, 0.0, 0.03526725344584399, 0.07882063461243553, 0.2480239721320208, 0.21160352067506452, 0.1316638370115032, 0.0, 0.160903191843958, 0.0, 0.0931586760112831, 0.0, 0.1961622078587494, 0.14536794364889488, 0.08629696706884285, 0.0, 0.1492007223178497, 0.0, 0.09315867601128343, 0.0, 0.10568443093039416, 0.0, 0.0, 0.0, 0.03526725344584417, 0.0, 0.0, 0.0, 0.16132672335197967, 0.0, 0.03526725344584425, 0.0, 0.10580176033753164, 0.0, 0.0, 0.03526725344584417, 0.03526725344584425, 0.03526725344584419, 0.0, 0.0, 0.08629696706884395, 0.0, 0.07882063461243585, 0.0, 0.0, 0.0, 0.0, 0.0, 0.08611706908901762], [0.09953295742310325, 1.4834708573047934, 0.9823909550073742, 1.2881011251535857, 0.42219075155551855, 1.1016406369062917, 0.0, 0.6506965505108849, 0.035267253445844, 0.3998537283987718, 0.17931887345964864, 0.15341333593459056, 0.22554573381679363, 0.07882063461243645, 0.0, 0.086296967068843, 0.0, 0.1410690137833756, 0.06100846183768784, 0.12708469219734697, 0.03526725344584389, 0.0, 0.0, 0.03526725344584407, 0.0, 0.0, 0.0, 0.0, 0.07882063461243635, 0.0, 0.0, 0.06100846183768841, 0.0, 0.035267253445844055, 0.0, 0.0, 0.0, 0.0, 0.0, 0.11148312237775973, 0.0, 0.03526725344584391, 0.03526725344584419, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.03526725344584416, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.035267253445844166, 0.0, 0.03526725344584406], [0.3784738003113154, 1.7953340195064404, 1.0414637638293092, 1.3825126356947457, 0.3310564093578771, 0.8450754776983171, 0.0, 0.4883662906232824, 0.0, 0.14920072231784717, 0.19249918023974963, 0.21995503635527222, 0.0610084618376882, 0.2821380275667512, 0.0, 0.035267253445844186, 0.0, 0.03526725344584407, 0.0, 0.0, 0.03526725344584419, 0.04984432402537871, 0.0, 0.035267253445844075, 0.0, 0.0, 0.0, 0.07882063461243533, 0.03526725344584411, 0.14536794364889521, 0.0, 0.035267253445844, 0.0, 0.14536794364889521, 0.0, 0.0, 0.0, 0.0, 0.0, 0.03526725344584411, 0.0, 0.03526725344584416, 0.03526725344584402, 0.0, 0.0, 0.035267253445844006, 0.0, 0.0, 0.0, 0.035267253445844, 0.03526725344584404, 0.0, 0.035267253445844006, 0.0, 0.0, 0.0705345068916885, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.049844324025378146], [0.0, 0.07053450689168829, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.035267253445844166, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.03526725344584419, 1.9082609148330942, 1.645042765943019, 3.5596999807416085, 0.8502658807553721, 0.8769334177246595, 0.0, 2.7806364784728186, 0.0, 0.2503825725900313, 0.23019412422188767, 0.34378777998943816, 0.15321102365359715, 0.16148045939482353, 0.0, 0.5202797428561505, 0.0, 0.10568443093039556, 0.03526725344584411, 0.14506892023336015, 0.0, 0.1535749938676759, 0.0, 0.13621428556787418, 0.0, 0.093158676011283, 0.03526725344584406, 0.03526725344584423, 0.03526725344584394, 0.16148045939482347, 0.0, 0.30518462906583993, 0.0, 0.04984432402537824, 0.03526725344584396, 0.0, 0.035267253445843985, 0.10580176033753151, 0.0, 0.07882063461243655, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0705345068916878, 0.0, 0.22568321141935258, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.12693816867568397, 0.0, 0.03526725344584419, 0.0, 0.0, 0.0, 0.0, 0.0, 0.049844324025378146], [0.0, 0.0, 0.03526725344584406, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.07053450689168832, 1.3847319384421342, 0.6826703307425074, 1.067396755818729, 0.3837435482682072, 0.4637077898358893, 0.03526725344584393, 0.3667533886955593, 0.0, 0.3242978994722724, 0.09315867601128303, 0.1797852881565914, 0.035267253445844124, 0.07882063461243556, 0.0, 0.14953297207613503, 0.0, 0.14953297207613514, 0.07053450689168782, 0.0, 0.0, 0.0, 0.0, 0.07053450689168832, 0.0, 0.03526725344584384, 0.0, 0.0, 0.0, 0.0, 0.0, 0.04984432402537776, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0352672534458441, 0.0, 0.0, 0.035267253445843846, 0.0, 0.0, 0.0, 0.0, 0.03526725344584405, 0.0, 0.0, 0.0, 0.0, 0.0352672534458439], [0.035267253445844256, 0.7222248434137256, 0.6512016276906024, 0.7544644595577332, 0.09295869293410515, 0.22150076890975368, 0.0, 0.26040204920186233, 0.0, 0.11134392501747062, 0.0862969670688434, 0.0, 0.0, 0.0, 0.0, 0.03526725344584411, 0.0, 0.0, 0.0, 0.1058017603375333, 0.07882063461243631, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.03526725344584384, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.03526725344584423, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.03526725344584389, 0.0, 0.0, 0.0, 0.03526725344584415], [0.5375182489648086, 1.081490069960067, 0.9991008800479312, 1.457963962535131, 0.34540794344486314, 0.4477060985422264, 0.0, 0.7065160075870341, 0.0, 0.17591360903495365, 0.17950904055170688, 0.25112474170893934, 0.0, 0.049844324025378264, 0.0, 0.0705345068916878, 0.0, 0.0, 0.03526725344584394, 0.11134392501747001, 0.0, 0.07882063461243619, 0.0, 0.04984432402537859, 0.0, 0.0, 0.0, 0.035267253445844235, 0.0, 0.035267253445843846, 0.0, 0.0, 0.0, 0.03526725344584391, 0.0, 0.04984432402537847, 0.0, 0.035267253445844055, 0.0, 0.0, 0.0, 0.0, 0.0, 0.049844324025378174, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.03526725344584405], [0.0, 0.9967806879392012, 0.5242824562264862, 0.7048611874942385, 0.2601398714280752, 0.2711160947356388, 0.0, 0.2220601858100623, 0.0, 0.17259393413768642, 0.06100846183768819, 0.07882063461243569, 0.14536794364889477, 0.035267253445844235, 0.0, 0.03526725344584423, 0.0, 0.0, 0.0996886480507569, 0.035267253445843846, 0.09968864805075693, 0.07053450689168782, 0.0, 0.035267253445843944, 0.0, 0.0, 0.0, 0.0, 0.0, 0.03526725344584422, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.03526725344584419], [0.2565440277854765, 0.9070175438570212, 0.6509205481874648, 0.7124550306544375, 0.2738537045298144, 0.31206886765491826, 0.0, 0.3648753181834923, 0.0, 0.11134392501746977, 0.03526725344584421, 0.08629696706884356, 0.07882063461243598, 0.14536794364889521, 0.0, 0.07882063461243603, 0.0, 0.03526725344584404, 0.03526725344584384, 0.07053450689168782, 0.07053450689168782, 0.035267253445844256, 0.0, 0.0, 0.0, 0.0, 0.0, 0.03526725344584418, 0.0, 0.035267253445843826, 0.0, 0.03526725344584395, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.03526725344584415, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.03526725344584401, 1.085254912820109, 0.8651844557832804, 1.7615922645009436, 0.4068018738819371, 0.5464005171597189, 0.0, 1.0462328651317343, 0.0, 0.21026540778823294, 0.30699847581939455, 0.11671605991392046, 0.1993772961015137, 0.09953295742310303, 0.0, 0.29676504232339324, 0.0, 0.0, 0.03526725344584394, 0.0, 0.0, 0.03526725344584395, 0.0, 0.16886968849498363, 0.0, 0.0, 0.0, 0.0, 0.10580176033753151, 0.03526725344584402, 0.0, 0.03526725344584385, 0.0, 0.0, 0.0, 0.0, 0.03526725344584385, 0.0, 0.0, 0.035267253445843846, 0.0, 0.035267253445844055, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0498443240253786], [0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.03526725344584384, 0.6723236758014889, 0.421830611405086, 0.602804047492698, 0.21936197425475323, 0.3954741484748924, 0.0, 0.2714248114734818, 0.0, 0.14080492179429757, 0.09968864805075615, 0.21160352067506322, 0.06100846183768854, 0.035267253445844006, 0.0, 0.10580176033753158, 0.0, 0.0, 0.0, 0.0, 0.0, 0.03526725344584419, 0.0, 0.03526725344584419, 0.0, 0.0, 0.0, 0.035267253445843985, 0.0, 0.03526725344584393, 0.0, 0.03526725344584424, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.03526725344584427, 0.0, 0.03526725344584391, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.07053450689168825, 0.3540068240020386, 0.3381202853201767, 0.4850012838037022, 0.19886325557498574, 0.140606527285403, 0.0, 0.19886325557498588, 0.0, 0.27715238404366227, 0.07882063461243652, 0.03526725344584402, 0.0, 0.0, 0.0, 0.14536794364889521, 0.0, 0.0, 0.0, 0.03526725344584394, 0.0, 0.035267253445843964, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.3972583220398915, 0.6226151910334707, 0.41886800390275897, 1.0108413594767087, 0.2848568208032502, 0.36113282065740643, 0.0, 0.22150076890975764, 0.0, 0.33562048161107094, 0.03526725344584413, 0.07882063461243559, 0.0, 0.035267253445844006, 0.0, 0.0788206346124354, 0.0, 0.0, 0.0, 0.0, 0.07053450689168832, 0.0, 0.0, 0.09968864805075714, 0.0, 0.0, 0.0, 0.0, 0.0, 0.04984432402537858, 0.0, 0.0, 0.0, 0.0, 0.0, 0.035267253445843985, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.03526725344584423, 0.0, 0.0, 0.0352672534458441, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.392652375191469, 0.12649757979606965, 0.5688146222788149, 0.18591738586820974, 0.16505203903612162, 0.0, 0.3448642377219643, 0.0, 0.1576412692248712, 0.22296624475551793, 0.06100846183768829, 0.09968864805075713, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.04984432402537858, 0.03526725344584383, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.07882063461243573, 0.3579841864799267, 0.30657890269881094, 0.2994546142200476, 0.11134392501747144, 0.226738996961806, 0.0, 0.3581877403997085, 0.0, 0.21683766852786868, 0.035267253445844075, 0.12183885238988858, 0.07053450689168768, 0.035267253445843944, 0.0, 0.07882063461243599, 0.0, 0.04984432402537775, 0.0, 0.1410690137833756, 0.0, 0.07053450689168853, 0.0, 0.0705345068916878, 0.0, 0.0, 0.03526725344584394, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0352672534458441, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.03526725344584392, 0.0, 0.0, 0.0, 0.0, 0.0, 0.03526725344584419], [0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.5841487212116812, 0.5372065571572824, 1.1857621446559805, 0.3215460419964512, 0.5062538382715561, 0.0, 0.6177338990557453, 0.0, 0.06100846183768857, 0.12201692367537662, 0.22759917870437524, 0.07866307196689262, 0.09315867601128285, 0.0, 0.1793188734596478, 0.0, 0.04984432402537853, 0.035267253445844, 0.049844324025377924, 0.07053450689168832, 0.0705345068916878, 0.0, 0.1453679436488957, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0705345068916883, 0.0, 0.03526725344584415, 0.0, 0.0, 0.0, 0.03526725344584385, 0.0, 0.03526725344584383, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.03526725344584416], [0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.07053450689168826, 0.4633096295206717, 0.3484566005752484, 0.2598535576242571, 0.08629696706884268, 0.10568443093039691, 0.0, 0.12674254048211195, 0.0, 0.07882063461243574, 0.04984432402537813, 0.07053450689168844, 0.03526725344584396, 0.10580176033753227, 0.0, 0.1318286375872456, 0.0, 0.0705345068916881, 0.0, 0.0, 0.0, 0.0, 0.0, 0.21160352067506397, 0.0, 0.035267253445844214, 0.0, 0.0, 0.0, 0.0, 0.0, 0.035267253445843985, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.03526725344584415, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.03526725344584414, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.22803485378865374, 0.2081452793601598, 0.2981830830649509, 0.10580176033753366, 0.10568443093039637, 0.0, 0.08629696706884259, 0.0, 0.03526725344584389, 0.0, 0.0, 0.0, 0.0, 0.0, 0.07053450689168832, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.4648301662229989, 0.3741092406171576, 0.2825170498627747, 0.6810213304722661, 0.11687539931905319, 0.09315867601128223, 0.0, 0.2604020492018654, 0.0, 0.0, 0.07882063461243612, 0.03526725344584425, 0.0, 0.0, 0.0, 0.07053450689168854, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.03526725344584412, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.035267253445844235, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.03526725344584416, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.06100846183768855, 0.03526725344584395, 0.09315867601128307, 0.03526725344584416, 0.09968864805075678, 0.0, 0.07882063461243591, 0.0, 0.0, 0.0, 0.0, 0.0, 0.04984432402537786, 0.0, 0.17633626722922152, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0705345068916878, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0352672534458439], [0.0, 0.33366014333491806, 0.15341333593459064, 0.23887624123781437, 0.035267253445843944, 0.03526725344584383, 0.0, 0.08611706908901763, 0.0, 0.11148312237775884, 0.0, 0.03526725344584421, 0.035267253445843944, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.03526725344584417, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.035267253445843944, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.03526725344584419, 0.1650520390361216, 0.22759917870437557, 0.7081822902144591, 0.08629696706884368, 0.3921741740709671, 0.0, 0.28306545679603595, 0.0, 0.07882063461243524, 0.0, 0.03526725344584418, 0.0, 0.0, 0.0, 0.1410690137833769, 0.0, 0.0, 0.0, 0.03526725344584419, 0.0, 0.0, 0.0, 0.03526725344584417, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.03526725344584394, 0.0, 0.0, 0.0, 0.0], [0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.07882063461243617, 0.12708469219734675, 0.11114875584899023, 0.2173091951010616, 0.035267253445844166, 0.0, 0.08629696706884256, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.035267253445844235, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.10568443093039584, 0.035267253445844256, 0.1793188734596477, 0.0, 0.035267253445844166, 0.0, 0.0, 0.0, 0.10580176033753151, 0.0, 0.0, 0.07053450689168789, 0.035267253445843944, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.03526725344584399, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.035267253445844235, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.14080492179429754, 0.12201692367537707, 0.11148312237776047, 0.3248235119367309, 0.0, 0.10550819217920367, 0.0, 0.07040246089714884, 0.0, 0.035267253445844, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.07053450689168836, 0.0, 0.0, 0.0, 0.0, 0.1410690137833756, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0352672534458439, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.08629696706884205, 0.049844324025378604, 0.04984432402537786, 0.03526725344584419, 0.0, 0.0, 0.07882063461243627, 0.0, 0.0, 0.0, 0.0, 0.14106901378337577, 0.035267253445843944, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.035267253445844166, 0.03526725344584395, 0.11687539931905308, 0.0, 0.0, 0.0, 0.15764126922487198, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.03526725344584424, 0.0, 0.0705345068916878, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.03526725344584405, 0.0, 0.0, 0.0, 0.0], [0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.08629696706884253, 0.15341333593459072, 0.1980662052510194, 0.07882063461243535, 0.07053450689168839, 0.0, 0.5216104560889827, 0.0, 0.03526725344584385, 0.0, 0.0, 0.0, 0.0, 0.0, 0.09968864805075558, 0.0, 0.0, 0.0, 0.03526725344584417, 0.07053450689168789, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.03526725344584419], [0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.0, 0.07882063461243621, 0.07882063461243533, 0.0, 0.08629696706884211, 0.0, 0.07866307196689305, 0.0, 0.03526725344584416, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.0352672534458441, 0.0705345068916883, 0.1318286375872472, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0705345068916878, 0.0, 0.0, 0.03526725344584419, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.07053450689168804, 0.12693816867568397, 0.10550819217920135, 0.06100846183768903, 0.03526725344584425, 0.0, 0.15764126922487065, 0.0, 0.0, 0.0, 0.0705345068916885, 0.0, 0.0, 0.0, 0.0, 0.0, 0.035267253445844166, 0.0, 0.0, 0.0, 0.0, 0.0, 0.03526725344584415, 0.0, 0.0, 0.0, 0.035267253445844235, 0.0, 0.0, 0.0, 0.0, 0.0, 0.035267253445844006, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.07053450689168839, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.03526725344584419, 0.0, 0.04984432402537808, 0.04984432402537803, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.03526725344584425, 0.0, 0.03526725344584418, 0.0, 0.0, 0.0, 0.0788206346124354, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.07053450689168834, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.03526725344584388, 0.04984432402537787, 0.19533825956355105, 0.0, 0.0, 0.0, 0.1863173520225676, 0.0, 0.03526725344584419, 0.0, 0.0, 0.0, 0.0, 0.0, 0.07053450689168766, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.03526725344584387, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.0, 0.0, 0.049844324025378084, 0.0, 0.035267253445844, 0.0, 0.03526725344584423, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.035267253445844, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.0, 0.0, 0.07882063461243571, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.035267253445843</t>
         </is>
       </c>
     </row>
@@ -678,69 +678,69 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>75.99939999999998</v>
+        <v>70.2235</v>
       </c>
       <c r="C4" t="n">
-        <v>12.5</v>
+        <v>12.59</v>
       </c>
       <c r="D4" t="n">
-        <v>3.3113</v>
+        <v>3.412100000000001</v>
       </c>
       <c r="E4" t="n">
-        <v>20.45</v>
+        <v>23.31</v>
       </c>
       <c r="F4" t="n">
-        <v>5.7482</v>
+        <v>5.9526</v>
       </c>
       <c r="G4" t="n">
-        <v>0.0173</v>
+        <v>0.0103</v>
       </c>
       <c r="H4" t="n">
-        <v>2.3153</v>
+        <v>2.2885</v>
       </c>
       <c r="I4" t="n">
-        <v>6.72</v>
+        <v>3.69</v>
       </c>
       <c r="J4" t="n">
-        <v>321.77</v>
+        <v>322.81</v>
       </c>
       <c r="K4" t="n">
-        <v>5.797600000000001</v>
+        <v>6.128800000000001</v>
       </c>
       <c r="L4" t="n">
-        <v>2.8849</v>
+        <v>2.7316</v>
       </c>
       <c r="M4" t="n">
-        <v>4.622</v>
+        <v>4.443200000000001</v>
       </c>
       <c r="N4" t="inlineStr">
         <is>
-          <t>[75.53, 22.77, 119.47, 47.45, 12.07, 20.43, 0.33, 13.02, 2.48, 3.52, 1.33, 0.16, 1.77, 0.07, 0.12, 0.12, 0.02, 0.06, 0.0, 0.03, 0.0, 0.0, 0.01, 0.0, 0.0, 0.0, 0.0, 0.0, 0.01, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0]</t>
+          <t>[80.2, 25.5, 116.81, 44.97, 11.1, 20.04, 0.19, 12.79, 2.7, 3.26, 1.2, 0.21, 2.05, 0.04, 0.29, 0.08, 0.03, 0.02, 0.01, 0.03, 0.01, 0.02, 0.0, 0.0, 0.05, 0.0, 0.02, 0.0, 0.0, 0.01, 0.0, 0.01, 0.0, 0.01, 0.0, 0.01, 0.04, 0.01, 0.01, 0.03, 0.0, 0.04, 0.0, 0.01, 0.01, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0]</t>
         </is>
       </c>
       <c r="O4" t="inlineStr">
         <is>
-          <t>[61.18, 1.32, 59.89, 0.93, 60.74, 10.7, 0.87, 48.21, 1.96, 54.49, 1.64, 19.84]</t>
+          <t>[61.63, 0.44, 55.03, 0.44, 62.81, 13.98, 0.65, 50.78, 1.16, 53.72, 1.0, 21.17]</t>
         </is>
       </c>
       <c r="P4" t="inlineStr">
         <is>
-          <t>[9.16, 54.74, 160.06, 22.13, 40.49, 3.23, 8.7, 1.87, 6.33, 0.98, 3.44, 0.64, 2.86, 0.53, 2.01, 0.29, 2.37, 0.12, 0.6, 0.08, 0.25, 0.05, 0.1, 0.01, 0.08, 0.0, 0.06, 0.0, 0.04, 0.0, 0.02, 0.0]</t>
+          <t>[5.2, 73.44, 161.23, 17.0, 34.5, 2.73, 8.46, 1.58, 4.66, 0.83, 2.85, 0.52, 2.42, 0.49, 1.72, 0.35, 1.67, 0.17, 0.56, 0.17, 0.53, 0.11, 0.43, 0.05, 0.19, 0.01, 0.08, 0.03, 0.02, 0.0, 0.01, 0.0]</t>
         </is>
       </c>
       <c r="Q4" t="inlineStr">
         <is>
-          <t>[2.59, 105.34, 55.83, 77.02, 14.36, 19.38, 0.0, 20.93, 0.0, 4.42, 1.76, 3.79, 1.71, 1.88, 0.0, 3.85, 0.0, 1.06, 0.56, 1.31, 0.47, 0.75, 0.0, 1.45, 0.0, 0.43, 0.19, 0.38, 0.17, 0.2, 0.0, 0.45, 0.01, 0.13, 0.04, 0.19, 0.04, 0.08, 0.0, 0.1, 0.0, 0.02, 0.01, 0.03, 0.02, 0.0, 0.0, 0.03, 0.0, 0.02, 0.0, 0.06, 0.01, 0.0, 0.0, 0.02, 0.0, 0.01, 0.0, 0.0, 0.0, 0.01, 0.0, 0.2]</t>
+          <t>[7.41, 124.26, 38.27, 81.25, 10.53, 17.38, 0.0, 17.99, 0.0, 4.26, 1.78, 4.43, 1.45, 1.53, 0.01, 3.49, 0.0, 1.11, 0.43, 1.33, 0.48, 0.58, 0.0, 1.33, 0.0, 0.34, 0.18, 0.52, 0.2, 0.28, 0.0, 0.38, 0.0, 0.15, 0.06, 0.17, 0.05, 0.02, 0.0, 0.2, 0.0, 0.02, 0.05, 0.06, 0.02, 0.02, 0.0, 0.07, 0.0, 0.01, 0.03, 0.03, 0.0, 0.02, 0.0, 0.08, 0.0, 0.01, 0.0, 0.01, 0.0, 0.0, 0.0, 0.15]</t>
         </is>
       </c>
       <c r="R4" t="inlineStr">
         <is>
-          <t>[[15.41, 0.05, 17.12, 0.09, 4.95, 0.7, 0.02, 3.67, 0.03, 11.12, 0.14, 7.72], [0.04, 0.37, 0.11, 0.23, 0.03, 0.11, 0.01, 0.01, 0.09, 0.05, 0.22, 0.04], [17.82, 0.08, 14.4, 0.07, 18.94, 0.7, 0.07, 3.3, 0.01, 2.57, 0.06, 1.68], [0.06, 0.27, 0.11, 0.21, 0.01, 0.12, 0.0, 0.02, 0.06, 0.01, 0.04, 0.01], [5.46, 0.03, 20.66, 0.0, 13.46, 3.51, 0.22, 11.34, 0.06, 4.94, 0.03, 0.95], [0.45, 0.04, 0.61, 0.18, 3.92, 2.91, 0.06, 1.68, 0.27, 0.31, 0.1, 0.08], [0.01, 0.03, 0.07, 0.01, 0.29, 0.04, 0.15, 0.07, 0.04, 0.09, 0.0, 0.06], [3.53, 0.0, 3.33, 0.01, 12.01, 1.86, 0.27, 11.29, 0.04, 14.77, 0.02, 0.9], [0.08, 0.17, 0.02, 0.04, 0.07, 0.23, 0.01, 0.01, 0.74, 0.1, 0.41, 0.06], [11.39, 0.04, 2.6, 0.01, 5.93, 0.29, 0.04, 14.79, 0.09, 14.32, 0.07, 4.76], [0.12, 0.18, 0.05, 0.04, 0.04, 0.12, 0.0, 0.02, 0.44, 0.06, 0.52, 0.05], [6.49, 0.06, 0.8, 0.04, 0.79, 0.09, 0.02, 1.86, 0.09, 5.96, 0.03, 3.52]]</t>
+          <t>[[16.86, 0.01, 15.66, 0.02, 5.29, 0.68, 0.0, 4.3, 0.02, 10.83, 0.03, 7.79], [0.03, 0.06, 0.06, 0.06, 0.05, 0.01, 0.02, 0.01, 0.07, 0.0, 0.06, 0.01], [17.6, 0.03, 12.59, 0.0, 16.82, 0.82, 0.04, 2.81, 0.0, 2.26, 0.0, 1.96], [0.02, 0.05, 0.04, 0.06, 0.01, 0.07, 0.01, 0.01, 0.03, 0.01, 0.12, 0.01], [4.88, 0.04, 19.95, 0.04, 16.44, 4.91, 0.16, 10.24, 0.07, 4.58, 0.01, 1.3], [0.45, 0.05, 0.68, 0.11, 5.21, 4.4, 0.11, 2.4, 0.05, 0.37, 0.09, 0.01], [0.02, 0.02, 0.02, 0.0, 0.2, 0.07, 0.08, 0.06, 0.02, 0.12, 0.0, 0.03], [4.1, 0.01, 2.99, 0.0, 11.8, 2.29, 0.08, 13.66, 0.08, 14.74, 0.03, 0.76], [0.03, 0.04, 0.01, 0.07, 0.0, 0.1, 0.03, 0.06, 0.46, 0.1, 0.22, 0.04], [10.49, 0.01, 2.15, 0.02, 5.72, 0.43, 0.05, 15.25, 0.11, 13.68, 0.0, 5.59], [0.02, 0.11, 0.0, 0.06, 0.02, 0.1, 0.01, 0.0, 0.22, 0.02, 0.42, 0.01], [6.92, 0.01, 0.82, 0.0, 0.9, 0.08, 0.06, 1.84, 0.03, 6.82, 0.02, 3.63]]</t>
         </is>
       </c>
       <c r="S4" t="inlineStr">
         <is>
-          <t>[[0.06, 0.66, 0.34, 1.12, 0.06, 0.11, 0.0, 0.11, 0.0, 0.0, 0.0, 0.06, 0.0, 0.01, 0.0, 0.03, 0.0, 0.01, 0.0, 0.0, 0.0, 0.0, 0.0, 0.01, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.01, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.66, 57.43, 15.24, 14.28, 3.27, 5.7, 0.0, 3.13, 0.0, 1.44, 0.35, 0.81, 0.41, 0.56, 0.0, 0.67, 0.0, 0.19, 0.12, 0.14, 0.05, 0.09, 0.0, 0.12, 0.0, 0.06, 0.0, 0.02, 0.0, 0.02, 0.0, 0.06, 0.01, 0.03, 0.01, 0.02, 0.02, 0.03, 0.0, 0.0, 0.0, 0.01, 0.0, 0.0, 0.01, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.01, 0.0, 0.0], [0.15, 15.11, 20.2, 9.78, 2.77, 1.85, 0.0, 1.86, 0.0, 0.58, 0.31, 0.65, 0.22, 0.22, 0.0, 0.54, 0.0, 0.2, 0.16, 0.33, 0.06, 0.08, 0.0, 0.22, 0.0, 0.06, 0.06, 0.08, 0.03, 0.05, 0.0, 0.0, 0.0, 0.02, 0.0, 0.0, 0.0, 0.01, 0.0, 0.01, 0.0, 0.0, 0.0, 0.0, 0.01, 0.0, 0.0, 0.0, 0.0, 0.01, 0.0, 0.01, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [1.36, 13.66, 9.38, 31.68, 3.1, 3.95, 0.0, 6.35, 0.0, 1.11, 0.54, 1.1, 0.55, 0.42, 0.0, 1.21, 0.0, 0.33, 0.13, 0.32, 0.08, 0.25, 0.0, 0.38, 0.0, 0.15, 0.06, 0.1, 0.06, 0.08, 0.0, 0.18, 0.0, 0.02, 0.02, 0.08, 0.01, 0.01, 0.0, 0.03, 0.0, 0.01, 0.0, 0.01, 0.0, 0.0, 0.0, 0.01, 0.0, 0.0, 0.0, 0.01, 0.0, 0.0, 0.0, 0.01, 0.0, 0.01, 0.0, 0.0, 0.0, 0.0, 0.0, 0.08], [0.06, 2.76, 2.51, 3.49, 2.19, 0.95, 0.0, 0.94, 0.0, 0.23, 0.12, 0.19, 0.14, 0.1, 0.0, 0.2, 0.0, 0.08, 0.04, 0.05, 0.04, 0.04, 0.0, 0.04, 0.0, 0.03, 0.0, 0.01, 0.0, 0.01, 0.0, 0.04, 0.0, 0.02, 0.0, 0.0, 0.0, 0.0, 0.0, 0.01, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.02], [0.05, 5.1, 2.19, 3.97, 1.08, 3.51, 0.0, 1.52, 0.0, 0.34, 0.1, 0.2, 0.15, 0.25, 0.0, 0.15, 0.0, 0.11, 0.02, 0.11, 0.06, 0.05, 0.0, 0.13, 0.0, 0.05, 0.0, 0.03, 0.0, 0.03, 0.0, 0.03, 0.0, 0.01, 0.0, 0.01, 0.0, 0.01, 0.0, 0.02, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.01, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.01], [0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.03, 3.42, 1.89, 5.36, 0.71, 1.32, 0.0, 4.82, 0.0, 0.33, 0.12, 0.45, 0.15, 0.14, 0.0, 0.63, 0.0, 0.05, 0.05, 0.31, 0.09, 0.1, 0.0, 0.35, 0.0, 0.06, 0.04, 0.09, 0.04, 0.0, 0.0, 0.08, 0.0, 0.03, 0.0, 0.04, 0.0, 0.01, 0.0, 0.03, 0.0, 0.0, 0.0, 0.01, 0.0, 0.0, 0.0, 0.01, 0.0, 0.01, 0.0, 0.04, 0.0, 0.0, 0.0, 0.01, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.03], [0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.01, 1.66, 0.53, 0.97, 0.18, 0.46, 0.0, 0.3, 0.0, 0.12, 0.05, 0.04, 0.01, 0.02, 0.0, 0.02, 0.0, 0.0, 0.01, 0.0, 0.0, 0.01, 0.0, 0.0, 0.0, 0.01, 0.0, 0.0, 0.0, 0.0, 0.0, 0.01, 0.0, 0.0, 0.0, 0.01, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.02, 0.51, 0.4, 0.39, 0.11, 0.07, 0.0, 0.11, 0.0, 0.01, 0.02, 0.01, 0.01, 0.0, 0.0, 0.04, 0.0, 0.01, 0.0, 0.0, 0.01, 0.02, 0.0, 0.01, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.01, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.07, 0.96, 0.48, 1.27, 0.17, 0.22, 0.0, 0.29, 0.0, 0.04, 0.01, 0.05, 0.02, 0.01, 0.0, 0.07, 0.0, 0.02, 0.0, 0.01, 0.01, 0.03, 0.0, 0.03, 0.0, 0.0, 0.02, 0.0, 0.0, 0.01, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.02, 0.48, 0.26, 0.32, 0.21, 0.15, 0.0, 0.1, 0.0, 0.02, 0.03, 0.03, 0.0, 0.03, 0.0, 0.01, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.01, 0.0, 0.01, 0.0, 0.0, 0.0, 0.0, 0.0, 0.01, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.01, 0.61, 0.24, 0.45, 0.07, 0.19, 0.0, 0.11, 0.0, 0.03, 0.01, 0.01, 0.02, 0.01, 0.0, 0.01, 0.0, 0.0, 0.01, 0.02, 0.02, 0.02, 0.0, 0.01, 0.0, 0.0, 0.0, 0.01, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.01, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.01, 0.78, 0.53, 1.32, 0.08, 0.25, 0.0, 0.4, 0.0, 0.05, 0.02, 0.08, 0.02, 0.01, 0.0, 0.14, 0.0, 0.04, 0.0, 0.01, 0.01, 0.01, 0.0, 0.05, 0.0, 0.0, 0.0, 0.01, 0.02, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.01, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.01, 0.31, 0.21, 0.26, 0.04, 0.05, 0.0, 0.07, 0.0, 0.01, 0.01, 0.0, 0.0, 0.01, 0.0, 0.02, 0.0, 0.01, 0.0, 0.0, 0.0, 0.01, 0.0, 0.03, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.01, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.13, 0.15, 0.16, 0.01, 0.02, 0.0, 0.04, 0.0, 0.0, 0.01, 0.01, 0.0, 0.01, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.01, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.01, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.01, 0.28, 0.24, 0.36, 0.04, 0.11, 0.0, 0.17, 0.0, 0.01, 0.01, 0.01, 0.0, 0.01, 0.0, 0.02, 0.0, 0.0, 0.0, 0.0, 0.0, 0.01, 0.0, 0.01, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.01, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.01, 0.11, 0.1, 0.1, 0.04, 0.03, 0.0, 0.03, 0.0, 0.0, 0.01, 0.01, 0.0, 0.0, 0.0, 0.01, 0.0, 0.0, 0.0, 0.0, 0.01, 0.0, 0.0, 0.01, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.01, 0.18, 0.1, 0.22, 0.03, 0.07, 0.0, 0.07, 0.0, 0.02, 0.0, 0.02, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.01, 0.0, 0.0, 0.01, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.01, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.01, 0.24, 0.27, 0.45, 0.08, 0.07, 0.0, 0.13, 0.0, 0.02, 0.0, 0.01, 0.0, 0.04, 0.0, 0.04, 0.0, 0.0, 0.01, 0.01, 0.0, 0.01, 0.0, 0.0, 0.0, 0.0, 0.0, 0.01, 0.02, 0.0, 0.0, 0.01, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.01], [0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.14, 0.12, 0.08, 0.0, 0.06, 0.0, 0.01, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.01, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.01, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.04, 0.03, 0.04, 0.01, 0.01, 0.0, 0.02, 0.0, 0.0, 0.01, 0.01, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.01, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.01, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.01, 0.04, 0.04, 0.15, 0.0, 0.04, 0.0, 0.06, 0.0, 0.0, 0.0, 0.01, 0.0, 0.01, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.02], [0.0, 0.03, 0.01, 0.08, 0.0, 0.02, 0.0, 0.01, 0.0, 0.01, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.01, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.02, 0.04, 0.04, 0.01, 0.03, 0.0, 0.02, 0.0, 0.0, 0.01, 0.01, 0.0, 0.01, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.01], [0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.07, 0.06, 0.1, 0.04, 0.05, 0.0, 0.05, 0.0, 0.02, 0.01, 0.0, 0.0, 0.0, 0.0, 0.03, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.02], [0.0, 0.01, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.04, 0.02, 0.03, 0.0, 0.0, 0.0, 0.03, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.01, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.02, 0.01, 0.0, 0.0, 0.0, 0.0, 0.01, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.04, 0.01, 0.07, 0.0, 0.02, 0.0, 0.04, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.01, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.0, 0.02, 0.02, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.01, 0.0, 0.06, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.01, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.02, 0.01, 0.02, 0.02, 0.0, 0.0, 0.02, 0.0, 0.0, 0.01, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.01, 0.0, 0.0, 0.0, 0.01, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.01, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.0, 0.0, 0.02, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.01, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.01, 0.01, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.02, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.01, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.01, 0.0, 0.01, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.0, 0.01, 0.02, 0.0, 0.0, 0.0, 0.02, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.01, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.0, 0.0, 0.0, 0.0, 0.01, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.0, 0.0, 0.01, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.01, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.01, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.01, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.01, 0.01, 0.01, 0.07, 0.02, 0.02, 0.0, 0.03, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.01, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.01, 0.0, 0.0, 0.0, 0.0, 0.0, 0.01, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0]]</t>
+          <t>[[0.08, 3.02, 1.1, 2.34, 0.06, 0.14, 0.0, 0.4, 0.0, 0.02, 0.01, 0.09, 0.0, 0.01, 0.0, 0.06, 0.0, 0.0, 0.0, 0.03, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.01, 0.0, 0.0, 0.0, 0.0, 0.0, 0.01, 0.0, 0.02, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [3.48, 71.15, 13.2, 17.72, 2.96, 6.26, 0.0, 3.04, 0.0, 1.55, 0.43, 0.81, 0.31, 0.55, 0.0, 0.75, 0.0, 0.36, 0.16, 0.16, 0.05, 0.22, 0.0, 0.22, 0.0, 0.05, 0.06, 0.06, 0.05, 0.05, 0.0, 0.1, 0.0, 0.04, 0.0, 0.01, 0.0, 0.01, 0.0, 0.0, 0.0, 0.0, 0.01, 0.01, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.01, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.11, 12.67, 8.08, 10.25, 1.32, 1.29, 0.0, 1.54, 0.0, 0.54, 0.3, 0.43, 0.2, 0.17, 0.01, 0.33, 0.0, 0.12, 0.1, 0.12, 0.07, 0.08, 0.0, 0.19, 0.0, 0.01, 0.01, 0.03, 0.0, 0.05, 0.0, 0.06, 0.0, 0.01, 0.0, 0.01, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.01, 0.01, 0.0, 0.0, 0.0, 0.0, 0.0, 0.01, 0.0, 0.01, 0.0, 0.0, 0.0, 0.01, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.02], [3.05, 16.34, 8.77, 31.6, 2.64, 3.43, 0.0, 6.56, 0.0, 1.14, 0.56, 1.73, 0.43, 0.46, 0.0, 1.34, 0.0, 0.39, 0.1, 0.56, 0.12, 0.13, 0.0, 0.4, 0.0, 0.22, 0.07, 0.2, 0.12, 0.13, 0.0, 0.14, 0.0, 0.03, 0.0, 0.07, 0.02, 0.0, 0.0, 0.06, 0.0, 0.0, 0.02, 0.03, 0.01, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.01, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.07], [0.14, 2.57, 1.23, 2.58, 1.36, 0.91, 0.0, 0.56, 0.0, 0.14, 0.06, 0.13, 0.12, 0.09, 0.0, 0.23, 0.0, 0.05, 0.0, 0.05, 0.06, 0.02, 0.0, 0.04, 0.0, 0.02, 0.01, 0.03, 0.0, 0.01, 0.0, 0.02, 0.0, 0.01, 0.0, 0.01, 0.0, 0.0, 0.0, 0.01, 0.0, 0.0, 0.0, 0.0, 0.01, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.01, 0.0, 0.0, 0.0, 0.0, 0.0, 0.01], [0.13, 5.56, 1.21, 3.36, 0.75, 2.91, 0.0, 1.24, 0.0, 0.4, 0.14, 0.33, 0.15, 0.14, 0.0, 0.27, 0.0, 0.11, 0.03, 0.1, 0.07, 0.1, 0.0, 0.12, 0.0, 0.01, 0.01, 0.03, 0.01, 0.01, 0.0, 0.03, 0.0, 0.04, 0.03, 0.01, 0.01, 0.01, 0.0, 0.01, 0.0, 0.01, 0.0, 0.0, 0.0, 0.0, 0.0, 0.01, 0.0, 0.0, 0.01, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.06, 3.79, 1.41, 5.34, 0.41, 0.92, 0.0, 3.12, 0.0, 0.21, 0.14, 0.62, 0.2, 0.02, 0.0, 0.31, 0.0, 0.05, 0.02, 0.26, 0.11, 0.03, 0.0, 0.27, 0.0, 0.02, 0.02, 0.14, 0.0, 0.03, 0.0, 0.03, 0.0, 0.0, 0.01, 0.04, 0.01, 0.0, 0.0, 0.11, 0.0, 0.01, 0.01, 0.01, 0.0, 0.02, 0.0, 0.06, 0.0, 0.0, 0.0, 0.01, 0.0, 0.01, 0.0, 0.04, 0.0, 0.0, 0.0, 0.01, 0.0, 0.0, 0.0, 0.03], [0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.04, 2.11, 0.46, 0.85, 0.15, 0.22, 0.0, 0.26, 0.0, 0.04, 0.02, 0.04, 0.0, 0.01, 0.0, 0.01, 0.0, 0.02, 0.0, 0.01, 0.0, 0.0, 0.0, 0.01, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.01, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.01, 0.6, 0.31, 0.48, 0.09, 0.11, 0.0, 0.1, 0.0, 0.04, 0.01, 0.0, 0.0, 0.01, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.01, 0.0, 0.01, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.14, 1.2, 0.43, 1.72, 0.14, 0.25, 0.0, 0.3, 0.0, 0.06, 0.02, 0.05, 0.02, 0.01, 0.0, 0.04, 0.0, 0.0, 0.0, 0.02, 0.0, 0.0, 0.0, 0.02, 0.0, 0.0, 0.0, 0.0, 0.01, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.02, 0.48, 0.21, 0.39, 0.07, 0.15, 0.0, 0.05, 0.0, 0.04, 0.01, 0.01, 0.0, 0.0, 0.0, 0.01, 0.0, 0.0, 0.01, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.01, 0.67, 0.21, 0.33, 0.08, 0.09, 0.0, 0.07, 0.0, 0.01, 0.0, 0.01, 0.0, 0.0, 0.0, 0.01, 0.0, 0.0, 0.0, 0.01, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.01, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.0, 0.0, 0.01, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.02, 1.01, 0.3, 1.39, 0.24, 0.18, 0.0, 0.24, 0.0, 0.0, 0.01, 0.03, 0.0, 0.02, 0.0, 0.01, 0.0, 0.0, 0.01, 0.0, 0.0, 0.0, 0.0, 0.01, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.01, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.01], [0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.56, 0.08, 0.29, 0.02, 0.08, 0.0, 0.04, 0.0, 0.0, 0.01, 0.01, 0.01, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.01, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.01, 0.19, 0.08, 0.08, 0.03, 0.0, 0.0, 0.04, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.02, 0.43, 0.18, 0.5, 0.02, 0.03, 0.0, 0.1, 0.0, 0.01, 0.01, 0.0, 0.01, 0.0, 0.0, 0.01, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.01, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.01, 0.16, 0.1, 0.1, 0.01, 0.01, 0.0, 0.02, 0.0, 0.02, 0.01, 0.01, 0.0, 0.01, 0.0, 0.01, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.01, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.01, 0.27, 0.06, 0.11, 0.04, 0.01, 0.0, 0.02, 0.0, 0.02, 0.0, 0.01, 0.0, 0.01, 0.0, 0.01, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.01, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.03, 0.39, 0.15, 0.52, 0.03, 0.06, 0.0, 0.05, 0.0, 0.0, 0.01, 0.03, 0.0, 0.0, 0.0, 0.05, 0.0, 0.0, 0.0, 0.01, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.19, 0.04, 0.07, 0.0, 0.03, 0.0, 0.01, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.07, 0.02, 0.04, 0.0, 0.03, 0.0, 0.0, 0.0, 0.01, 0.0, 0.0, 0.0, 0.0, 0.0, 0.01, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.01, 0.15, 0.07, 0.21, 0.02, 0.02, 0.0, 0.0, 0.0, 0.0, 0.0, 0.03, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.01, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.06, 0.03, 0.05, 0.01, 0.02, 0.0, 0.0, 0.0, 0.0, 0.02, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.01], [0.0, 0.08, 0.05, 0.08, 0.01, 0.03, 0.0, 0.01, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.01, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.01, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.1, 0.07, 0.13, 0.0, 0.04, 0.0, 0.01, 0.0, 0.0, 0.0, 0.0, 0.0, 0.01, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.01, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.07, 0.02, 0.03, 0.01, 0.02, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.01, 0.02, 0.02, 0.0, 0.01, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.02, 0.01, 0.02, 0.06, 0.01, 0.0, 0.0, 0.02, 0.0, 0.0, 0.0, 0.01, 0.0, 0.0, 0.0, 0.01, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.01, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.0, 0.02, 0.0, 0.0, 0.0, 0.0, 0.02, 0.0, 0.0, 0.01, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.0, 0.01, 0.01, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.0, 0.07, 0.09, 0.0, 0.0, 0.0, 0.02, 0.0, 0.01, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.01, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.0, 0.0, 0.0, 0.01, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.01, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.01, 0.01, 0.02, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.01, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.01, 0.01, 0.02, 0.0, 0.01, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.01, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.01, 0.0, 0.0, 0.0, 0.0, 0.0, 0.01, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.01, 0.0, 0.01, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.0, 0.02, 0.0, 0.0, 0.01, 0.0, 0.02, 0.0, 0.0, 0.0, 0.02, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.0, 0.01, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.01, 0.0, 0.0, 0.0, 0.01, 0.0, 0.0, 0.0, 0.0, 0.0, 0.01, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.0, 0.01, 0.01, 0.0, 0.0, 0.0, 0.01, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.0, 0.0, 0.01, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.01, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.01, 0.0, 0.05, 0.0, 0.0, 0.0, 0.02, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.0, 0.0, 0.0, 0.0, 0.01, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.0, 0.0, 0.01, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.01, 0.0, 0.03, 0.03, 0.0, 0.0, 0.0, 0.04, 0.0, 0.0, 0.0, 0.01, 0.0, 0.0, 0.0, 0.01, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.01, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.01, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0]]</t>
         </is>
       </c>
     </row>
@@ -751,69 +751,69 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>3.723592303139536</v>
+        <v>7.451095271837557</v>
       </c>
       <c r="C5" t="n">
-        <v>2.958039891549808</v>
+        <v>3.040049341704834</v>
       </c>
       <c r="D5" t="n">
-        <v>0.472676750009983</v>
+        <v>0.5272595091603375</v>
       </c>
       <c r="E5" t="n">
-        <v>3.250769139757544</v>
+        <v>8.147017859315151</v>
       </c>
       <c r="F5" t="n">
-        <v>1.103751221969878</v>
+        <v>1.09447852422969</v>
       </c>
       <c r="G5" t="n">
-        <v>0.0221745349443906</v>
+        <v>0.02146881459233369</v>
       </c>
       <c r="H5" t="n">
-        <v>0.2306358818570952</v>
+        <v>0.2841069340934853</v>
       </c>
       <c r="I5" t="n">
-        <v>26.26026656376511</v>
+        <v>19.99684725150442</v>
       </c>
       <c r="J5" t="n">
-        <v>4.442645608193389</v>
+        <v>4.337499279538845</v>
       </c>
       <c r="K5" t="n">
-        <v>1.435550848977493</v>
+        <v>1.497056632195322</v>
       </c>
       <c r="L5" t="n">
-        <v>0.7140132981954888</v>
+        <v>0.6846352605584962</v>
       </c>
       <c r="M5" t="n">
-        <v>1.495017056758885</v>
+        <v>1.497861729266089</v>
       </c>
       <c r="N5" t="inlineStr">
         <is>
-          <t>[20.02970543967135, 21.073136928326544, 19.866783836343515, 16.41790181478742, 5.430018416175033, 5.420802523612164, 0.7078841713161829, 4.328925963792867, 1.9973983077994226, 2.601845498871906, 1.2251938622112017, 0.4630334761116095, 1.488992948270743, 0.3536947836765472, 0.3249615361854386, 0.35440090293338716, 0.13999999999999987, 0.23748684174075801, 0.0, 0.17058722109231972, 0.0, 0.0, 0.09949874371066199, 0.0, 0.0, 0.0, 0.0, 0.0, 0.09949874371066195, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0]</t>
+          <t>[21.292721761202813, 24.341939117498423, 18.21740651135611, 18.374142156846396, 5.08822169328342, 6.167527867792735, 0.503884907493765, 4.466083295237562, 1.8303005217723127, 2.4438494225299565, 1.3190905958272916, 0.475289385532646, 1.7628102563804193, 0.31368774282716244, 0.5881326381013043, 0.3059411708155671, 0.17058722109231972, 0.1399999999999999, 0.09949874371066193, 0.1705872210923198, 0.09949874371066196, 0.19899748742132387, 0.0, 0.0, 0.25980762113533223, 0.0, 0.1399999999999999, 0.0, 0.0, 0.09949874371066196, 0.0, 0.09949874371066193, 0.0, 0.09949874371066193, 0.0, 0.09949874371066193, 0.24166091947189108, 0.09949874371066193, 0.09949874371066196, 0.22158519806160307, 0.0, 0.24166091947189122, 0.0, 0.09949874371066193, 0.09949874371066193, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0]</t>
         </is>
       </c>
       <c r="O5" t="inlineStr">
         <is>
-          <t>[20.57638452206801, 5.599785710185708, 16.975214284361776, 3.8425382236225074, 15.147026110758508, 17.8266654200947, 4.797197098306462, 16.741143927462062, 8.2545987182903, 25.96670753099053, 8.93590510245044, 20.33702043073173]</t>
+          <t>[24.22133563617003, 3.0209932141598643, 15.740682958499605, 2.7579702681501113, 17.441728698727083, 22.15038600115131, 3.7878093933037253, 21.879021915981525, 6.438509144204112, 24.792773140574656, 7.398648525237565, 22.90373550318812]</t>
         </is>
       </c>
       <c r="P5" t="inlineStr">
         <is>
-          <t>[19.05503607973493, 60.83183705922417, 71.97427596023458, 26.960584192483665, 30.192878299360597, 3.781150618528704, 6.307931515164063, 2.567703253882737, 4.534434915179619, 1.3113351974228402, 3.0734996339677676, 1.118212859879548, 2.370738281632961, 0.8420807562223475, 1.9722829411623473, 0.6048966853934644, 2.377624865280475, 0.38157568056677843, 0.8944271909999152, 0.3059411708155667, 0.5545268253204708, 0.2598076211353319, 0.2999999999999998, 0.09949874371066199, 0.30594117081556715, 0.0, 0.2374868417407584, 0.0, 0.1959591794226542, 0.0, 0.13999999999999993, 0.0]</t>
+          <t>[11.517812292271483, 66.49049856934448, 61.35109697470781, 14.848568954616468, 30.578260251361588, 2.9388943499214126, 6.422491728293621, 2.0745119908065126, 3.547449788228157, 1.2574179893734616, 2.3932195887548646, 0.8541662601625051, 2.0008997975910736, 0.7415524256584962, 1.7893015397076026, 0.683739716558867, 1.7438749955200346, 0.4702127178203501, 0.8639444426582068, 0.47021271782035, 0.8538735269347567, 0.34336569426778807, 0.8515280382935136, 0.21794494717703367, 0.41701318923986086, 0.09949874371066195, 0.27129319932501084, 0.221585198061603, 0.13999999999999987, 0.0, 0.09949874371066195, 0.0]</t>
         </is>
       </c>
       <c r="Q5" t="inlineStr">
         <is>
-          <t>[6.9987070234436874, 80.03227099114457, 64.13174798802852, 63.46967464860681, 19.091631674636922, 21.579518066907795, 0.0, 25.418990931978396, 0.0, 3.906865751468816, 1.9855477833585369, 3.121842404734742, 2.021360927692034, 1.930181338631166, 0.0, 4.350574674683793, 0.0, 1.231421942308972, 0.7657675887630659, 1.7589485495602197, 0.9214662229295226, 1.0988630487917956, 0.0, 1.9410048943781668, 0.0, 0.7383088784512885, 0.4624932431938873, 0.8576712656956623, 0.5109794516416488, 0.4472135954999576, 0.0, 0.9205976319760985, 0.09949874371066195, 0.39127995093027684, 0.19595917942265403, 0.5602677931132581, 0.19595917942265403, 0.2712931993250109, 0.0, 0.3605551275463987, 0.0, 0.13999999999999993, 0.09949874371066195, 0.17058722109231977, 0.13999999999999987, 0.0, 0.0, 0.17058722109231983, 0.0, 0.13999999999999987, 0.0, 0.23748684174075826, 0.09949874371066195, 0.0, 0.0, 0.1399999999999999, 0.0, 0.09949874371066196, 0.0, 0.0, 0.0, 0.09949874371066196, 0.0, 0.7999999999999996]</t>
+          <t>[13.204616616926078, 83.5500592459395, 45.3186175870359, 60.74115161898069, 14.15447279131229, 22.205305672293733, 0.0, 21.484643352869508, 0.0, 4.360321089094244, 2.095614468360057, 5.030417477705006, 1.8781639970992945, 1.6398475538903, 0.09949874371066196, 3.8301305460780313, 0.0, 1.377642914546437, 0.7246378405796924, 1.5495483212859167, 0.8423775875461081, 0.8506468127254693, 0.0, 1.8442071467164411, 0.0, 0.6359245238233862, 0.5362835071116769, 0.9846826900072937, 0.5656854249492377, 0.5491812087098387, 0.0, 0.7717512552629895, 0.0, 0.49749371855331054, 0.23748684174075824, 0.6009159675029446, 0.25980762113533173, 0.13999999999999999, 0.0, 0.905538513813744, 0.0, 0.13999999999999987, 0.2179449471770336, 0.27640549922170454, 0.13999999999999993, 0.13999999999999985, 0.0, 0.2917190429162962, 0.0, 0.09949874371066195, 0.22158519806160334, 0.17058722109231975, 0.0, 0.13999999999999987, 0.0, 0.3370459909270539, 0.0, 0.09949874371066196, 0.0, 0.09949874371066199, 0.0, 0.0, 0.0, 0.8760707733967598]</t>
         </is>
       </c>
       <c r="R5" t="inlineStr">
         <is>
-          <t>[[11.20633303092497, 0.32787192621509953, 6.603453641845303, 0.3766961640367476, 2.6846787517317594, 1.3453624047073716, 0.1399999999999999, 2.9122328203630965, 0.17058722109231986, 6.7797935071799955, 0.7073895673530944, 7.0043986180114], [0.3136877428271622, 1.6226829634897897, 0.48774993593028826, 1.0183810681665268, 0.1705872210923199, 0.598247440445841, 0.09949874371066199, 0.09949874371066199, 0.4710626285325543, 0.25980762113533207, 1.5334927453366027, 0.19595917942265406], [7.847776755234567, 0.3655133376499408, 8.276472678623428, 0.3809199390948173, 7.644370477678329, 1.479864858694874, 0.38091993909481775, 2.1, 0.09949874371066199, 1.9557862868933307, 0.2764054992217046, 2.3701476747240884], [0.31048349392520036, 1.3773525329413678, 0.3973663297261107, 0.9412226091632097, 0.09949874371066196, 0.7386474125047756, 0.0, 0.13999999999999987, 0.3104834939252001, 0.09949874371066195, 0.2416609194718912, 0.09949874371066196], [3.1825147289525626, 0.1705872210923199, 8.036441998795238, 0.0, 7.247647894317163, 5.339466265461368, 1.3459569086712968, 6.373727323944758, 0.2764054992217046, 4.1275174136519395, 0.17058722109231966, 1.3143439428094918], [0.8411301920630363, 0.24166091947189153, 1.1652896635600958, 1.071260939267366, 5.677464222696607, 9.271564053599588, 0.27640549922170465, 2.7563744302978876, 1.287283962457391, 0.702780193232564, 0.4582575694955851, 0.30594117081556654], [0.09949874371066199, 0.1705872210923198, 0.45287967496896975, 0.09949874371066199, 2.108530293830276, 0.2416609194718912, 1.0523782589924582, 0.45287967496896975, 0.2416609194718912, 0.4710626285325546, 0.0, 0.41999999999999965], [2.609425224067553, 0.0, 2.054531576783379, 0.09949874371066197, 5.883017933000035, 2.810765020417041, 1.5802215034608287, 7.956500487023175, 0.1959591794226542, 8.095498749305072, 0.13999999999999987, 1.4035668847618201], [0.3655133376499407, 0.7355949972641196, 0.13999999999999987, 0.2416609194718912, 0.2917190429162961, 1.3405595846511262, 0.09949874371066196, 0.09949874371066196, 3.64587438072132, 0.41231056256176646, 2.227532266881894, 0.27640549922170476], [7.139880951388475, 0.2416609194718912, 2.293468988235943, 0.09949874371066196, 3.6830829477490736, 0.6526101439603892, 0.3136877428271623, 7.845119501957892, 0.3766961640367478, 14.230165143103578, 0.29171904291629613, 6.316834650360893], [0.7110555533852477, 1.0712609392673649, 0.25980762113533157, 0.2416609194718912, 0.2416609194718912, 0.7386474125047764, 0.0, 0.13999999999999987, 2.3122283624244377, 0.4199999999999991, 3.119230674381104, 0.32787192621509953], [7.621673044679888, 0.2764054992217046, 1.6370705543744888, 0.2416609194718912, 1.2352732491234477, 0.2861817604250835, 0.19899748742132392, 2.267245024253004, 0.3491418050019225, 6.488327981845552, 0.29849623113198565, 5.162325057568538]]</t>
+          <t>[[13.410458605133533, 0.09949874371066193, 7.030248928736449, 0.13999999999999996, 2.9164876135516162, 1.2874781551544872, 0.0, 3.7828560638755486, 0.19899748742132392, 7.100781647114633, 0.2215851980616034, 7.82725366907193], [0.29849623113198553, 0.5063595560468854, 0.34117444218464027, 0.4431703961232065, 0.4974937185533112, 0.09949874371066199, 0.19899748742132387, 0.09949874371066193, 0.43023249528597823, 0.0, 0.42000000000000026, 0.09949874371066193], [8.073413156775764, 0.2215851980616029, 7.547310779343861, 0.0, 6.790257727067507, 1.5451860729374964, 0.3136877428271622, 1.9732967338948293, 0.0, 2.0718108021728243, 0.0, 2.8702613121456366], [0.13999999999999993, 0.3570714214271424, 0.2799999999999997, 0.42000000000000026, 0.09949874371066199, 0.5339475629684998, 0.09949874371066193, 0.09949874371066199, 0.298496231131986, 0.09949874371066197, 1.0027960909377338, 0.09949874371066193], [2.676863836656621, 0.31368774282716216, 7.077252291673655, 0.19595917942265428, 10.194429851639569, 7.389309845986973, 1.1377170122662306, 6.819266822760349, 0.32419130154894654, 3.412271970403297, 0.09949874371066193, 1.7748239349298842], [0.8986100377805716, 0.4092676385936222, 1.1822013364905324, 0.7469270379361024, 7.890874476254206, 10.39615313469362, 0.5271622141238883, 3.8987177379235844, 0.3278719262150999, 0.7830070242341372, 0.6339558344238184, 0.09949874371066195], [0.13999999999999985, 0.19899748742132387, 0.1989974874213239, 0.0, 1.3564659966250514, 0.4528796749689693, 0.7025667228100114, 0.4199999999999996, 0.13999999999999985, 0.9086253353280418, 0.0, 0.22158519806160284], [3.024896692450835, 0.09949874371066196, 2.109478608566581, 0.0, 6.272160712226687, 3.5136732915853166, 0.6112282715974445, 12.087365304316737, 0.3919183588453076, 8.37809047456519, 0.22158519806160284, 1.03072789813801], [0.17058722109231975, 0.2799999999999997, 0.09949874371066195, 0.4950757517794618, 0.0, 0.5196152422706632, 0.1705872210923197, 0.27640549922170443, 2.8440112517358296, 0.4358898943540674, 1.9004210059878843, 0.19595917942265406], [7.701292099381764, 0.09949874371066193, 2.1788758569500923, 0.13999999999999993, 3.98517251822302, 0.7906326580656781, 0.40926763859362364, 8.544442638346869, 0.48774993593028815, 12.550601579207271, 0.0, 6.8397295268160985], [0.13999999999999993, 0.7732399368889302, 0.0, 0.5063595560468864, 0.13999999999999987, 0.8185352771872452, 0.09949874371066196, 0.0, 1.814276715388257, 0.13999999999999993, 3.3531477748527587, 0.09949874371066199], [8.50256431907457, 0.09949874371066193, 1.669610733075228, 0.0, 1.4525839046333955, 0.30594117081556693, 0.5969924622639713, 2.052900387257015, 0.1705872210923197, 7.786372711346407, 0.13999999999999985, 5.833789505972941]]</t>
         </is>
       </c>
       <c r="S5" t="inlineStr">
         <is>
-          <t>[[0.5969924622639716, 3.427010358898848, 0.9509994742374992, 3.010913482649413, 0.3411744421846402, 0.31288975694324056, 0.0, 0.39736632972611075, 0.0, 0.0, 0.0, 0.27640549922170493, 0.0, 0.09949874371066196, 0.0, 0.17058722109231994, 0.0, 0.09949874371066196, 0.0, 0.0, 0.0, 0.0, 0.0, 0.09949874371066196, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.09949874371066199, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [3.063396807467163, 64.15703468833328, 19.242203616010308, 13.853577155377593, 4.458374143115404, 6.258594091327538, 0.0, 3.1580215325421697, 0.0, 1.9043108989868232, 0.6062177826491072, 1.0648474069086142, 0.8377947242612599, 1.0131140113531147, 0.0, 1.2333288288206028, 0.0, 0.503884907493765, 0.35440090293338716, 0.4694677837722204, 0.2598076211353322, 0.3192177939902477, 0.0, 0.35440090293338716, 0.0, 0.27640549922170493, 0.0, 0.13999999999999987, 0.0, 0.13999999999999987, 0.0, 0.23748684174075824, 0.09949874371066195, 0.17058722109231975, 0.09949874371066196, 0.13999999999999987, 0.13999999999999993, 0.1705872210923198, 0.0, 0.0, 0.0, 0.09949874371066199, 0.0, 0.0, 0.09949874371066197, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.09949874371066196, 0.0, 0.0], [0.40926763859362286, 19.641229594910804, 37.53771436835225, 13.94960931352559, 4.778817845450904, 2.4914855006601995, 0.0, 3.104899354246448, 0.0, 0.9610411021387169, 0.6737210105080588, 1.1608186766243902, 0.558211429478115, 0.558211429478115, 0.0, 1.6578299068360431, 0.0, 0.5099019513592782, 0.46303347611160933, 0.8491760712596649, 0.3104834939252006, 0.3059411708155672, 0.0, 0.7011419257183246, 0.0, 0.2764054992217051, 0.23748684174075815, 0.30594117081556715, 0.1705872210923199, 0.2179449471770336, 0.0, 0.0, 0.0, 0.13999999999999996, 0.0, 0.0, 0.0, 0.09949874371066196, 0.0, 0.09949874371066196, 0.0, 0.0, 0.0, 0.0, 0.09949874371066195, 0.0, 0.0, 0.0, 0.0, 0.09949874371066195, 0.0, 0.09949874371066195, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [3.5735696439274838, 13.243277539944561, 13.566709254642408, 52.237128558143404, 5.518151864528559, 4.7378792724171435, 0.0, 8.316700066733203, 0.0, 1.3992497989994501, 0.8296987405076621, 1.734935157289747, 0.9205976319760983, 0.7639371701913713, 0.0, 2.0556993943667923, 0.0, 0.6489221833163045, 0.36482872693909374, 0.7054076835419363, 0.3655133376499405, 0.5894913061275798, 0.0, 0.758683069535626, 0.0, 0.40926763859362303, 0.276405499221705, 0.3316624790355398, 0.2764054992217051, 0.271293199325011, 0.0, 0.5173006862551023, 0.0, 0.13999999999999999, 0.1399999999999999, 0.30594117081556726, 0.09949874371066196, 0.09949874371066196, 0.0, 0.17058722109231994, 0.0, 0.09949874371066197, 0.0, 0.09949874371066199, 0.0, 0.0, 0.0, 0.09949874371066195, 0.0, 0.0, 0.0, 0.09949874371066199, 0.0, 0.0, 0.0, 0.09949874371066199, 0.0, 0.09949874371066196, 0.0, 0.0, 0.0, 0.0, 0.0, 0.3655133376499405], [0.23748684174075807, 3.569649842771697, 4.8590019551344055, 5.860878773699384, 5.700342094997458, 1.935846068260592, 0.0, 1.9535608513685983, 0.0, 0.5264028875300745, 0.3815756805667785, 0.4836320915737503, 0.46946778377222037, 0.3316624790355398, 0.0, 0.5099019513592782, 0.0, 0.36551333764994076, 0.19595917942265415, 0.21794494717703367, 0.19595917942265412, 0.19595917942265428, 0.0, 0.19595917942265428, 0.0, 0.22158519806160312, 0.0, 0.09949874371066199, 0.0, 0.09949874371066196, 0.0, 0.19595917942265406, 0.0, 0.13999999999999999, 0.0, 0.0, 0.0, 0.0, 0.0, 0.09949874371066199, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.13999999999999987], [0.2179449471770337, 5.9, 3.2884494826589634, 5.246818083372056, 2.35660773146487, 8.17862457874183, 0.0, 2.9102577205464124, 0.0, 0.7901898506055368, 0.36055512754639873, 0.7071067811865475, 0.4330127018922197, 0.6837397165588672, 0.0, 0.4330127018922195, 0.0, 0.34336569426778807, 0.13999999999999987, 0.3433656942677881, 0.3411744421846401, 0.2179449471770337, 0.0, 0.39127995093027673, 0.0, 0.21794494717703364, 0.0, 0.29849623113198587, 0.0, 0.1705872210923198, 0.0, 0.2215851980616033, 0.0, 0.09949874371066195, 0.0, 0.09949874371066195, 0.0, 0.09949874371066199, 0.0, 0.13999999999999987, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.09949874371066197, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.09949874371066199], [0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.17058722109231975, 3.493365139804312, 2.637783160155511, 7.273953532983284, 1.5052906696050428, 2.7563744302978863, 0.0, 16.063860059151413, 0.0, 0.7753063910480807, 0.4955804677345536, 1.0136567466356647, 0.49749371855331065, 0.4247352116319064, 0.0, 1.5662375298785278, 0.0, 0.21794494717703358, 0.2179449471770336, 0.702780193232564, 0.31921779399024763, 0.3316624790355398, 0.0, 0.8645808232895295, 0.0, 0.237486841740758, 0.19595917942265412, 0.3766961640367473, 0.19595917942265415, 0.0, 0.0, 0.27129319932501095, 0.0, 0.17058722109231966, 0.0, 0.19595917942265423, 0.0, 0.09949874371066199, 0.0, 0.17058722109231989, 0.0, 0.0, 0.0, 0.09949874371066196, 0.0, 0.0, 0.0, 0.09949874371066199, 0.0, 0.09949874371066195, 0.0, 0.19595917942265423, 0.0, 0.0, 0.0, 0.09949874371066196, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.1705872210923197], [0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.09949874371066196, 1.9194790960049553, 0.9945350672550468, 1.2037856952132304, 0.4975942121849889, 1.0141005867269777, 0.0, 0.8774964387392121, 0.0, 0.3815756805667783, 0.21794494717703364, 0.19595917942265403, 0.09949874371066196, 0.13999999999999999, 0.0, 0.13999999999999996, 0.0, 0.0, 0.09949874371066199, 0.0, 0.0, 0.09949874371066199, 0.0, 0.0, 0.0, 0.09949874371066199, 0.0, 0.0, 0.0, 0.0, 0.0, 0.09949874371066197, 0.0, 0.0, 0.0, 0.09949874371066195, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.1399999999999999, 0.7680494775728971, 0.7999999999999995, 0.7860661549767928, 0.39736632972611063, 0.2551470164434615, 0.0, 0.3433656942677881, 0.0, 0.09949874371066193, 0.13999999999999987, 0.09949874371066196, 0.09949874371066197, 0.0, 0.0, 0.24166091947189114, 0.0, 0.09949874371066196, 0.0, 0.0, 0.09949874371066195, 0.13999999999999993, 0.0, 0.09949874371066195, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.09949874371066196, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.2917190429162964, 1.0855413396089522, 0.9217374897442338, 2.1440848863792685, 0.49101934788763685, 0.575847201955519, 0.0, 0.919728220726103, 0.0, 0.19595917942265434, 0.09949874371066196, 0.25980762113533157, 0.13999999999999993, 0.09949874371066199, 0.0, 0.29171904291629647, 0.0, 0.13999999999999993, 0.0, 0.09949874371066196, 0.09949874371066195, 0.17058722109231972, 0.0, 0.1705872210923201, 0.0, 0.0, 0.13999999999999987, 0.0, 0.0, 0.09949874371066199, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.13999999999999987, 0.8997777503361598, 0.6102458520956942, 0.6462197768561404, 0.6212084996198943, 0.47696960070847294, 0.0, 0.29999999999999977, 0.0, 0.13999999999999987, 0.17058722109231972, 0.17058722109231997, 0.0, 0.17058722109231972, 0.0, 0.09949874371066196, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.09949874371066196, 0.0, 0.09949874371066199, 0.0, 0.0, 0.0, 0.0, 0.0, 0.09949874371066196, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.09949874371066199, 0.9888882646689674, 0.5499090833947012, 0.7921489758877432, 0.25514701644346155, 0.5038849074937648, 0.0, 0.31288975694324056, 0.0, 0.17058722109231994, 0.09949874371066197, 0.09949874371066196, 0.13999999999999999, 0.09949874371066197, 0.0, 0.09949874371066199, 0.0, 0.0, 0.09949874371066196, 0.13999999999999987, 0.13999999999999999, 0.13999999999999993, 0.0, 0.09949874371066197, 0.0, 0.0, 0.0, 0.09949874371066199, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.09949874371066199, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.09949874371066199, 1.1187493016757601, 1.6459343850834387, 2.284206645643077, 0.2712931993250109, 0.698212002188447, 0.0, 1.1135528725660033, 0.0, 0.21794494717703364, 0.13999999999999987, 0.3655133376499405, 0.13999999999999993, 0.09949874371066195, 0.0, 0.4476605857119878, 0.0, 0.1959591794226542, 0.0, 0.09949874371066199, 0.09949874371066199, 0.09949874371066199, 0.0, 0.2179449471770336, 0.0, 0.0, 0.0, 0.09949874371066199, 0.13999999999999993, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.09949874371066196, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.09949874371066199, 0.6433506042586734, 0.5156549233741495, 0.5589275444992844, 0.19595917942265406, 0.21794494717703378, 0.0, 0.29171904291629586, 0.0, 0.09949874371066196, 0.09949874371066197, 0.0, 0.0, 0.09949874371066197, 0.0, 0.1399999999999999, 0.0, 0.09949874371066197, 0.0, 0.0, 0.0, 0.09949874371066199, 0.0, 0.17058722109231975, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.09949874371066195, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.36482872693909374, 0.4769696007084732, 0.3929376540877704, 0.09949874371066195, 0.13999999999999987, 0.0, 0.19595917942265423, 0.0, 0.0, 0.09949874371066195, 0.09949874371066196, 0.0, 0.09949874371066199, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.09949874371066197, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.09949874371066195, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.09949874371066196, 0.6939740629158989, 0.7088018058667741, 0.7939773296511691, 0.19595917942265406, 0.37134889255254305, 0.0, 0.5301886456724626, 0.0, 0.09949874371066196, 0.09949874371066196, 0.09949874371066196, 0.0, 0.09949874371066195, 0.0, 0.13999999999999987, 0.0, 0.0, 0.0, 0.0, 0.0, 0.09949874371066196, 0.0, 0.09949874371066195, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.09949874371066196, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.09949874371066196, 0.5271622141238883, 0.29999999999999977, 0.29999999999999977, 0.2416609194718912, 0.17058722109231972, 0.0, 0.17058722109231989, 0.0, 0.0, 0.09949874371066195, 0.09949874371066196, 0.0, 0.0, 0.0, 0.09949874371066195, 0.0, 0.0, 0.0, 0.0, 0.09949874371066197, 0.0, 0.0, 0.09949874371066199, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.09949874371066199, 0.4556314299957808, 0.3605551275463987, 0.5400000000000004, 0.17058722109231958, 0.3241913015489464, 0.0, 0.25514701644346144, 0.0, 0.13999999999999987, 0.0, 0.13999999999999987, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.09949874371066199, 0.0, 0.0, 0.09949874371066199, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.09949874371066196, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.09949874371066199, 0.5678027826631361, 0.6611353870426232, 0.9836157786453003, 0.27129319932501084, 0.29171904291629647, 0.0, 0.4828043081829323, 0.0, 0.13999999999999987, 0.0, 0.09949874371066199, 0.0, 0.19595917942265412, 0.0, 0.19595917942265428, 0.0, 0.0, 0.09949874371066196, 0.09949874371066199, 0.0, 0.09949874371066195, 0.0, 0.0, 0.0, 0.0, 0.0, 0.09949874371066196, 0.13999999999999993, 0.0, 0.0, 0.09949874371066195, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.09949874371066199], [0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.40049968789001583, 0.40693979898751614, 0.27129319932501095, 0.0, 0.23748684174075801, 0.0, 0.09949874371066199, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.09949874371066196, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.09949874371066195, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.19595917942265415, 0.17058722109231989, 0.24166091947189144, 0.09949874371066195, 0.09949874371066197, 0.0, 0.1399999999999999, 0.0, 0.0, 0.09949874371066195, 0.09949874371066196, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.09949874371066199, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.09949874371066195, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.09949874371066197, 0.19595917942265428, 0.19595917942265403, 0.4330127018922197, 0.0, 0.19595917942265415, 0.0, 0.276405499221705, 0.0, 0.0, 0.0, 0.09949874371066196, 0.0, 0.09949874371066197, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.13999999999999987], [0.0, 0.1705872210923199, 0.09949874371066196, 0.33704599092705445, 0.0, 0.13999999999999987, 0.0, 0.09949874371066196, 0.0, 0.09949874371066196, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.09949874371066197, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.13999999999999987, 0.19595917942265428, 0.1959591794226543, 0.09949874371066195, 0.1705872210923198, 0.0, 0.13999999999999993, 0.0, 0.0, 0.09949874371066199, 0.09949874371066197, 0.0, 0.09949874371066196, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.09949874371066195], [0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.2551470164434616, 0.31048349392520025, 0.3316624790355398, 0.19595917942265398, 0.2598076211353315, 0.0, 0.2598076211353318, 0.0, 0.13999999999999996, 0.09949874371066195, 0.0, 0.0, 0.0, 0.0, 0.17058722109231983, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.13999999999999987], [0.0, 0.09949874371066195, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.19595917942265428, 0.13999999999999987, 0.1705872210923198, 0.0, 0.0, 0.0, 0.17058722109231977, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.09949874371066199, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.1399999999999999, 0.09949874371066197, 0.0, 0.0, 0.0, 0.0, 0.09949874371066196, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.19595917942265406, 0.09949874371066199, 0.2551470164434615, 0.0, 0.13999999999999987, 0.0, 0.24166091947189114, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.09949874371066195, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.0, 0.13999999999999993, 0.13999999999999993, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.09949874371066199, 0.0, 0.23748684174075813, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.09949874371066199, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.13999999999999987, 0.09949874371066196, 0.13999999999999987, 0.13999999999999987, 0.0, 0.0, 0.1399999999999999, 0.0, 0.0, 0.09949874371066196, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.09949874371066199, 0.0, 0.0, 0.0, 0.09949874371066197, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.09949874371066195, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.0, 0.0, 0.13999999999999993, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.09949874371066195, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.09949874371066197, 0.09949874371066195, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.13999999999999987, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.09949874371066197, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.09949874371066195, 0.0, 0.09949874371066195, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.0, 0.09949874371066195, 0.13999999999999996, 0.0, 0.0, 0.0, 0.13999999999999987, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.09949874371066196, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.0, 0.0, 0.0, 0.0, 0.09949874371066195, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.0, 0.0, 0.09949874371066199, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.09949874371066196, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.09949874371066196, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.09949874371066196, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.09949874371066196, 0.09949874371066199, 0.09949874371066195, 0.35369478367654705, 0.13999999999999987, 0.1399999999999999, 0.0, 0.1705872210923197, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.09949874371066196, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.09949874371066195, 0.0, 0.0, 0.0, 0.0, 0.0, 0.09949874371066195, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0]]</t>
+          <t>[[0.30594117081556715, 7.383738890291279, 2.4433583445741225, 6.877819421880741, 0.2764054992217047, 0.5102940328869232, 0.0, 1.5811388300841893, 0.0, 0.13999999999999987, 0.09949874371066195, 0.37669616403674766, 0.0, 0.09949874371066199, 0.0, 0.31048349392520075, 0.0, 0.0, 0.0, 0.17058722109231975, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.09949874371066196, 0.0, 0.0, 0.0, 0.0, 0.0, 0.09949874371066196, 0.0, 0.13999999999999987, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [8.363587746894265, 65.31437437501793, 17.38390059796708, 14.762167862478734, 3.9545416927881787, 7.3261449617107655, 0.0, 3.4667564090948186, 0.0, 2.295103483505699, 0.7649182962905251, 1.2057777573002415, 0.7168681887209113, 0.9096702699330124, 0.0, 1.479019945774904, 0.0, 0.9002221947941519, 0.5043808085167397, 0.5043808085167398, 0.2179449471770337, 0.5400000000000004, 0.0, 0.558211429478115, 0.0, 0.21794494717703367, 0.27640549922170493, 0.23748684174075818, 0.2598076211353316, 0.2179449471770337, 0.0, 0.3872983346207415, 0.0, 0.19595917942265398, 0.0, 0.09949874371066199, 0.0, 0.09949874371066199, 0.0, 0.0, 0.0, 0.0, 0.09949874371066196, 0.09949874371066196, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.09949874371066196, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.39736632972611075, 17.17617827108231, 15.436113500489697, 18.522621304772173, 3.352252973747656, 3.9982371115280295, 0.0, 3.1029663227305564, 0.0, 1.0336343647538049, 0.7681145747868618, 1.012472221841172, 0.5477225575051659, 0.49101934788763685, 0.09949874371066196, 0.8608716512930363, 0.0, 0.3544009029333872, 0.36055512754639873, 0.35440090293338716, 0.2917190429162964, 0.271293199325011, 0.0, 0.6114736298484185, 0.0, 0.09949874371066199, 0.09949874371066195, 0.17058722109231983, 0.0, 0.21794494717703386, 0.0, 0.2764054992217046, 0.0, 0.09949874371066196, 0.0, 0.09949874371066199, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.09949874371066199, 0.09949874371066195, 0.0, 0.0, 0.0, 0.0, 0.0, 0.09949874371066195, 0.0, 0.09949874371066195, 0.0, 0.0, 0.0, 0.09949874371066199, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.1989974874213239], [7.88970848637641, 13.683727562327453, 16.56252094338298, 45.62148616605996, 4.141304142416975, 4.028039225231057, 0.0, 9.726582133514322, 0.0, 1.456159331941391, 1.032666451474046, 2.777966882451984, 0.827707677867011, 0.7269112738154501, 0.0, 2.131759836379323, 0.0, 0.6617401302626281, 0.29999999999999977, 1.0326664514740462, 0.35440090293338716, 0.3912799509302768, 0.0, 0.9591663046625432, 0.0, 0.4812483766206391, 0.2917190429162962, 0.5830951894845297, 0.4534313619501854, 0.39127995093027673, 0.0, 0.5480875842417888, 0.0, 0.22158519806160287, 0.0, 0.3536947836765471, 0.13999999999999999, 0.0, 0.0, 0.27640549922170493, 0.0, 0.0, 0.13999999999999993, 0.17058722109232, 0.09949874371066199, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.09949874371066196, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.3809199390948175], [0.5660388679233963, 3.899371744268556, 3.2950113808604646, 3.9778888873371003, 4.2579807420889075, 2.1217681305929745, 0.0, 1.2354756169184398, 0.0, 0.40049968789001605, 0.2374868417407582, 0.4828043081829324, 0.4069397989875162, 0.2861817604250836, 0.0, 0.6760917097554151, 0.0, 0.21794494717703372, 0.0, 0.21794494717703378, 0.3104834939252008, 0.1399999999999999, 0.0, 0.19595917942265403, 0.0, 0.13999999999999993, 0.09949874371066199, 0.17058722109231986, 0.0, 0.09949874371066196, 0.0, 0.13999999999999987, 0.0, 0.09949874371066196, 0.0, 0.09949874371066199, 0.0, 0.0, 0.0, 0.09949874371066199, 0.0, 0.0, 0.0, 0.0, 0.09949874371066196, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.09949874371066196, 0.0, 0.0, 0.0, 0.0, 0.0, 0.09949874371066199], [0.46162755550335133, 6.647285160123642, 3.2719871637890017, 4.260328625822192, 2.137171027316251, 8.434565786097115, 0.0, 3.0203311076767716, 0.0, 0.9380831519646851, 0.37469987990390413, 0.63332456134276, 0.40926763859362303, 0.4694677837722203, 0.0, 0.7050531894828921, 0.0, 0.3973663297261107, 0.17058722109231972, 0.2999999999999998, 0.2551470164434615, 0.36055512754639873, 0.0, 0.45343136195018524, 0.0, 0.09949874371066199, 0.09949874371066193, 0.17058722109231983, 0.09949874371066197, 0.09949874371066196, 0.0, 0.1705872210923198, 0.0, 0.19595917942265398, 0.17058722109231975, 0.09949874371066196, 0.09949874371066199, 0.09949874371066199, 0.0, 0.09949874371066199, 0.0, 0.09949874371066196, 0.0, 0.0, 0.0, 0.0, 0.0, 0.09949874371066196, 0.0, 0.0, 0.09949874371066199, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.27640549922170454, 4.067665177961431, 2.9498983033318273, 8.724929799144519, 0.9283856957105701, 2.5403936702802588, 0.0, 8.697447901539853, 0.0, 0.6048966853934645, 0.37469987990390385, 1.7987773625437948, 0.7348469228349531, 0.13999999999999999, 0.0, 0.8209141246196219, 0.0, 0.2598076211353321, 0.13999999999999993, 0.6421837743200927, 0.3128897569432405, 0.17058722109231972, 0.0, 0.6760917097554137, 0.0, 0.1399999999999999, 0.13999999999999987, 0.40049968789001594, 0.0, 0.17058722109231994, 0.0, 0.17058722109231975, 0.0, 0.0, 0.09949874371066199, 0.195959179422654, 0.09949874371066195, 0.0, 0.0, 0.6464518543557575, 0.0, 0.09949874371066195, 0.09949874371066195, 0.09949874371066195, 0.0, 0.13999999999999985, 0.0, 0.27640549922170454, 0.0, 0.0, 0.0, 0.09949874371066195, 0.0, 0.09949874371066195, 0.0, 0.24166091947189128, 0.0, 0.0, 0.0, 0.09949874371066199, 0.0, 0.0, 0.0, 0.221585198061603], [0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.24166091947189117, 3.133352836818731, 0.9941830817309255, 1.3067134345371971, 0.4974937185533107, 0.5211525688318156, 0.0, 0.6264183905346327, 0.0, 0.19595917942265428, 0.13999999999999985, 0.19595917942265406, 0.0, 0.09949874371066196, 0.0, 0.09949874371066199, 0.0, 0.1399999999999999, 0.0, 0.09949874371066199, 0.0, 0.0, 0.0, 0.09949874371066199, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.09949874371066195, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.09949874371066199, 0.9797958971132708, 0.7168681887209112, 1.0438390680559915, 0.31921779399024774, 0.4877499359302881, 0.0, 0.36055512754639873, 0.0, 0.19595917942265392, 0.09949874371066199, 0.0, 0.0, 0.09949874371066199, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.09949874371066195, 0.0, 0.09949874371066195, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.6167657578043712, 1.4142135623730943, 1.0223013254417697, 3.4959405029262154, 0.4247352116319062, 0.653834841531101, 0.0, 0.854400374531754, 0.0, 0.27640549922170454, 0.13999999999999993, 0.21794494717703375, 0.13999999999999993, 0.09949874371066196, 0.0, 0.3136877428271623, 0.0, 0.0, 0.0, 0.1399999999999999, 0.0, 0.0, 0.0, 0.1399999999999999, 0.0, 0.0, 0.0, 0.0, 0.09949874371066196, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.13999999999999985, 0.8304215796810688, 0.5708765190476834, 0.7860661549767932, 0.2917190429162963, 0.8046738469715542, 0.0, 0.21794494717703375, 0.0, 0.19595917942265412, 0.09949874371066196, 0.09949874371066197, 0.0, 0.0, 0.0, 0.09949874371066199, 0.0, 0.0, 0.09949874371066196, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.09949874371066195, 1.0397595875970558, 0.6212084996198943, 0.6333245613427604, 0.3370459909270539, 0.40236799077461405, 0.0, 0.2551470164434615, 0.0, 0.09949874371066197, 0.0, 0.09949874371066195, 0.0, 0.0, 0.0, 0.09949874371066196, 0.0, 0.0, 0.0, 0.09949874371066199, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.09949874371066196, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.0, 0.0, 0.09949874371066196, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.13999999999999987, 1.7406607940664376, 0.6244997998398399, 2.4653397331808047, 0.7889233169326408, 0.6225752966509357, 0.0, 0.8138795979750322, 0.0, 0.0, 0.09949874371066199, 0.1705872210923199, 0.0, 0.1399999999999999, 0.0, 0.09949874371066199, 0.0, 0.0, 0.09949874371066195, 0.0, 0.0, 0.0, 0.0, 0.09949874371066199, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.09949874371066196, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.09949874371066199], [0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 1.0031948963187558, 0.3059411708155668, 0.5708765190476832, 0.13999999999999987, 0.39191835884530796, 0.0, 0.195959179422654, 0.0, 0.0, 0.09949874371066196, 0.09949874371066199, 0.09949874371066196, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.09949874371066199, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.09949874371066196, 0.542125446737192, 0.3059411708155668, 0.271293199325011, 0.17058722109231986, 0.0, 0.0, 0.24166091947189144, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.1399999999999999, 0.8155366331440909, 0.4770744176750623, 1.014889156509222, 0.13999999999999993, 0.1705872210923198, 0.0, 0.3316624790355398, 0.0, 0.09949874371066196, 0.09949874371066199, 0.0, 0.09949874371066196, 0.0, 0.0, 0.09949874371066197, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.09949874371066196, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.09949874371066193, 0.44090815370097247, 0.33166247903553986, 0.3605551275463988, 0.09949874371066199, 0.09949874371066196, 0.0, 0.19899748742132392, 0.0, 0.1399999999999999, 0.09949874371066199, 0.09949874371066196, 0.0, 0.09949874371066199, 0.0, 0.09949874371066197, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.09949874371066195, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.09949874371066196, 0.6140846847137618, 0.276405499221705, 0.371348892552543, 0.1959591794226542, 0.09949874371066199, 0.0, 0.19899748742132392, 0.0, 0.13999999999999987, 0.0, 0.09949874371066197, 0.0, 0.09949874371066199, 0.0, 0.09949874371066199, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.09949874371066195, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.17058722109232, 0.8111103500757464, 0.4555216789572156, 1.2122705968553384, 0.17058722109232005, 0.34117444218464, 0.0, 0.25980762113533196, 0.0, 0.0, 0.09949874371066196, 0.17058722109231972, 0.0, 0.0, 0.0, 0.2179449471770336, 0.0, 0.0, 0.0, 0.09949874371066199, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.4624932431938873, 0.24166091947189136, 0.25514701644346155, 0.0, 0.1705872210923198, 0.0, 0.09949874371066196, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.2917190429162962, 0.13999999999999996, 0.1959591794226539, 0.0, 0.17058722109232, 0.0, 0.0, 0.0, 0.09949874371066199, 0.0, 0.0, 0.0, 0.0, 0.0, 0.09949874371066196, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.09949874371066195, 0.4555216789572151, 0.4302324952859789, 0.6970652767137381, 0.1399999999999999, 0.1399999999999999, 0.0, 0.0, 0.0, 0.0, 0.0, 0.17058722109231983, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.09949874371066199, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.2374868417407583, 0.17058722109231975, 0.21794494717703367, 0.09949874371066199, 0.1399999999999999, 0.0, 0.0, 0.0, 0.0, 0.13999999999999987, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.09949874371066195], [0.0, 0.27129319932501095, 0.2179449471770338, 0.3370459909270544, 0.09949874371066196, 0.17058722109231966, 0.0, 0.09949874371066196, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.09949874371066199, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.09949874371066199, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.3316624790355398, 0.29171904291629625, 0.4828043081829323, 0.0, 0.19595917942265428, 0.0, 0.09949874371066199, 0.0, 0.0, 0.0, 0.0, 0.0, 0.09949874371066199, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.09949874371066195, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.3241913015489459, 0.13999999999999987, 0.22158519806160348, 0.09949874371066196, 0.13999999999999987, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.09949874371066193, 0.13999999999999999, 0.1399999999999999, 0.0, 0.09949874371066195, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.13999999999999987, 0.09949874371066199, 0.13999999999999993, 0.4199999999999989, 0.09949874371066197, 0.0, 0.0, 0.13999999999999996, 0.0, 0.0, 0.0, 0.09949874371066196, 0.0, 0.0, 0.0, 0.09949874371066199, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.09949874371066199, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.0, 0.13999999999999999, 0.0, 0.0, 0.0, 0.0, 0.13999999999999987, 0.0, 0.0, 0.09949874371066195, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.0, 0.09949874371066199, 0.09949874371066199, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.0, 0.45287967496896947, 0.37669616403674766, 0.0, 0.0, 0.0, 0.13999999999999987, 0.0, 0.09949874371066199, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.09949874371066195, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.0, 0.0, 0.0, 0.09949874371066196, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.09949874371066195, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.09949874371066196, 0.09949874371066199, 0.13999999999999993, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.09949874371066195, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.09949874371066196, 0.09949874371066195, 0.13999999999999987, 0.0, 0.09949874371066196, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.09949874371066195, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.09949874371066199, 0.0, 0.0, 0.0, 0.0, 0.0, 0.09949874371066196, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.09949874371066199, 0.0, 0.09949874371066193, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.0, 0.13999999999999987, 0.0, 0.0, 0.09949874371066196, 0.0, 0.13999999999999987, 0.0, 0.0, 0.0, 0.13999999999999987, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.0, 0.09949874371066195, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.09949874371066199, 0.0, 0.0, 0.0, 0.09949874371066195, 0.0, 0.0, 0.0, 0.0, 0.0, 0.09949874371066195, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.0, 0.09949874371066199, 0.09949874371066195, 0.0, 0.0, 0.0, 0.09949874371066195, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.0, 0.0, 0.09949874371066196, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.09949874371066195, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.09949874371066196, 0.0, 0.2179449471770339, 0.0, 0.0, 0.0, 0.13999999999999987, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.0, 0.0, 0.0, 0.0, 0.09949874371066196, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.0, 0.0, 0.09949874371066199, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.09949874371066196, 0.0, 0.2984962311319856, 0.2215851980616033, 0.0, 0.0, 0.0, 0.3136877428271622, 0.0, 0.0, 0.0, 0.09949874371066196, 0.0, 0.0, 0.0, 0.09949874371066199, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.09949874371066195, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.09949874371066195, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0]]</t>
         </is>
       </c>
     </row>
@@ -824,58 +824,58 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.001530880007633254</v>
+        <v>0.00239396559009896</v>
       </c>
       <c r="C6" t="n">
-        <v>0.3593929626709225</v>
+        <v>0.688333435238125</v>
       </c>
       <c r="D6" t="n">
-        <v>0.009952269378775754</v>
+        <v>0.005309737143416591</v>
       </c>
       <c r="E6" t="n">
-        <v>0.4571797723185962</v>
+        <v>0.8151434903058086</v>
       </c>
       <c r="F6" t="n">
-        <v>0.004822651405260819</v>
+        <v>0.003446739437989619</v>
       </c>
       <c r="G6" t="n">
-        <v>0.9917085502476699</v>
+        <v>0.9896167951655446</v>
       </c>
       <c r="H6" t="n">
-        <v>0.005315076158153366</v>
+        <v>0.01635268105939114</v>
       </c>
       <c r="I6" t="n">
-        <v>0.5348785295171488</v>
+        <v>0.3112544667672794</v>
       </c>
       <c r="J6" t="n">
-        <v>0.1096736223886476</v>
+        <v>0.1134228452601836</v>
       </c>
       <c r="K6" t="n">
-        <v>0.01352420720968259</v>
+        <v>0.03562331873105058</v>
       </c>
       <c r="L6" t="n">
-        <v>0.002553319530533884</v>
+        <v>0.002206841675022716</v>
       </c>
       <c r="M6" t="n">
-        <v>0.002459677213859042</v>
+        <v>0.002099853006950274</v>
       </c>
       <c r="N6" t="n">
-        <v>0.05952965797478928</v>
+        <v>0.05044550880261011</v>
       </c>
       <c r="O6" t="n">
-        <v>0.1457729060411827</v>
+        <v>0.0960395205745896</v>
       </c>
       <c r="P6" t="n">
-        <v>0.02556240115878923</v>
+        <v>0.01560829779727778</v>
       </c>
       <c r="Q6" t="n">
-        <v>0.01275673143250599</v>
+        <v>0.007729190019311938</v>
       </c>
       <c r="R6" t="n">
-        <v>0.782613560513841</v>
+        <v>0.9069232549883832</v>
       </c>
       <c r="S6" t="n">
-        <v>0.05804096679253205</v>
+        <v>0.03485356311455375</v>
       </c>
     </row>
     <row r="7">
@@ -885,58 +885,58 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.9650603195392633</v>
+        <v>0.9620003120951084</v>
       </c>
       <c r="C7" t="n">
-        <v>0.6848271980986546</v>
+        <v>0.6560171787666389</v>
       </c>
       <c r="D7" t="n">
-        <v>0.9432278567532038</v>
+        <v>0.959444470088741</v>
       </c>
       <c r="E7" t="n">
-        <v>0.6480684616914182</v>
+        <v>0.5180940117347831</v>
       </c>
       <c r="F7" t="n">
-        <v>0.9458601569506757</v>
+        <v>0.9385154600919906</v>
       </c>
       <c r="G7" t="n">
-        <v>0.7291733613106187</v>
+        <v>0.7494298420978664</v>
       </c>
       <c r="H7" t="n">
-        <v>0.8837325075266357</v>
+        <v>0.9027679075277042</v>
       </c>
       <c r="I7" t="n">
-        <v>0.5582342686699858</v>
+        <v>0.5693753512248155</v>
       </c>
       <c r="J7" t="n">
-        <v>0.8222934936697121</v>
+        <v>0.8209686935963277</v>
       </c>
       <c r="K7" t="n">
-        <v>0.9672705144746507</v>
+        <v>0.962497345347625</v>
       </c>
       <c r="L7" t="n">
-        <v>0.9548591017835089</v>
+        <v>0.9562295684357555</v>
       </c>
       <c r="M7" t="n">
-        <v>0.9603770772792293</v>
+        <v>0.9597803241717995</v>
       </c>
       <c r="N7" t="n">
-        <v>0.7954986045996466</v>
+        <v>0.811237174418917</v>
       </c>
       <c r="O7" t="n">
-        <v>0.8988484213236101</v>
+        <v>0.9485273796603984</v>
       </c>
       <c r="P7" t="n">
-        <v>0.9381913915018435</v>
+        <v>0.9090619572244013</v>
       </c>
       <c r="Q7" t="n">
-        <v>0.9803784057657241</v>
+        <v>0.9705459695063425</v>
       </c>
       <c r="R7" t="n">
-        <v>0.7876861515536615</v>
+        <v>0.8411515736325348</v>
       </c>
       <c r="S7" t="n">
-        <v>0.971452281466303</v>
+        <v>0.9772651167043122</v>
       </c>
     </row>
     <row r="8">
@@ -946,58 +946,58 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.01727617294760816</v>
+        <v>0.01920449638552992</v>
       </c>
       <c r="C8" t="n">
-        <v>0.05950057114848028</v>
+        <v>0.0400395771167259</v>
       </c>
       <c r="D8" t="n">
-        <v>0.01479044224408334</v>
+        <v>0.06708861039168072</v>
       </c>
       <c r="E8" t="n">
-        <v>0.07067154999204862</v>
+        <v>0.04559244054087658</v>
       </c>
       <c r="F8" t="n">
-        <v>0.02506727158799478</v>
+        <v>0.05250772485025365</v>
       </c>
       <c r="G8" t="n">
-        <v>0.5283061163740412</v>
+        <v>0.6876936729122677</v>
       </c>
       <c r="H8" t="n">
-        <v>0.01666622813767058</v>
+        <v>0.0451937891856231</v>
       </c>
       <c r="I8" t="n">
-        <v>0.0940615966976506</v>
+        <v>0.1813553354244814</v>
       </c>
       <c r="J8" t="n">
-        <v>2.454593575312089</v>
+        <v>4.943733216232038</v>
       </c>
       <c r="K8" t="n">
-        <v>0.04226998884444826</v>
+        <v>0.05511929690237048</v>
       </c>
       <c r="L8" t="n">
-        <v>0.4736176613242868</v>
+        <v>0.6641816890892751</v>
       </c>
       <c r="M8" t="n">
-        <v>0.2860702902277802</v>
+        <v>0.2413143174318603</v>
       </c>
       <c r="N8" t="n">
-        <v>1.724605746809436</v>
+        <v>0.9176647080968479</v>
       </c>
       <c r="O8" t="n">
-        <v>1.182982138024198</v>
+        <v>1.59954909084541</v>
       </c>
       <c r="P8" t="n">
-        <v>0.9866735924878048</v>
+        <v>1.115343481352816</v>
       </c>
       <c r="Q8" t="n">
-        <v>0.2926918778432511</v>
+        <v>0.3019343795369223</v>
       </c>
       <c r="R8" t="n">
-        <v>1.166554365252226</v>
+        <v>2.626006618134341</v>
       </c>
       <c r="S8" t="n">
-        <v>0.2718864000684232</v>
+        <v>0.372106463337493</v>
       </c>
     </row>
     <row r="9">
@@ -1007,58 +1007,58 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.9416994350981508</v>
+        <v>0.9493940838413345</v>
       </c>
       <c r="C9" t="n">
-        <v>0.830888513093308</v>
+        <v>0.8151772164239059</v>
       </c>
       <c r="D9" t="n">
-        <v>0.9143769964932824</v>
+        <v>0.9477094143310839</v>
       </c>
       <c r="E9" t="n">
-        <v>0.8643260000615833</v>
+        <v>0.8521471089524422</v>
       </c>
       <c r="F9" t="n">
-        <v>0.9174453346674486</v>
+        <v>0.9198202096252071</v>
       </c>
       <c r="G9" t="n">
-        <v>0.7784428953196483</v>
+        <v>0.7593152466266099</v>
       </c>
       <c r="H9" t="n">
-        <v>0.7869397358180309</v>
+        <v>0.827530134499126</v>
       </c>
       <c r="I9" t="n">
-        <v>0.547723866101432</v>
+        <v>0.4823698510389626</v>
       </c>
       <c r="J9" t="n">
-        <v>0.1358628642269206</v>
+        <v>0.1332998987799033</v>
       </c>
       <c r="K9" t="n">
-        <v>0.9541401041672327</v>
+        <v>0.9553340763632775</v>
       </c>
       <c r="L9" t="n">
-        <v>0.9450800102226349</v>
+        <v>0.9328675793590084</v>
       </c>
       <c r="M9" t="n">
-        <v>0.9465832197540198</v>
+        <v>0.9450145341684557</v>
       </c>
       <c r="N9" t="n">
-        <v>0.6665238945332496</v>
+        <v>0.6889740455211874</v>
       </c>
       <c r="O9" t="n">
-        <v>0.851716486792318</v>
+        <v>0.9295997247907534</v>
       </c>
       <c r="P9" t="n">
-        <v>0.9070508124013715</v>
+        <v>0.881075151230519</v>
       </c>
       <c r="Q9" t="n">
-        <v>0.9650193038374021</v>
+        <v>0.9305332929197517</v>
       </c>
       <c r="R9" t="n">
-        <v>0.7437879632751727</v>
+        <v>0.82699857499679</v>
       </c>
       <c r="S9" t="n">
-        <v>0.9660817451886065</v>
+        <v>0.9621902839991067</v>
       </c>
     </row>
   </sheetData>
